--- a/data/6467.0/646702.xlsx
+++ b/data/6467.0/646702.xlsx
@@ -18,908 +18,908 @@
     <sheet name="Enquiries" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="A4083524T">Data1!$N$1:$N$10,Data1!$N$11:$N$118</definedName>
-    <definedName name="A4083524T_Data">Data1!$N$11:$N$118</definedName>
-    <definedName name="A4083524T_Latest">Data1!$N$118</definedName>
-    <definedName name="A4083525V">Data1!$ED$1:$ED$10,Data1!$ED$12:$ED$118</definedName>
-    <definedName name="A4083525V_Data">Data1!$ED$12:$ED$118</definedName>
-    <definedName name="A4083525V_Latest">Data1!$ED$118</definedName>
-    <definedName name="A4083526W">Data1!$BV$1:$BV$10,Data1!$BV$15:$BV$118</definedName>
-    <definedName name="A4083526W_Data">Data1!$BV$15:$BV$118</definedName>
-    <definedName name="A4083526W_Latest">Data1!$BV$118</definedName>
-    <definedName name="A4083527X">Data1!$GL$1:$GL$10,Data1!$GL$117:$GL$118</definedName>
-    <definedName name="A4083527X_Data">Data1!$GL$117:$GL$118</definedName>
-    <definedName name="A4083527X_Latest">Data1!$GL$118</definedName>
-    <definedName name="A4083528A">Data2!$D$1:$D$10,Data2!$D$118</definedName>
-    <definedName name="A4083528A_Data">Data2!$D$118</definedName>
-    <definedName name="A4083528A_Latest">Data2!$D$118</definedName>
-    <definedName name="A4083728V">Data1!$AU$1:$AU$10,Data1!$AU$47:$AU$118</definedName>
-    <definedName name="A4083728V_Data">Data1!$AU$47:$AU$118</definedName>
-    <definedName name="A4083728V_Latest">Data1!$AU$118</definedName>
-    <definedName name="A4083729W">Data1!$FK$1:$FK$10,Data1!$FK$48:$FK$118</definedName>
-    <definedName name="A4083729W_Data">Data1!$FK$48:$FK$118</definedName>
-    <definedName name="A4083729W_Latest">Data1!$FK$118</definedName>
-    <definedName name="A4083730F">Data1!$DC$1:$DC$10,Data1!$DC$51:$DC$118</definedName>
-    <definedName name="A4083730F_Data">Data1!$DC$51:$DC$118</definedName>
-    <definedName name="A4083730F_Latest">Data1!$DC$118</definedName>
-    <definedName name="A4083731J">Data1!$HS$1:$HS$10,Data1!$HS$117:$HS$118</definedName>
-    <definedName name="A4083731J_Data">Data1!$HS$117:$HS$118</definedName>
-    <definedName name="A4083731J_Latest">Data1!$HS$118</definedName>
-    <definedName name="A4083732K">Data2!$AK$1:$AK$10,Data2!$AK$118</definedName>
-    <definedName name="A4083732K_Data">Data2!$AK$118</definedName>
-    <definedName name="A4083732K_Latest">Data2!$AK$118</definedName>
-    <definedName name="A4083938T">Data1!$G$1:$G$10,Data1!$G$47:$G$118</definedName>
-    <definedName name="A4083938T_Data">Data1!$G$47:$G$118</definedName>
-    <definedName name="A4083938T_Latest">Data1!$G$118</definedName>
-    <definedName name="A4083939V">Data1!$DW$1:$DW$10,Data1!$DW$48:$DW$118</definedName>
-    <definedName name="A4083939V_Data">Data1!$DW$48:$DW$118</definedName>
-    <definedName name="A4083939V_Latest">Data1!$DW$118</definedName>
-    <definedName name="A4083940C">Data1!$BO$1:$BO$10,Data1!$BO$51:$BO$118</definedName>
-    <definedName name="A4083940C_Data">Data1!$BO$51:$BO$118</definedName>
-    <definedName name="A4083940C_Latest">Data1!$BO$118</definedName>
-    <definedName name="A4083941F">Data1!$GE$1:$GE$10,Data1!$GE$117:$GE$118</definedName>
-    <definedName name="A4083941F_Data">Data1!$GE$117:$GE$118</definedName>
-    <definedName name="A4083941F_Latest">Data1!$GE$118</definedName>
-    <definedName name="A4083942J">Data1!$IM$1:$IM$10,Data1!$IM$118</definedName>
-    <definedName name="A4083942J_Data">Data1!$IM$118</definedName>
-    <definedName name="A4083942J_Latest">Data1!$IM$118</definedName>
-    <definedName name="A4084454R">Data1!$AH$1:$AH$10,Data1!$AH$47:$AH$118</definedName>
-    <definedName name="A4084454R_Data">Data1!$AH$47:$AH$118</definedName>
-    <definedName name="A4084454R_Latest">Data1!$AH$118</definedName>
-    <definedName name="A4084455T">Data1!$EX$1:$EX$10,Data1!$EX$48:$EX$118</definedName>
-    <definedName name="A4084455T_Data">Data1!$EX$48:$EX$118</definedName>
-    <definedName name="A4084455T_Latest">Data1!$EX$118</definedName>
-    <definedName name="A4084456V">Data1!$CP$1:$CP$10,Data1!$CP$51:$CP$118</definedName>
-    <definedName name="A4084456V_Data">Data1!$CP$51:$CP$118</definedName>
-    <definedName name="A4084456V_Latest">Data1!$CP$118</definedName>
-    <definedName name="A4084457W">Data1!$HF$1:$HF$10,Data1!$HF$117:$HF$118</definedName>
-    <definedName name="A4084457W_Data">Data1!$HF$117:$HF$118</definedName>
-    <definedName name="A4084457W_Latest">Data1!$HF$118</definedName>
-    <definedName name="A4084458X">Data2!$X$1:$X$10,Data2!$X$118</definedName>
-    <definedName name="A4084458X_Data">Data2!$X$118</definedName>
-    <definedName name="A4084458X_Latest">Data2!$X$118</definedName>
-    <definedName name="A4084874K">Data1!$AA$1:$AA$10,Data1!$AA$47:$AA$118</definedName>
-    <definedName name="A4084874K_Data">Data1!$AA$47:$AA$118</definedName>
-    <definedName name="A4084874K_Latest">Data1!$AA$118</definedName>
-    <definedName name="A4084875L">Data1!$EQ$1:$EQ$10,Data1!$EQ$48:$EQ$118</definedName>
-    <definedName name="A4084875L_Data">Data1!$EQ$48:$EQ$118</definedName>
-    <definedName name="A4084875L_Latest">Data1!$EQ$118</definedName>
-    <definedName name="A4084876R">Data1!$CI$1:$CI$10,Data1!$CI$51:$CI$118</definedName>
-    <definedName name="A4084876R_Data">Data1!$CI$51:$CI$118</definedName>
-    <definedName name="A4084876R_Latest">Data1!$CI$118</definedName>
-    <definedName name="A4084877T">Data1!$GY$1:$GY$10,Data1!$GY$117:$GY$118</definedName>
-    <definedName name="A4084877T_Data">Data1!$GY$117:$GY$118</definedName>
-    <definedName name="A4084877T_Latest">Data1!$GY$118</definedName>
-    <definedName name="A4084878V">Data2!$Q$1:$Q$10,Data2!$Q$118</definedName>
-    <definedName name="A4084878V_Data">Data2!$Q$118</definedName>
-    <definedName name="A4084878V_Latest">Data2!$Q$118</definedName>
-    <definedName name="A4085534J">Data1!$H$1:$H$10,Data1!$H$47:$H$118</definedName>
-    <definedName name="A4085534J_Data">Data1!$H$47:$H$118</definedName>
-    <definedName name="A4085534J_Latest">Data1!$H$118</definedName>
-    <definedName name="A4085535K">Data1!$DX$1:$DX$10,Data1!$DX$48:$DX$118</definedName>
-    <definedName name="A4085535K_Data">Data1!$DX$48:$DX$118</definedName>
-    <definedName name="A4085535K_Latest">Data1!$DX$118</definedName>
-    <definedName name="A4085536L">Data1!$BP$1:$BP$10,Data1!$BP$51:$BP$118</definedName>
-    <definedName name="A4085536L_Data">Data1!$BP$51:$BP$118</definedName>
-    <definedName name="A4085536L_Latest">Data1!$BP$118</definedName>
-    <definedName name="A4085537R">Data1!$GF$1:$GF$10,Data1!$GF$117:$GF$118</definedName>
-    <definedName name="A4085537R_Data">Data1!$GF$117:$GF$118</definedName>
-    <definedName name="A4085537R_Latest">Data1!$GF$118</definedName>
-    <definedName name="A4085538T">Data1!$IN$1:$IN$10,Data1!$IN$118</definedName>
-    <definedName name="A4085538T_Data">Data1!$IN$118</definedName>
-    <definedName name="A4085538T_Latest">Data1!$IN$118</definedName>
-    <definedName name="A4085684R">Data1!$AC$1:$AC$10,Data1!$AC$47:$AC$118</definedName>
-    <definedName name="A4085684R_Data">Data1!$AC$47:$AC$118</definedName>
-    <definedName name="A4085684R_Latest">Data1!$AC$118</definedName>
-    <definedName name="A4085685T">Data1!$ES$1:$ES$10,Data1!$ES$48:$ES$118</definedName>
-    <definedName name="A4085685T_Data">Data1!$ES$48:$ES$118</definedName>
-    <definedName name="A4085685T_Latest">Data1!$ES$118</definedName>
-    <definedName name="A4085686V">Data1!$CK$1:$CK$10,Data1!$CK$51:$CK$118</definedName>
-    <definedName name="A4085686V_Data">Data1!$CK$51:$CK$118</definedName>
-    <definedName name="A4085686V_Latest">Data1!$CK$118</definedName>
-    <definedName name="A4085687W">Data1!$HA$1:$HA$10,Data1!$HA$117:$HA$118</definedName>
-    <definedName name="A4085687W_Data">Data1!$HA$117:$HA$118</definedName>
-    <definedName name="A4085687W_Latest">Data1!$HA$118</definedName>
-    <definedName name="A4085688X">Data2!$S$1:$S$10,Data2!$S$118</definedName>
-    <definedName name="A4085688X_Data">Data2!$S$118</definedName>
-    <definedName name="A4085688X_Latest">Data2!$S$118</definedName>
-    <definedName name="A4086140K">Data1!$AB$1:$AB$10,Data1!$AB$47:$AB$118</definedName>
-    <definedName name="A4086140K_Data">Data1!$AB$47:$AB$118</definedName>
-    <definedName name="A4086140K_Latest">Data1!$AB$118</definedName>
-    <definedName name="A4086141L">Data1!$ER$1:$ER$10,Data1!$ER$48:$ER$118</definedName>
-    <definedName name="A4086141L_Data">Data1!$ER$48:$ER$118</definedName>
-    <definedName name="A4086141L_Latest">Data1!$ER$118</definedName>
-    <definedName name="A4086142R">Data1!$CJ$1:$CJ$10,Data1!$CJ$51:$CJ$118</definedName>
-    <definedName name="A4086142R_Data">Data1!$CJ$51:$CJ$118</definedName>
-    <definedName name="A4086142R_Latest">Data1!$CJ$118</definedName>
-    <definedName name="A4086143T">Data1!$GZ$1:$GZ$10,Data1!$GZ$117:$GZ$118</definedName>
-    <definedName name="A4086143T_Data">Data1!$GZ$117:$GZ$118</definedName>
-    <definedName name="A4086143T_Latest">Data1!$GZ$118</definedName>
-    <definedName name="A4086144V">Data2!$R$1:$R$10,Data2!$R$118</definedName>
-    <definedName name="A4086144V_Data">Data2!$R$118</definedName>
-    <definedName name="A4086144V_Latest">Data2!$R$118</definedName>
-    <definedName name="A4086152V">Data1!$Q$1:$Q$10,Data1!$Q$47:$Q$118</definedName>
-    <definedName name="A4086152V_Data">Data1!$Q$47:$Q$118</definedName>
-    <definedName name="A4086152V_Latest">Data1!$Q$118</definedName>
-    <definedName name="A4086153W">Data1!$EG$1:$EG$10,Data1!$EG$48:$EG$118</definedName>
-    <definedName name="A4086153W_Data">Data1!$EG$48:$EG$118</definedName>
-    <definedName name="A4086153W_Latest">Data1!$EG$118</definedName>
-    <definedName name="A4086154X">Data1!$BY$1:$BY$10,Data1!$BY$51:$BY$118</definedName>
-    <definedName name="A4086154X_Data">Data1!$BY$51:$BY$118</definedName>
-    <definedName name="A4086154X_Latest">Data1!$BY$118</definedName>
-    <definedName name="A4086155A">Data1!$GO$1:$GO$10,Data1!$GO$117:$GO$118</definedName>
-    <definedName name="A4086155A_Data">Data1!$GO$117:$GO$118</definedName>
-    <definedName name="A4086155A_Latest">Data1!$GO$118</definedName>
-    <definedName name="A4086156C">Data2!$G$1:$G$10,Data2!$G$118</definedName>
-    <definedName name="A4086156C_Data">Data2!$G$118</definedName>
-    <definedName name="A4086156C_Latest">Data2!$G$118</definedName>
-    <definedName name="A4086854L">Data1!$AO$1:$AO$10,Data1!$AO$47:$AO$118</definedName>
-    <definedName name="A4086854L_Data">Data1!$AO$47:$AO$118</definedName>
-    <definedName name="A4086854L_Latest">Data1!$AO$118</definedName>
-    <definedName name="A4086855R">Data1!$FE$1:$FE$10,Data1!$FE$48:$FE$118</definedName>
-    <definedName name="A4086855R_Data">Data1!$FE$48:$FE$118</definedName>
-    <definedName name="A4086855R_Latest">Data1!$FE$118</definedName>
-    <definedName name="A4086856T">Data1!$CW$1:$CW$10,Data1!$CW$51:$CW$118</definedName>
-    <definedName name="A4086856T_Data">Data1!$CW$51:$CW$118</definedName>
-    <definedName name="A4086856T_Latest">Data1!$CW$118</definedName>
-    <definedName name="A4086857V">Data1!$HM$1:$HM$10,Data1!$HM$117:$HM$118</definedName>
-    <definedName name="A4086857V_Data">Data1!$HM$117:$HM$118</definedName>
-    <definedName name="A4086857V_Latest">Data1!$HM$118</definedName>
-    <definedName name="A4086858W">Data2!$AE$1:$AE$10,Data2!$AE$118</definedName>
-    <definedName name="A4086858W_Data">Data2!$AE$118</definedName>
-    <definedName name="A4086858W_Latest">Data2!$AE$118</definedName>
-    <definedName name="A4087706C">Data1!$K$1:$K$10,Data1!$K$47:$K$118</definedName>
-    <definedName name="A4087706C_Data">Data1!$K$47:$K$118</definedName>
-    <definedName name="A4087706C_Latest">Data1!$K$118</definedName>
-    <definedName name="A4087707F">Data1!$EA$1:$EA$10,Data1!$EA$48:$EA$118</definedName>
-    <definedName name="A4087707F_Data">Data1!$EA$48:$EA$118</definedName>
-    <definedName name="A4087707F_Latest">Data1!$EA$118</definedName>
-    <definedName name="A4087708J">Data1!$BS$1:$BS$10,Data1!$BS$51:$BS$118</definedName>
-    <definedName name="A4087708J_Data">Data1!$BS$51:$BS$118</definedName>
-    <definedName name="A4087708J_Latest">Data1!$BS$118</definedName>
-    <definedName name="A4087709K">Data1!$GI$1:$GI$10,Data1!$GI$117:$GI$118</definedName>
-    <definedName name="A4087709K_Data">Data1!$GI$117:$GI$118</definedName>
-    <definedName name="A4087709K_Latest">Data1!$GI$118</definedName>
-    <definedName name="A4087710V">Data1!$IQ$1:$IQ$10,Data1!$IQ$118</definedName>
-    <definedName name="A4087710V_Data">Data1!$IQ$118</definedName>
-    <definedName name="A4087710V_Latest">Data1!$IQ$118</definedName>
-    <definedName name="A4087754W">Data1!$AY$1:$AY$10,Data1!$AY$47:$AY$118</definedName>
-    <definedName name="A4087754W_Data">Data1!$AY$47:$AY$118</definedName>
-    <definedName name="A4087754W_Latest">Data1!$AY$118</definedName>
-    <definedName name="A4087755X">Data1!$FO$1:$FO$10,Data1!$FO$48:$FO$118</definedName>
-    <definedName name="A4087755X_Data">Data1!$FO$48:$FO$118</definedName>
-    <definedName name="A4087755X_Latest">Data1!$FO$118</definedName>
-    <definedName name="A4087756A">Data1!$DG$1:$DG$10,Data1!$DG$51:$DG$118</definedName>
-    <definedName name="A4087756A_Data">Data1!$DG$51:$DG$118</definedName>
-    <definedName name="A4087756A_Latest">Data1!$DG$118</definedName>
-    <definedName name="A4087757C">Data1!$HW$1:$HW$10,Data1!$HW$117:$HW$118</definedName>
-    <definedName name="A4087757C_Data">Data1!$HW$117:$HW$118</definedName>
-    <definedName name="A4087757C_Latest">Data1!$HW$118</definedName>
-    <definedName name="A4087758F">Data2!$AO$1:$AO$10,Data2!$AO$118</definedName>
-    <definedName name="A4087758F_Data">Data2!$AO$118</definedName>
-    <definedName name="A4087758F_Latest">Data2!$AO$118</definedName>
-    <definedName name="A4088180R">Data1!$BF$1:$BF$10,Data1!$BF$47:$BF$118</definedName>
-    <definedName name="A4088180R_Data">Data1!$BF$47:$BF$118</definedName>
-    <definedName name="A4088180R_Latest">Data1!$BF$118</definedName>
-    <definedName name="A4088181T">Data1!$FV$1:$FV$10,Data1!$FV$48:$FV$118</definedName>
-    <definedName name="A4088181T_Data">Data1!$FV$48:$FV$118</definedName>
-    <definedName name="A4088181T_Latest">Data1!$FV$118</definedName>
-    <definedName name="A4088182V">Data1!$DN$1:$DN$10,Data1!$DN$51:$DN$118</definedName>
-    <definedName name="A4088182V_Data">Data1!$DN$51:$DN$118</definedName>
-    <definedName name="A4088182V_Latest">Data1!$DN$118</definedName>
-    <definedName name="A4088183W">Data1!$ID$1:$ID$10,Data1!$ID$117:$ID$118</definedName>
-    <definedName name="A4088183W_Data">Data1!$ID$117:$ID$118</definedName>
-    <definedName name="A4088183W_Latest">Data1!$ID$118</definedName>
-    <definedName name="A4088184X">Data2!$AV$1:$AV$10,Data2!$AV$118</definedName>
-    <definedName name="A4088184X_Data">Data2!$AV$118</definedName>
-    <definedName name="A4088184X_Latest">Data2!$AV$118</definedName>
-    <definedName name="A4088984W">Data1!$AW$1:$AW$10,Data1!$AW$47:$AW$118</definedName>
-    <definedName name="A4088984W_Data">Data1!$AW$47:$AW$118</definedName>
-    <definedName name="A4088984W_Latest">Data1!$AW$118</definedName>
-    <definedName name="A4088985X">Data1!$FM$1:$FM$10,Data1!$FM$48:$FM$118</definedName>
-    <definedName name="A4088985X_Data">Data1!$FM$48:$FM$118</definedName>
-    <definedName name="A4088985X_Latest">Data1!$FM$118</definedName>
-    <definedName name="A4088986A">Data1!$DE$1:$DE$10,Data1!$DE$51:$DE$118</definedName>
-    <definedName name="A4088986A_Data">Data1!$DE$51:$DE$118</definedName>
-    <definedName name="A4088986A_Latest">Data1!$DE$118</definedName>
-    <definedName name="A4088987C">Data1!$HU$1:$HU$10,Data1!$HU$117:$HU$118</definedName>
-    <definedName name="A4088987C_Data">Data1!$HU$117:$HU$118</definedName>
-    <definedName name="A4088987C_Latest">Data1!$HU$118</definedName>
-    <definedName name="A4088988F">Data2!$AM$1:$AM$10,Data2!$AM$118</definedName>
-    <definedName name="A4088988F_Data">Data2!$AM$118</definedName>
-    <definedName name="A4088988F_Latest">Data2!$AM$118</definedName>
-    <definedName name="A4090940K">Data1!$I$1:$I$10,Data1!$I$47:$I$118</definedName>
-    <definedName name="A4090940K_Data">Data1!$I$47:$I$118</definedName>
-    <definedName name="A4090940K_Latest">Data1!$I$118</definedName>
-    <definedName name="A4090941L">Data1!$DY$1:$DY$10,Data1!$DY$48:$DY$118</definedName>
-    <definedName name="A4090941L_Data">Data1!$DY$48:$DY$118</definedName>
-    <definedName name="A4090941L_Latest">Data1!$DY$118</definedName>
-    <definedName name="A4090942R">Data1!$BQ$1:$BQ$10,Data1!$BQ$51:$BQ$118</definedName>
-    <definedName name="A4090942R_Data">Data1!$BQ$51:$BQ$118</definedName>
-    <definedName name="A4090942R_Latest">Data1!$BQ$118</definedName>
-    <definedName name="A4090943T">Data1!$GG$1:$GG$10,Data1!$GG$117:$GG$118</definedName>
-    <definedName name="A4090943T_Data">Data1!$GG$117:$GG$118</definedName>
-    <definedName name="A4090943T_Latest">Data1!$GG$118</definedName>
-    <definedName name="A4090944V">Data1!$IO$1:$IO$10,Data1!$IO$118</definedName>
-    <definedName name="A4090944V_Data">Data1!$IO$118</definedName>
-    <definedName name="A4090944V_Latest">Data1!$IO$118</definedName>
-    <definedName name="A4091996R">Data1!$AS$1:$AS$10,Data1!$AS$47:$AS$118</definedName>
-    <definedName name="A4091996R_Data">Data1!$AS$47:$AS$118</definedName>
-    <definedName name="A4091996R_Latest">Data1!$AS$118</definedName>
-    <definedName name="A4091997T">Data1!$FI$1:$FI$10,Data1!$FI$48:$FI$118</definedName>
-    <definedName name="A4091997T_Data">Data1!$FI$48:$FI$118</definedName>
-    <definedName name="A4091997T_Latest">Data1!$FI$118</definedName>
-    <definedName name="A4091998V">Data1!$DA$1:$DA$10,Data1!$DA$51:$DA$118</definedName>
-    <definedName name="A4091998V_Data">Data1!$DA$51:$DA$118</definedName>
-    <definedName name="A4091998V_Latest">Data1!$DA$118</definedName>
-    <definedName name="A4091999W">Data1!$HQ$1:$HQ$10,Data1!$HQ$117:$HQ$118</definedName>
-    <definedName name="A4091999W_Data">Data1!$HQ$117:$HQ$118</definedName>
-    <definedName name="A4091999W_Latest">Data1!$HQ$118</definedName>
-    <definedName name="A4092000W">Data2!$AI$1:$AI$10,Data2!$AI$118</definedName>
-    <definedName name="A4092000W_Data">Data2!$AI$118</definedName>
-    <definedName name="A4092000W_Latest">Data2!$AI$118</definedName>
-    <definedName name="A4093034L">Data1!$BB$1:$BB$10,Data1!$BB$47:$BB$118</definedName>
-    <definedName name="A4093034L_Data">Data1!$BB$47:$BB$118</definedName>
-    <definedName name="A4093034L_Latest">Data1!$BB$118</definedName>
-    <definedName name="A4093035R">Data1!$FR$1:$FR$10,Data1!$FR$48:$FR$118</definedName>
-    <definedName name="A4093035R_Data">Data1!$FR$48:$FR$118</definedName>
-    <definedName name="A4093035R_Latest">Data1!$FR$118</definedName>
-    <definedName name="A4093036T">Data1!$DJ$1:$DJ$10,Data1!$DJ$51:$DJ$118</definedName>
-    <definedName name="A4093036T_Data">Data1!$DJ$51:$DJ$118</definedName>
-    <definedName name="A4093036T_Latest">Data1!$DJ$118</definedName>
-    <definedName name="A4093037V">Data1!$HZ$1:$HZ$10,Data1!$HZ$117:$HZ$118</definedName>
-    <definedName name="A4093037V_Data">Data1!$HZ$117:$HZ$118</definedName>
-    <definedName name="A4093037V_Latest">Data1!$HZ$118</definedName>
-    <definedName name="A4093038W">Data2!$AR$1:$AR$10,Data2!$AR$118</definedName>
-    <definedName name="A4093038W_Data">Data2!$AR$118</definedName>
-    <definedName name="A4093038W_Latest">Data2!$AR$118</definedName>
-    <definedName name="A4093946C">Data1!$BE$1:$BE$10,Data1!$BE$47:$BE$118</definedName>
-    <definedName name="A4093946C_Data">Data1!$BE$47:$BE$118</definedName>
-    <definedName name="A4093946C_Latest">Data1!$BE$118</definedName>
-    <definedName name="A4093947F">Data1!$FU$1:$FU$10,Data1!$FU$48:$FU$118</definedName>
-    <definedName name="A4093947F_Data">Data1!$FU$48:$FU$118</definedName>
-    <definedName name="A4093947F_Latest">Data1!$FU$118</definedName>
-    <definedName name="A4093948J">Data1!$DM$1:$DM$10,Data1!$DM$51:$DM$118</definedName>
-    <definedName name="A4093948J_Data">Data1!$DM$51:$DM$118</definedName>
-    <definedName name="A4093948J_Latest">Data1!$DM$118</definedName>
-    <definedName name="A4093949K">Data1!$IC$1:$IC$10,Data1!$IC$117:$IC$118</definedName>
-    <definedName name="A4093949K_Data">Data1!$IC$117:$IC$118</definedName>
-    <definedName name="A4093949K_Latest">Data1!$IC$118</definedName>
-    <definedName name="A4093950V">Data2!$AU$1:$AU$10,Data2!$AU$118</definedName>
-    <definedName name="A4093950V_Data">Data2!$AU$118</definedName>
-    <definedName name="A4093950V_Latest">Data2!$AU$118</definedName>
-    <definedName name="A4094024A">Data1!$AZ$1:$AZ$10,Data1!$AZ$47:$AZ$118</definedName>
-    <definedName name="A4094024A_Data">Data1!$AZ$47:$AZ$118</definedName>
-    <definedName name="A4094024A_Latest">Data1!$AZ$118</definedName>
-    <definedName name="A4094025C">Data1!$FP$1:$FP$10,Data1!$FP$48:$FP$118</definedName>
-    <definedName name="A4094025C_Data">Data1!$FP$48:$FP$118</definedName>
-    <definedName name="A4094025C_Latest">Data1!$FP$118</definedName>
-    <definedName name="A4094026F">Data1!$DH$1:$DH$10,Data1!$DH$51:$DH$118</definedName>
-    <definedName name="A4094026F_Data">Data1!$DH$51:$DH$118</definedName>
-    <definedName name="A4094026F_Latest">Data1!$DH$118</definedName>
-    <definedName name="A4094027J">Data1!$HX$1:$HX$10,Data1!$HX$117:$HX$118</definedName>
-    <definedName name="A4094027J_Data">Data1!$HX$117:$HX$118</definedName>
-    <definedName name="A4094027J_Latest">Data1!$HX$118</definedName>
-    <definedName name="A4094028K">Data2!$AP$1:$AP$10,Data2!$AP$118</definedName>
-    <definedName name="A4094028K_Data">Data2!$AP$118</definedName>
-    <definedName name="A4094028K_Latest">Data2!$AP$118</definedName>
-    <definedName name="A4095662L">Data1!$AN$1:$AN$10,Data1!$AN$47:$AN$118</definedName>
-    <definedName name="A4095662L_Data">Data1!$AN$47:$AN$118</definedName>
-    <definedName name="A4095662L_Latest">Data1!$AN$118</definedName>
-    <definedName name="A4095663R">Data1!$FD$1:$FD$10,Data1!$FD$48:$FD$118</definedName>
-    <definedName name="A4095663R_Data">Data1!$FD$48:$FD$118</definedName>
-    <definedName name="A4095663R_Latest">Data1!$FD$118</definedName>
-    <definedName name="A4095664T">Data1!$CV$1:$CV$10,Data1!$CV$51:$CV$118</definedName>
-    <definedName name="A4095664T_Data">Data1!$CV$51:$CV$118</definedName>
-    <definedName name="A4095664T_Latest">Data1!$CV$118</definedName>
-    <definedName name="A4095665V">Data1!$HL$1:$HL$10,Data1!$HL$117:$HL$118</definedName>
-    <definedName name="A4095665V_Data">Data1!$HL$117:$HL$118</definedName>
-    <definedName name="A4095665V_Latest">Data1!$HL$118</definedName>
-    <definedName name="A4095666W">Data2!$AD$1:$AD$10,Data2!$AD$118</definedName>
-    <definedName name="A4095666W_Data">Data2!$AD$118</definedName>
-    <definedName name="A4095666W_Latest">Data2!$AD$118</definedName>
-    <definedName name="A4095686F">Data1!$AR$1:$AR$10,Data1!$AR$47:$AR$118</definedName>
-    <definedName name="A4095686F_Data">Data1!$AR$47:$AR$118</definedName>
-    <definedName name="A4095686F_Latest">Data1!$AR$118</definedName>
-    <definedName name="A4095687J">Data1!$FH$1:$FH$10,Data1!$FH$48:$FH$118</definedName>
-    <definedName name="A4095687J_Data">Data1!$FH$48:$FH$118</definedName>
-    <definedName name="A4095687J_Latest">Data1!$FH$118</definedName>
-    <definedName name="A4095688K">Data1!$CZ$1:$CZ$10,Data1!$CZ$51:$CZ$118</definedName>
-    <definedName name="A4095688K_Data">Data1!$CZ$51:$CZ$118</definedName>
-    <definedName name="A4095688K_Latest">Data1!$CZ$118</definedName>
-    <definedName name="A4095689L">Data1!$HP$1:$HP$10,Data1!$HP$117:$HP$118</definedName>
-    <definedName name="A4095689L_Data">Data1!$HP$117:$HP$118</definedName>
-    <definedName name="A4095689L_Latest">Data1!$HP$118</definedName>
-    <definedName name="A4095690W">Data2!$AH$1:$AH$10,Data2!$AH$118</definedName>
-    <definedName name="A4095690W_Data">Data2!$AH$118</definedName>
-    <definedName name="A4095690W_Latest">Data2!$AH$118</definedName>
-    <definedName name="A4095740J">Data1!$AQ$1:$AQ$10,Data1!$AQ$47:$AQ$118</definedName>
-    <definedName name="A4095740J_Data">Data1!$AQ$47:$AQ$118</definedName>
-    <definedName name="A4095740J_Latest">Data1!$AQ$118</definedName>
-    <definedName name="A4095741K">Data1!$FG$1:$FG$10,Data1!$FG$48:$FG$118</definedName>
-    <definedName name="A4095741K_Data">Data1!$FG$48:$FG$118</definedName>
-    <definedName name="A4095741K_Latest">Data1!$FG$118</definedName>
-    <definedName name="A4095742L">Data1!$CY$1:$CY$10,Data1!$CY$51:$CY$118</definedName>
-    <definedName name="A4095742L_Data">Data1!$CY$51:$CY$118</definedName>
-    <definedName name="A4095742L_Latest">Data1!$CY$118</definedName>
-    <definedName name="A4095743R">Data1!$HO$1:$HO$10,Data1!$HO$117:$HO$118</definedName>
-    <definedName name="A4095743R_Data">Data1!$HO$117:$HO$118</definedName>
-    <definedName name="A4095743R_Latest">Data1!$HO$118</definedName>
-    <definedName name="A4095744T">Data2!$AG$1:$AG$10,Data2!$AG$118</definedName>
-    <definedName name="A4095744T_Data">Data2!$AG$118</definedName>
-    <definedName name="A4095744T_Latest">Data2!$AG$118</definedName>
-    <definedName name="A4097366F">Data1!$X$1:$X$10,Data1!$X$47:$X$118</definedName>
-    <definedName name="A4097366F_Data">Data1!$X$47:$X$118</definedName>
-    <definedName name="A4097366F_Latest">Data1!$X$118</definedName>
-    <definedName name="A4097367J">Data1!$EN$1:$EN$10,Data1!$EN$48:$EN$118</definedName>
-    <definedName name="A4097367J_Data">Data1!$EN$48:$EN$118</definedName>
-    <definedName name="A4097367J_Latest">Data1!$EN$118</definedName>
-    <definedName name="A4097368K">Data1!$CF$1:$CF$10,Data1!$CF$51:$CF$118</definedName>
-    <definedName name="A4097368K_Data">Data1!$CF$51:$CF$118</definedName>
-    <definedName name="A4097368K_Latest">Data1!$CF$118</definedName>
-    <definedName name="A4097369L">Data1!$GV$1:$GV$10,Data1!$GV$117:$GV$118</definedName>
-    <definedName name="A4097369L_Data">Data1!$GV$117:$GV$118</definedName>
-    <definedName name="A4097369L_Latest">Data1!$GV$118</definedName>
-    <definedName name="A4097370W">Data2!$N$1:$N$10,Data2!$N$118</definedName>
-    <definedName name="A4097370W_Data">Data2!$N$118</definedName>
-    <definedName name="A4097370W_Latest">Data2!$N$118</definedName>
-    <definedName name="A4097576C">Data1!$AD$1:$AD$10,Data1!$AD$47:$AD$118</definedName>
-    <definedName name="A4097576C_Data">Data1!$AD$47:$AD$118</definedName>
-    <definedName name="A4097576C_Latest">Data1!$AD$118</definedName>
-    <definedName name="A4097577F">Data1!$ET$1:$ET$10,Data1!$ET$48:$ET$118</definedName>
-    <definedName name="A4097577F_Data">Data1!$ET$48:$ET$118</definedName>
-    <definedName name="A4097577F_Latest">Data1!$ET$118</definedName>
-    <definedName name="A4097578J">Data1!$CL$1:$CL$10,Data1!$CL$51:$CL$118</definedName>
-    <definedName name="A4097578J_Data">Data1!$CL$51:$CL$118</definedName>
-    <definedName name="A4097578J_Latest">Data1!$CL$118</definedName>
-    <definedName name="A4097579K">Data1!$HB$1:$HB$10,Data1!$HB$117:$HB$118</definedName>
-    <definedName name="A4097579K_Data">Data1!$HB$117:$HB$118</definedName>
-    <definedName name="A4097579K_Latest">Data1!$HB$118</definedName>
-    <definedName name="A4097580V">Data2!$T$1:$T$10,Data2!$T$118</definedName>
-    <definedName name="A4097580V_Data">Data2!$T$118</definedName>
-    <definedName name="A4097580V_Latest">Data2!$T$118</definedName>
-    <definedName name="A4097606F">Data1!$AP$1:$AP$10,Data1!$AP$47:$AP$118</definedName>
-    <definedName name="A4097606F_Data">Data1!$AP$47:$AP$118</definedName>
-    <definedName name="A4097606F_Latest">Data1!$AP$118</definedName>
-    <definedName name="A4097607J">Data1!$FF$1:$FF$10,Data1!$FF$48:$FF$118</definedName>
-    <definedName name="A4097607J_Data">Data1!$FF$48:$FF$118</definedName>
-    <definedName name="A4097607J_Latest">Data1!$FF$118</definedName>
-    <definedName name="A4097608K">Data1!$CX$1:$CX$10,Data1!$CX$51:$CX$118</definedName>
-    <definedName name="A4097608K_Data">Data1!$CX$51:$CX$118</definedName>
-    <definedName name="A4097608K_Latest">Data1!$CX$118</definedName>
-    <definedName name="A4097609L">Data1!$HN$1:$HN$10,Data1!$HN$117:$HN$118</definedName>
-    <definedName name="A4097609L_Data">Data1!$HN$117:$HN$118</definedName>
-    <definedName name="A4097609L_Latest">Data1!$HN$118</definedName>
-    <definedName name="A4097610W">Data2!$AF$1:$AF$10,Data2!$AF$118</definedName>
-    <definedName name="A4097610W_Data">Data2!$AF$118</definedName>
-    <definedName name="A4097610W_Latest">Data2!$AF$118</definedName>
-    <definedName name="A4097624K">Data1!$E$1:$E$10,Data1!$E$47:$E$118</definedName>
-    <definedName name="A4097624K_Data">Data1!$E$47:$E$118</definedName>
-    <definedName name="A4097624K_Latest">Data1!$E$118</definedName>
-    <definedName name="A4097625L">Data1!$DU$1:$DU$10,Data1!$DU$48:$DU$118</definedName>
-    <definedName name="A4097625L_Data">Data1!$DU$48:$DU$118</definedName>
-    <definedName name="A4097625L_Latest">Data1!$DU$118</definedName>
-    <definedName name="A4097626R">Data1!$BM$1:$BM$10,Data1!$BM$51:$BM$118</definedName>
-    <definedName name="A4097626R_Data">Data1!$BM$51:$BM$118</definedName>
-    <definedName name="A4097626R_Latest">Data1!$BM$118</definedName>
-    <definedName name="A4097627T">Data1!$GC$1:$GC$10,Data1!$GC$117:$GC$118</definedName>
-    <definedName name="A4097627T_Data">Data1!$GC$117:$GC$118</definedName>
-    <definedName name="A4097627T_Latest">Data1!$GC$118</definedName>
-    <definedName name="A4097628V">Data1!$IK$1:$IK$10,Data1!$IK$118</definedName>
-    <definedName name="A4097628V_Data">Data1!$IK$118</definedName>
-    <definedName name="A4097628V_Latest">Data1!$IK$118</definedName>
-    <definedName name="A4098056T">Data1!$AM$1:$AM$10,Data1!$AM$47:$AM$118</definedName>
-    <definedName name="A4098056T_Data">Data1!$AM$47:$AM$118</definedName>
-    <definedName name="A4098056T_Latest">Data1!$AM$118</definedName>
-    <definedName name="A4098057V">Data1!$FC$1:$FC$10,Data1!$FC$48:$FC$118</definedName>
-    <definedName name="A4098057V_Data">Data1!$FC$48:$FC$118</definedName>
-    <definedName name="A4098057V_Latest">Data1!$FC$118</definedName>
-    <definedName name="A4098058W">Data1!$CU$1:$CU$10,Data1!$CU$51:$CU$118</definedName>
-    <definedName name="A4098058W_Data">Data1!$CU$51:$CU$118</definedName>
-    <definedName name="A4098058W_Latest">Data1!$CU$118</definedName>
-    <definedName name="A4098059X">Data1!$HK$1:$HK$10,Data1!$HK$117:$HK$118</definedName>
-    <definedName name="A4098059X_Data">Data1!$HK$117:$HK$118</definedName>
-    <definedName name="A4098059X_Latest">Data1!$HK$118</definedName>
-    <definedName name="A4098060J">Data2!$AC$1:$AC$10,Data2!$AC$118</definedName>
-    <definedName name="A4098060J_Data">Data2!$AC$118</definedName>
-    <definedName name="A4098060J_Latest">Data2!$AC$118</definedName>
-    <definedName name="A4099880J">Data1!$BD$1:$BD$10,Data1!$BD$47:$BD$118</definedName>
-    <definedName name="A4099880J_Data">Data1!$BD$47:$BD$118</definedName>
-    <definedName name="A4099880J_Latest">Data1!$BD$118</definedName>
-    <definedName name="A4099881K">Data1!$FT$1:$FT$10,Data1!$FT$48:$FT$118</definedName>
-    <definedName name="A4099881K_Data">Data1!$FT$48:$FT$118</definedName>
-    <definedName name="A4099881K_Latest">Data1!$FT$118</definedName>
-    <definedName name="A4099882L">Data1!$DL$1:$DL$10,Data1!$DL$51:$DL$118</definedName>
-    <definedName name="A4099882L_Data">Data1!$DL$51:$DL$118</definedName>
-    <definedName name="A4099882L_Latest">Data1!$DL$118</definedName>
-    <definedName name="A4099883R">Data1!$IB$1:$IB$10,Data1!$IB$117:$IB$118</definedName>
-    <definedName name="A4099883R_Data">Data1!$IB$117:$IB$118</definedName>
-    <definedName name="A4099883R_Latest">Data1!$IB$118</definedName>
-    <definedName name="A4099884T">Data2!$AT$1:$AT$10,Data2!$AT$118</definedName>
-    <definedName name="A4099884T_Data">Data2!$AT$118</definedName>
-    <definedName name="A4099884T_Latest">Data2!$AT$118</definedName>
-    <definedName name="A4100528C">Data1!$D$1:$D$10,Data1!$D$47:$D$118</definedName>
-    <definedName name="A4100528C_Data">Data1!$D$47:$D$118</definedName>
-    <definedName name="A4100528C_Latest">Data1!$D$118</definedName>
-    <definedName name="A4100529F">Data1!$DT$1:$DT$10,Data1!$DT$48:$DT$118</definedName>
-    <definedName name="A4100529F_Data">Data1!$DT$48:$DT$118</definedName>
-    <definedName name="A4100529F_Latest">Data1!$DT$118</definedName>
-    <definedName name="A4100530R">Data1!$BL$1:$BL$10,Data1!$BL$51:$BL$118</definedName>
-    <definedName name="A4100530R_Data">Data1!$BL$51:$BL$118</definedName>
-    <definedName name="A4100530R_Latest">Data1!$BL$118</definedName>
-    <definedName name="A4100531T">Data1!$GB$1:$GB$10,Data1!$GB$117:$GB$118</definedName>
-    <definedName name="A4100531T_Data">Data1!$GB$117:$GB$118</definedName>
-    <definedName name="A4100531T_Latest">Data1!$GB$118</definedName>
-    <definedName name="A4100532V">Data1!$IJ$1:$IJ$10,Data1!$IJ$118</definedName>
-    <definedName name="A4100532V_Data">Data1!$IJ$118</definedName>
-    <definedName name="A4100532V_Latest">Data1!$IJ$118</definedName>
-    <definedName name="A4100966C">Data1!$Y$1:$Y$10,Data1!$Y$47:$Y$118</definedName>
-    <definedName name="A4100966C_Data">Data1!$Y$47:$Y$118</definedName>
-    <definedName name="A4100966C_Latest">Data1!$Y$118</definedName>
-    <definedName name="A4100967F">Data1!$EO$1:$EO$10,Data1!$EO$48:$EO$118</definedName>
-    <definedName name="A4100967F_Data">Data1!$EO$48:$EO$118</definedName>
-    <definedName name="A4100967F_Latest">Data1!$EO$118</definedName>
-    <definedName name="A4100968J">Data1!$CG$1:$CG$10,Data1!$CG$51:$CG$118</definedName>
-    <definedName name="A4100968J_Data">Data1!$CG$51:$CG$118</definedName>
-    <definedName name="A4100968J_Latest">Data1!$CG$118</definedName>
-    <definedName name="A4100969K">Data1!$GW$1:$GW$10,Data1!$GW$117:$GW$118</definedName>
-    <definedName name="A4100969K_Data">Data1!$GW$117:$GW$118</definedName>
-    <definedName name="A4100969K_Latest">Data1!$GW$118</definedName>
-    <definedName name="A4100970V">Data2!$O$1:$O$10,Data2!$O$118</definedName>
-    <definedName name="A4100970V_Data">Data2!$O$118</definedName>
-    <definedName name="A4100970V_Latest">Data2!$O$118</definedName>
-    <definedName name="A4102184W">Data1!$BA$1:$BA$10,Data1!$BA$47:$BA$118</definedName>
-    <definedName name="A4102184W_Data">Data1!$BA$47:$BA$118</definedName>
-    <definedName name="A4102184W_Latest">Data1!$BA$118</definedName>
-    <definedName name="A4102185X">Data1!$FQ$1:$FQ$10,Data1!$FQ$48:$FQ$118</definedName>
-    <definedName name="A4102185X_Data">Data1!$FQ$48:$FQ$118</definedName>
-    <definedName name="A4102185X_Latest">Data1!$FQ$118</definedName>
-    <definedName name="A4102186A">Data1!$DI$1:$DI$10,Data1!$DI$51:$DI$118</definedName>
-    <definedName name="A4102186A_Data">Data1!$DI$51:$DI$118</definedName>
-    <definedName name="A4102186A_Latest">Data1!$DI$118</definedName>
-    <definedName name="A4102187C">Data1!$HY$1:$HY$10,Data1!$HY$117:$HY$118</definedName>
-    <definedName name="A4102187C_Data">Data1!$HY$117:$HY$118</definedName>
-    <definedName name="A4102187C_Latest">Data1!$HY$118</definedName>
-    <definedName name="A4102188F">Data2!$AQ$1:$AQ$10,Data2!$AQ$118</definedName>
-    <definedName name="A4102188F_Data">Data2!$AQ$118</definedName>
-    <definedName name="A4102188F_Latest">Data2!$AQ$118</definedName>
-    <definedName name="A4102994X">Data1!$U$1:$U$10,Data1!$U$47:$U$118</definedName>
-    <definedName name="A4102994X_Data">Data1!$U$47:$U$118</definedName>
-    <definedName name="A4102994X_Latest">Data1!$U$118</definedName>
-    <definedName name="A4102995A">Data1!$EK$1:$EK$10,Data1!$EK$48:$EK$118</definedName>
-    <definedName name="A4102995A_Data">Data1!$EK$48:$EK$118</definedName>
-    <definedName name="A4102995A_Latest">Data1!$EK$118</definedName>
-    <definedName name="A4102996C">Data1!$CC$1:$CC$10,Data1!$CC$51:$CC$118</definedName>
-    <definedName name="A4102996C_Data">Data1!$CC$51:$CC$118</definedName>
-    <definedName name="A4102996C_Latest">Data1!$CC$118</definedName>
-    <definedName name="A4102997F">Data1!$GS$1:$GS$10,Data1!$GS$117:$GS$118</definedName>
-    <definedName name="A4102997F_Data">Data1!$GS$117:$GS$118</definedName>
-    <definedName name="A4102997F_Latest">Data1!$GS$118</definedName>
-    <definedName name="A4102998J">Data2!$K$1:$K$10,Data2!$K$118</definedName>
-    <definedName name="A4102998J_Data">Data2!$K$118</definedName>
-    <definedName name="A4102998J_Latest">Data2!$K$118</definedName>
-    <definedName name="A4103552J">Data1!$BI$1:$BI$10,Data1!$BI$47:$BI$118</definedName>
-    <definedName name="A4103552J_Data">Data1!$BI$47:$BI$118</definedName>
-    <definedName name="A4103552J_Latest">Data1!$BI$118</definedName>
-    <definedName name="A4103553K">Data1!$FY$1:$FY$10,Data1!$FY$48:$FY$118</definedName>
-    <definedName name="A4103553K_Data">Data1!$FY$48:$FY$118</definedName>
-    <definedName name="A4103553K_Latest">Data1!$FY$118</definedName>
-    <definedName name="A4103554L">Data1!$DQ$1:$DQ$10,Data1!$DQ$51:$DQ$118</definedName>
-    <definedName name="A4103554L_Data">Data1!$DQ$51:$DQ$118</definedName>
-    <definedName name="A4103554L_Latest">Data1!$DQ$118</definedName>
-    <definedName name="A4103555R">Data1!$IG$1:$IG$10,Data1!$IG$117:$IG$118</definedName>
-    <definedName name="A4103555R_Data">Data1!$IG$117:$IG$118</definedName>
-    <definedName name="A4103555R_Latest">Data1!$IG$118</definedName>
-    <definedName name="A4103556T">Data2!$AY$1:$AY$10,Data2!$AY$118</definedName>
-    <definedName name="A4103556T_Data">Data2!$AY$118</definedName>
-    <definedName name="A4103556T_Latest">Data2!$AY$118</definedName>
-    <definedName name="A4103768V">Data1!$J$1:$J$10,Data1!$J$47:$J$118</definedName>
-    <definedName name="A4103768V_Data">Data1!$J$47:$J$118</definedName>
-    <definedName name="A4103768V_Latest">Data1!$J$118</definedName>
-    <definedName name="A4103769W">Data1!$DZ$1:$DZ$10,Data1!$DZ$48:$DZ$118</definedName>
-    <definedName name="A4103769W_Data">Data1!$DZ$48:$DZ$118</definedName>
-    <definedName name="A4103769W_Latest">Data1!$DZ$118</definedName>
-    <definedName name="A4103770F">Data1!$BR$1:$BR$10,Data1!$BR$51:$BR$118</definedName>
-    <definedName name="A4103770F_Data">Data1!$BR$51:$BR$118</definedName>
-    <definedName name="A4103770F_Latest">Data1!$BR$118</definedName>
-    <definedName name="A4103771J">Data1!$GH$1:$GH$10,Data1!$GH$117:$GH$118</definedName>
-    <definedName name="A4103771J_Data">Data1!$GH$117:$GH$118</definedName>
-    <definedName name="A4103771J_Latest">Data1!$GH$118</definedName>
-    <definedName name="A4103772K">Data1!$IP$1:$IP$10,Data1!$IP$118</definedName>
-    <definedName name="A4103772K_Data">Data1!$IP$118</definedName>
-    <definedName name="A4103772K_Latest">Data1!$IP$118</definedName>
-    <definedName name="A4104722F">Data1!$P$1:$P$10,Data1!$P$47:$P$118</definedName>
-    <definedName name="A4104722F_Data">Data1!$P$47:$P$118</definedName>
-    <definedName name="A4104722F_Latest">Data1!$P$118</definedName>
-    <definedName name="A4104723J">Data1!$EF$1:$EF$10,Data1!$EF$48:$EF$118</definedName>
-    <definedName name="A4104723J_Data">Data1!$EF$48:$EF$118</definedName>
-    <definedName name="A4104723J_Latest">Data1!$EF$118</definedName>
-    <definedName name="A4104724K">Data1!$BX$1:$BX$10,Data1!$BX$51:$BX$118</definedName>
-    <definedName name="A4104724K_Data">Data1!$BX$51:$BX$118</definedName>
-    <definedName name="A4104724K_Latest">Data1!$BX$118</definedName>
-    <definedName name="A4104725L">Data1!$GN$1:$GN$10,Data1!$GN$117:$GN$118</definedName>
-    <definedName name="A4104725L_Data">Data1!$GN$117:$GN$118</definedName>
-    <definedName name="A4104725L_Latest">Data1!$GN$118</definedName>
-    <definedName name="A4104726R">Data2!$F$1:$F$10,Data2!$F$118</definedName>
-    <definedName name="A4104726R_Data">Data2!$F$118</definedName>
-    <definedName name="A4104726R_Latest">Data2!$F$118</definedName>
-    <definedName name="A4105748W">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$118</definedName>
-    <definedName name="A4105748W_Data">Data1!$Z$11:$Z$118</definedName>
-    <definedName name="A4105748W_Latest">Data1!$Z$118</definedName>
-    <definedName name="A4105749X">Data1!$EP$1:$EP$10,Data1!$EP$12:$EP$118</definedName>
-    <definedName name="A4105749X_Data">Data1!$EP$12:$EP$118</definedName>
-    <definedName name="A4105749X_Latest">Data1!$EP$118</definedName>
-    <definedName name="A4105750J">Data1!$CH$1:$CH$10,Data1!$CH$15:$CH$118</definedName>
-    <definedName name="A4105750J_Data">Data1!$CH$15:$CH$118</definedName>
-    <definedName name="A4105750J_Latest">Data1!$CH$118</definedName>
-    <definedName name="A4105751K">Data1!$GX$1:$GX$10,Data1!$GX$117:$GX$118</definedName>
-    <definedName name="A4105751K_Data">Data1!$GX$117:$GX$118</definedName>
-    <definedName name="A4105751K_Latest">Data1!$GX$118</definedName>
-    <definedName name="A4105752L">Data2!$P$1:$P$10,Data2!$P$118</definedName>
-    <definedName name="A4105752L_Data">Data2!$P$118</definedName>
-    <definedName name="A4105752L_Latest">Data2!$P$118</definedName>
-    <definedName name="A4105850T">Data1!$AT$1:$AT$10,Data1!$AT$47:$AT$118</definedName>
-    <definedName name="A4105850T_Data">Data1!$AT$47:$AT$118</definedName>
-    <definedName name="A4105850T_Latest">Data1!$AT$118</definedName>
-    <definedName name="A4105851V">Data1!$FJ$1:$FJ$10,Data1!$FJ$48:$FJ$118</definedName>
-    <definedName name="A4105851V_Data">Data1!$FJ$48:$FJ$118</definedName>
-    <definedName name="A4105851V_Latest">Data1!$FJ$118</definedName>
-    <definedName name="A4105852W">Data1!$DB$1:$DB$10,Data1!$DB$51:$DB$118</definedName>
-    <definedName name="A4105852W_Data">Data1!$DB$51:$DB$118</definedName>
-    <definedName name="A4105852W_Latest">Data1!$DB$118</definedName>
-    <definedName name="A4105853X">Data1!$HR$1:$HR$10,Data1!$HR$117:$HR$118</definedName>
-    <definedName name="A4105853X_Data">Data1!$HR$117:$HR$118</definedName>
-    <definedName name="A4105853X_Latest">Data1!$HR$118</definedName>
-    <definedName name="A4105854A">Data2!$AJ$1:$AJ$10,Data2!$AJ$118</definedName>
-    <definedName name="A4105854A_Data">Data2!$AJ$118</definedName>
-    <definedName name="A4105854A_Latest">Data2!$AJ$118</definedName>
-    <definedName name="A4106552L">Data1!$AK$1:$AK$10,Data1!$AK$47:$AK$118</definedName>
-    <definedName name="A4106552L_Data">Data1!$AK$47:$AK$118</definedName>
-    <definedName name="A4106552L_Latest">Data1!$AK$118</definedName>
-    <definedName name="A4106553R">Data1!$FA$1:$FA$10,Data1!$FA$48:$FA$118</definedName>
-    <definedName name="A4106553R_Data">Data1!$FA$48:$FA$118</definedName>
-    <definedName name="A4106553R_Latest">Data1!$FA$118</definedName>
-    <definedName name="A4106554T">Data1!$CS$1:$CS$10,Data1!$CS$51:$CS$118</definedName>
-    <definedName name="A4106554T_Data">Data1!$CS$51:$CS$118</definedName>
-    <definedName name="A4106554T_Latest">Data1!$CS$118</definedName>
-    <definedName name="A4106555V">Data1!$HI$1:$HI$10,Data1!$HI$117:$HI$118</definedName>
-    <definedName name="A4106555V_Data">Data1!$HI$117:$HI$118</definedName>
-    <definedName name="A4106555V_Latest">Data1!$HI$118</definedName>
-    <definedName name="A4106556W">Data2!$AA$1:$AA$10,Data2!$AA$118</definedName>
-    <definedName name="A4106556W_Data">Data2!$AA$118</definedName>
-    <definedName name="A4106556W_Latest">Data2!$AA$118</definedName>
-    <definedName name="A4106978W">Data1!$F$1:$F$10,Data1!$F$47:$F$118</definedName>
-    <definedName name="A4106978W_Data">Data1!$F$47:$F$118</definedName>
-    <definedName name="A4106978W_Latest">Data1!$F$118</definedName>
-    <definedName name="A4106979X">Data1!$DV$1:$DV$10,Data1!$DV$48:$DV$118</definedName>
-    <definedName name="A4106979X_Data">Data1!$DV$48:$DV$118</definedName>
-    <definedName name="A4106979X_Latest">Data1!$DV$118</definedName>
-    <definedName name="A4106980J">Data1!$BN$1:$BN$10,Data1!$BN$51:$BN$118</definedName>
-    <definedName name="A4106980J_Data">Data1!$BN$51:$BN$118</definedName>
-    <definedName name="A4106980J_Latest">Data1!$BN$118</definedName>
-    <definedName name="A4106981K">Data1!$GD$1:$GD$10,Data1!$GD$117:$GD$118</definedName>
-    <definedName name="A4106981K_Data">Data1!$GD$117:$GD$118</definedName>
-    <definedName name="A4106981K_Latest">Data1!$GD$118</definedName>
-    <definedName name="A4106982L">Data1!$IL$1:$IL$10,Data1!$IL$118</definedName>
-    <definedName name="A4106982L_Data">Data1!$IL$118</definedName>
-    <definedName name="A4106982L_Latest">Data1!$IL$118</definedName>
-    <definedName name="A4107638V">Data1!$W$1:$W$10,Data1!$W$47:$W$118</definedName>
-    <definedName name="A4107638V_Data">Data1!$W$47:$W$118</definedName>
-    <definedName name="A4107638V_Latest">Data1!$W$118</definedName>
-    <definedName name="A4107639W">Data1!$EM$1:$EM$10,Data1!$EM$48:$EM$118</definedName>
-    <definedName name="A4107639W_Data">Data1!$EM$48:$EM$118</definedName>
-    <definedName name="A4107639W_Latest">Data1!$EM$118</definedName>
-    <definedName name="A4107640F">Data1!$CE$1:$CE$10,Data1!$CE$51:$CE$118</definedName>
-    <definedName name="A4107640F_Data">Data1!$CE$51:$CE$118</definedName>
-    <definedName name="A4107640F_Latest">Data1!$CE$118</definedName>
-    <definedName name="A4107641J">Data1!$GU$1:$GU$10,Data1!$GU$117:$GU$118</definedName>
-    <definedName name="A4107641J_Data">Data1!$GU$117:$GU$118</definedName>
-    <definedName name="A4107641J_Latest">Data1!$GU$118</definedName>
-    <definedName name="A4107642K">Data2!$M$1:$M$10,Data2!$M$118</definedName>
-    <definedName name="A4107642K_Data">Data2!$M$118</definedName>
-    <definedName name="A4107642K_Latest">Data2!$M$118</definedName>
-    <definedName name="A4107788A">Data1!$BC$1:$BC$10,Data1!$BC$47:$BC$118</definedName>
-    <definedName name="A4107788A_Data">Data1!$BC$47:$BC$118</definedName>
-    <definedName name="A4107788A_Latest">Data1!$BC$118</definedName>
-    <definedName name="A4107789C">Data1!$FS$1:$FS$10,Data1!$FS$48:$FS$118</definedName>
-    <definedName name="A4107789C_Data">Data1!$FS$48:$FS$118</definedName>
-    <definedName name="A4107789C_Latest">Data1!$FS$118</definedName>
-    <definedName name="A4107790L">Data1!$DK$1:$DK$10,Data1!$DK$51:$DK$118</definedName>
-    <definedName name="A4107790L_Data">Data1!$DK$51:$DK$118</definedName>
-    <definedName name="A4107790L_Latest">Data1!$DK$118</definedName>
-    <definedName name="A4107791R">Data1!$IA$1:$IA$10,Data1!$IA$117:$IA$118</definedName>
-    <definedName name="A4107791R_Data">Data1!$IA$117:$IA$118</definedName>
-    <definedName name="A4107791R_Latest">Data1!$IA$118</definedName>
-    <definedName name="A4107792T">Data2!$AS$1:$AS$10,Data2!$AS$118</definedName>
-    <definedName name="A4107792T_Data">Data2!$AS$118</definedName>
-    <definedName name="A4107792T_Latest">Data2!$AS$118</definedName>
-    <definedName name="A4108856K">Data1!$C$1:$C$10,Data1!$C$47:$C$118</definedName>
-    <definedName name="A4108856K_Data">Data1!$C$47:$C$118</definedName>
-    <definedName name="A4108856K_Latest">Data1!$C$118</definedName>
-    <definedName name="A4108857L">Data1!$DS$1:$DS$10,Data1!$DS$48:$DS$118</definedName>
-    <definedName name="A4108857L_Data">Data1!$DS$48:$DS$118</definedName>
-    <definedName name="A4108857L_Latest">Data1!$DS$118</definedName>
-    <definedName name="A4108858R">Data1!$BK$1:$BK$10,Data1!$BK$51:$BK$118</definedName>
-    <definedName name="A4108858R_Data">Data1!$BK$51:$BK$118</definedName>
-    <definedName name="A4108858R_Latest">Data1!$BK$118</definedName>
-    <definedName name="A4108859T">Data1!$GA$1:$GA$10,Data1!$GA$117:$GA$118</definedName>
-    <definedName name="A4108859T_Data">Data1!$GA$117:$GA$118</definedName>
-    <definedName name="A4108859T_Latest">Data1!$GA$118</definedName>
-    <definedName name="A4108860A">Data1!$II$1:$II$10,Data1!$II$118</definedName>
-    <definedName name="A4108860A_Data">Data1!$II$118</definedName>
-    <definedName name="A4108860A_Latest">Data1!$II$118</definedName>
-    <definedName name="A4109594R">Data1!$AE$1:$AE$10,Data1!$AE$47:$AE$118</definedName>
-    <definedName name="A4109594R_Data">Data1!$AE$47:$AE$118</definedName>
-    <definedName name="A4109594R_Latest">Data1!$AE$118</definedName>
-    <definedName name="A4109595T">Data1!$EU$1:$EU$10,Data1!$EU$48:$EU$118</definedName>
-    <definedName name="A4109595T_Data">Data1!$EU$48:$EU$118</definedName>
-    <definedName name="A4109595T_Latest">Data1!$EU$118</definedName>
-    <definedName name="A4109596V">Data1!$CM$1:$CM$10,Data1!$CM$51:$CM$118</definedName>
-    <definedName name="A4109596V_Data">Data1!$CM$51:$CM$118</definedName>
-    <definedName name="A4109596V_Latest">Data1!$CM$118</definedName>
-    <definedName name="A4109597W">Data1!$HC$1:$HC$10,Data1!$HC$117:$HC$118</definedName>
-    <definedName name="A4109597W_Data">Data1!$HC$117:$HC$118</definedName>
-    <definedName name="A4109597W_Latest">Data1!$HC$118</definedName>
-    <definedName name="A4109598X">Data2!$U$1:$U$10,Data2!$U$118</definedName>
-    <definedName name="A4109598X_Data">Data2!$U$118</definedName>
-    <definedName name="A4109598X_Latest">Data2!$U$118</definedName>
-    <definedName name="A4110278K">Data1!$AV$1:$AV$10,Data1!$AV$47:$AV$118</definedName>
-    <definedName name="A4110278K_Data">Data1!$AV$47:$AV$118</definedName>
-    <definedName name="A4110278K_Latest">Data1!$AV$118</definedName>
-    <definedName name="A4110279L">Data1!$FL$1:$FL$10,Data1!$FL$48:$FL$118</definedName>
-    <definedName name="A4110279L_Data">Data1!$FL$48:$FL$118</definedName>
-    <definedName name="A4110279L_Latest">Data1!$FL$118</definedName>
-    <definedName name="A4110280W">Data1!$DD$1:$DD$10,Data1!$DD$51:$DD$118</definedName>
-    <definedName name="A4110280W_Data">Data1!$DD$51:$DD$118</definedName>
-    <definedName name="A4110280W_Latest">Data1!$DD$118</definedName>
-    <definedName name="A4110281X">Data1!$HT$1:$HT$10,Data1!$HT$117:$HT$118</definedName>
-    <definedName name="A4110281X_Data">Data1!$HT$117:$HT$118</definedName>
-    <definedName name="A4110281X_Latest">Data1!$HT$118</definedName>
-    <definedName name="A4110282A">Data2!$AL$1:$AL$10,Data2!$AL$118</definedName>
-    <definedName name="A4110282A_Data">Data2!$AL$118</definedName>
-    <definedName name="A4110282A_Latest">Data2!$AL$118</definedName>
-    <definedName name="A4111982J">Data1!$T$1:$T$10,Data1!$T$47:$T$118</definedName>
-    <definedName name="A4111982J_Data">Data1!$T$47:$T$118</definedName>
-    <definedName name="A4111982J_Latest">Data1!$T$118</definedName>
-    <definedName name="A4111983K">Data1!$EJ$1:$EJ$10,Data1!$EJ$48:$EJ$118</definedName>
-    <definedName name="A4111983K_Data">Data1!$EJ$48:$EJ$118</definedName>
-    <definedName name="A4111983K_Latest">Data1!$EJ$118</definedName>
-    <definedName name="A4111984L">Data1!$CB$1:$CB$10,Data1!$CB$51:$CB$118</definedName>
-    <definedName name="A4111984L_Data">Data1!$CB$51:$CB$118</definedName>
-    <definedName name="A4111984L_Latest">Data1!$CB$118</definedName>
-    <definedName name="A4111985R">Data1!$GR$1:$GR$10,Data1!$GR$117:$GR$118</definedName>
-    <definedName name="A4111985R_Data">Data1!$GR$117:$GR$118</definedName>
-    <definedName name="A4111985R_Latest">Data1!$GR$118</definedName>
-    <definedName name="A4111986T">Data2!$J$1:$J$10,Data2!$J$118</definedName>
-    <definedName name="A4111986T_Data">Data2!$J$118</definedName>
-    <definedName name="A4111986T_Latest">Data2!$J$118</definedName>
-    <definedName name="A4112000C">Data1!$AF$1:$AF$10,Data1!$AF$47:$AF$118</definedName>
-    <definedName name="A4112000C_Data">Data1!$AF$47:$AF$118</definedName>
-    <definedName name="A4112000C_Latest">Data1!$AF$118</definedName>
-    <definedName name="A4112001F">Data1!$EV$1:$EV$10,Data1!$EV$48:$EV$118</definedName>
-    <definedName name="A4112001F_Data">Data1!$EV$48:$EV$118</definedName>
-    <definedName name="A4112001F_Latest">Data1!$EV$118</definedName>
-    <definedName name="A4112002J">Data1!$CN$1:$CN$10,Data1!$CN$51:$CN$118</definedName>
-    <definedName name="A4112002J_Data">Data1!$CN$51:$CN$118</definedName>
-    <definedName name="A4112002J_Latest">Data1!$CN$118</definedName>
-    <definedName name="A4112003K">Data1!$HD$1:$HD$10,Data1!$HD$117:$HD$118</definedName>
-    <definedName name="A4112003K_Data">Data1!$HD$117:$HD$118</definedName>
-    <definedName name="A4112003K_Latest">Data1!$HD$118</definedName>
-    <definedName name="A4112004L">Data2!$V$1:$V$10,Data2!$V$118</definedName>
-    <definedName name="A4112004L_Data">Data2!$V$118</definedName>
-    <definedName name="A4112004L_Latest">Data2!$V$118</definedName>
-    <definedName name="A4112378F">Data1!$AG$1:$AG$10,Data1!$AG$47:$AG$118</definedName>
-    <definedName name="A4112378F_Data">Data1!$AG$47:$AG$118</definedName>
-    <definedName name="A4112378F_Latest">Data1!$AG$118</definedName>
-    <definedName name="A4112379J">Data1!$EW$1:$EW$10,Data1!$EW$48:$EW$118</definedName>
-    <definedName name="A4112379J_Data">Data1!$EW$48:$EW$118</definedName>
-    <definedName name="A4112379J_Latest">Data1!$EW$118</definedName>
-    <definedName name="A4112380T">Data1!$CO$1:$CO$10,Data1!$CO$51:$CO$118</definedName>
-    <definedName name="A4112380T_Data">Data1!$CO$51:$CO$118</definedName>
-    <definedName name="A4112380T_Latest">Data1!$CO$118</definedName>
-    <definedName name="A4112381V">Data1!$HE$1:$HE$10,Data1!$HE$117:$HE$118</definedName>
-    <definedName name="A4112381V_Data">Data1!$HE$117:$HE$118</definedName>
-    <definedName name="A4112381V_Latest">Data1!$HE$118</definedName>
-    <definedName name="A4112382W">Data2!$W$1:$W$10,Data2!$W$118</definedName>
-    <definedName name="A4112382W_Data">Data2!$W$118</definedName>
-    <definedName name="A4112382W_Latest">Data2!$W$118</definedName>
-    <definedName name="A4113494J">Data1!$V$1:$V$10,Data1!$V$47:$V$118</definedName>
-    <definedName name="A4113494J_Data">Data1!$V$47:$V$118</definedName>
-    <definedName name="A4113494J_Latest">Data1!$V$118</definedName>
-    <definedName name="A4113495K">Data1!$EL$1:$EL$10,Data1!$EL$48:$EL$118</definedName>
-    <definedName name="A4113495K_Data">Data1!$EL$48:$EL$118</definedName>
-    <definedName name="A4113495K_Latest">Data1!$EL$118</definedName>
-    <definedName name="A4113496L">Data1!$CD$1:$CD$10,Data1!$CD$51:$CD$118</definedName>
-    <definedName name="A4113496L_Data">Data1!$CD$51:$CD$118</definedName>
-    <definedName name="A4113496L_Latest">Data1!$CD$118</definedName>
-    <definedName name="A4113497R">Data1!$GT$1:$GT$10,Data1!$GT$117:$GT$118</definedName>
-    <definedName name="A4113497R_Data">Data1!$GT$117:$GT$118</definedName>
-    <definedName name="A4113497R_Latest">Data1!$GT$118</definedName>
-    <definedName name="A4113498T">Data2!$L$1:$L$10,Data2!$L$118</definedName>
-    <definedName name="A4113498T_Data">Data2!$L$118</definedName>
-    <definedName name="A4113498T_Latest">Data2!$L$118</definedName>
-    <definedName name="A4113590J">Data1!$AJ$1:$AJ$10,Data1!$AJ$47:$AJ$118</definedName>
-    <definedName name="A4113590J_Data">Data1!$AJ$47:$AJ$118</definedName>
-    <definedName name="A4113590J_Latest">Data1!$AJ$118</definedName>
-    <definedName name="A4113591K">Data1!$EZ$1:$EZ$10,Data1!$EZ$48:$EZ$118</definedName>
-    <definedName name="A4113591K_Data">Data1!$EZ$48:$EZ$118</definedName>
-    <definedName name="A4113591K_Latest">Data1!$EZ$118</definedName>
-    <definedName name="A4113592L">Data1!$CR$1:$CR$10,Data1!$CR$51:$CR$118</definedName>
-    <definedName name="A4113592L_Data">Data1!$CR$51:$CR$118</definedName>
-    <definedName name="A4113592L_Latest">Data1!$CR$118</definedName>
-    <definedName name="A4113593R">Data1!$HH$1:$HH$10,Data1!$HH$117:$HH$118</definedName>
-    <definedName name="A4113593R_Data">Data1!$HH$117:$HH$118</definedName>
-    <definedName name="A4113593R_Latest">Data1!$HH$118</definedName>
-    <definedName name="A4113594T">Data2!$Z$1:$Z$10,Data2!$Z$118</definedName>
-    <definedName name="A4113594T_Data">Data2!$Z$118</definedName>
-    <definedName name="A4113594T_Latest">Data2!$Z$118</definedName>
-    <definedName name="A4114286J">Data1!$BG$1:$BG$10,Data1!$BG$47:$BG$118</definedName>
-    <definedName name="A4114286J_Data">Data1!$BG$47:$BG$118</definedName>
-    <definedName name="A4114286J_Latest">Data1!$BG$118</definedName>
-    <definedName name="A4114287K">Data1!$FW$1:$FW$10,Data1!$FW$48:$FW$118</definedName>
-    <definedName name="A4114287K_Data">Data1!$FW$48:$FW$118</definedName>
-    <definedName name="A4114287K_Latest">Data1!$FW$118</definedName>
-    <definedName name="A4114288L">Data1!$DO$1:$DO$10,Data1!$DO$51:$DO$118</definedName>
-    <definedName name="A4114288L_Data">Data1!$DO$51:$DO$118</definedName>
-    <definedName name="A4114288L_Latest">Data1!$DO$118</definedName>
-    <definedName name="A4114289R">Data1!$IE$1:$IE$10,Data1!$IE$117:$IE$118</definedName>
-    <definedName name="A4114289R_Data">Data1!$IE$117:$IE$118</definedName>
-    <definedName name="A4114289R_Latest">Data1!$IE$118</definedName>
-    <definedName name="A4114290X">Data2!$AW$1:$AW$10,Data2!$AW$118</definedName>
-    <definedName name="A4114290X_Data">Data2!$AW$118</definedName>
-    <definedName name="A4114290X_Latest">Data2!$AW$118</definedName>
-    <definedName name="A4114808F">Data1!$AL$1:$AL$10,Data1!$AL$11:$AL$118</definedName>
-    <definedName name="A4114808F_Data">Data1!$AL$11:$AL$118</definedName>
-    <definedName name="A4114808F_Latest">Data1!$AL$118</definedName>
-    <definedName name="A4114809J">Data1!$FB$1:$FB$10,Data1!$FB$12:$FB$118</definedName>
-    <definedName name="A4114809J_Data">Data1!$FB$12:$FB$118</definedName>
-    <definedName name="A4114809J_Latest">Data1!$FB$118</definedName>
-    <definedName name="A4114810T">Data1!$CT$1:$CT$10,Data1!$CT$15:$CT$118</definedName>
-    <definedName name="A4114810T_Data">Data1!$CT$15:$CT$118</definedName>
-    <definedName name="A4114810T_Latest">Data1!$CT$118</definedName>
-    <definedName name="A4114811V">Data1!$HJ$1:$HJ$10,Data1!$HJ$117:$HJ$118</definedName>
-    <definedName name="A4114811V_Data">Data1!$HJ$117:$HJ$118</definedName>
-    <definedName name="A4114811V_Latest">Data1!$HJ$118</definedName>
-    <definedName name="A4114812W">Data2!$AB$1:$AB$10,Data2!$AB$118</definedName>
-    <definedName name="A4114812W_Data">Data2!$AB$118</definedName>
-    <definedName name="A4114812W_Latest">Data2!$AB$118</definedName>
-    <definedName name="A4114952X">Data1!$BH$1:$BH$10,Data1!$BH$47:$BH$118</definedName>
-    <definedName name="A4114952X_Data">Data1!$BH$47:$BH$118</definedName>
-    <definedName name="A4114952X_Latest">Data1!$BH$118</definedName>
-    <definedName name="A4114953A">Data1!$FX$1:$FX$10,Data1!$FX$48:$FX$118</definedName>
-    <definedName name="A4114953A_Data">Data1!$FX$48:$FX$118</definedName>
-    <definedName name="A4114953A_Latest">Data1!$FX$118</definedName>
-    <definedName name="A4114954C">Data1!$DP$1:$DP$10,Data1!$DP$51:$DP$118</definedName>
-    <definedName name="A4114954C_Data">Data1!$DP$51:$DP$118</definedName>
-    <definedName name="A4114954C_Latest">Data1!$DP$118</definedName>
-    <definedName name="A4114955F">Data1!$IF$1:$IF$10,Data1!$IF$117:$IF$118</definedName>
-    <definedName name="A4114955F_Data">Data1!$IF$117:$IF$118</definedName>
-    <definedName name="A4114955F_Latest">Data1!$IF$118</definedName>
-    <definedName name="A4114956J">Data2!$AX$1:$AX$10,Data2!$AX$118</definedName>
-    <definedName name="A4114956J_Data">Data2!$AX$118</definedName>
-    <definedName name="A4114956J_Latest">Data2!$AX$118</definedName>
-    <definedName name="A4115732R">Data1!$L$1:$L$10,Data1!$L$47:$L$118</definedName>
-    <definedName name="A4115732R_Data">Data1!$L$47:$L$118</definedName>
-    <definedName name="A4115732R_Latest">Data1!$L$118</definedName>
-    <definedName name="A4115733T">Data1!$EB$1:$EB$10,Data1!$EB$48:$EB$118</definedName>
-    <definedName name="A4115733T_Data">Data1!$EB$48:$EB$118</definedName>
-    <definedName name="A4115733T_Latest">Data1!$EB$118</definedName>
-    <definedName name="A4115734V">Data1!$BT$1:$BT$10,Data1!$BT$51:$BT$118</definedName>
-    <definedName name="A4115734V_Data">Data1!$BT$51:$BT$118</definedName>
-    <definedName name="A4115734V_Latest">Data1!$BT$118</definedName>
-    <definedName name="A4115735W">Data1!$GJ$1:$GJ$10,Data1!$GJ$117:$GJ$118</definedName>
-    <definedName name="A4115735W_Data">Data1!$GJ$117:$GJ$118</definedName>
-    <definedName name="A4115735W_Latest">Data1!$GJ$118</definedName>
-    <definedName name="A4115736X">Data2!$B$1:$B$10,Data2!$B$118</definedName>
-    <definedName name="A4115736X_Data">Data2!$B$118</definedName>
-    <definedName name="A4115736X_Latest">Data2!$B$118</definedName>
-    <definedName name="A4116128L">Data1!$AX$1:$AX$10,Data1!$AX$11:$AX$118</definedName>
-    <definedName name="A4116128L_Data">Data1!$AX$11:$AX$118</definedName>
-    <definedName name="A4116128L_Latest">Data1!$AX$118</definedName>
-    <definedName name="A4116129R">Data1!$FN$1:$FN$10,Data1!$FN$12:$FN$118</definedName>
-    <definedName name="A4116129R_Data">Data1!$FN$12:$FN$118</definedName>
-    <definedName name="A4116129R_Latest">Data1!$FN$118</definedName>
-    <definedName name="A4116130X">Data1!$DF$1:$DF$10,Data1!$DF$15:$DF$118</definedName>
-    <definedName name="A4116130X_Data">Data1!$DF$15:$DF$118</definedName>
-    <definedName name="A4116130X_Latest">Data1!$DF$118</definedName>
-    <definedName name="A4116131A">Data1!$HV$1:$HV$10,Data1!$HV$117:$HV$118</definedName>
-    <definedName name="A4116131A_Data">Data1!$HV$117:$HV$118</definedName>
-    <definedName name="A4116131A_Latest">Data1!$HV$118</definedName>
-    <definedName name="A4116132C">Data2!$AN$1:$AN$10,Data2!$AN$118</definedName>
-    <definedName name="A4116132C_Data">Data2!$AN$118</definedName>
-    <definedName name="A4116132C_Latest">Data2!$AN$118</definedName>
-    <definedName name="A4116164W">Data1!$M$1:$M$10,Data1!$M$47:$M$118</definedName>
-    <definedName name="A4116164W_Data">Data1!$M$47:$M$118</definedName>
-    <definedName name="A4116164W_Latest">Data1!$M$118</definedName>
-    <definedName name="A4116165X">Data1!$EC$1:$EC$10,Data1!$EC$48:$EC$118</definedName>
-    <definedName name="A4116165X_Data">Data1!$EC$48:$EC$118</definedName>
-    <definedName name="A4116165X_Latest">Data1!$EC$118</definedName>
-    <definedName name="A4116166A">Data1!$BU$1:$BU$10,Data1!$BU$51:$BU$118</definedName>
-    <definedName name="A4116166A_Data">Data1!$BU$51:$BU$118</definedName>
-    <definedName name="A4116166A_Latest">Data1!$BU$118</definedName>
-    <definedName name="A4116167C">Data1!$GK$1:$GK$10,Data1!$GK$117:$GK$118</definedName>
-    <definedName name="A4116167C_Data">Data1!$GK$117:$GK$118</definedName>
-    <definedName name="A4116167C_Latest">Data1!$GK$118</definedName>
-    <definedName name="A4116168F">Data2!$C$1:$C$10,Data2!$C$118</definedName>
-    <definedName name="A4116168F_Data">Data2!$C$118</definedName>
-    <definedName name="A4116168F_Latest">Data2!$C$118</definedName>
-    <definedName name="A4116572J">Data1!$B$1:$B$10,Data1!$B$47:$B$118</definedName>
-    <definedName name="A4116572J_Data">Data1!$B$47:$B$118</definedName>
-    <definedName name="A4116572J_Latest">Data1!$B$118</definedName>
-    <definedName name="A4116573K">Data1!$DR$1:$DR$10,Data1!$DR$48:$DR$118</definedName>
-    <definedName name="A4116573K_Data">Data1!$DR$48:$DR$118</definedName>
-    <definedName name="A4116573K_Latest">Data1!$DR$118</definedName>
-    <definedName name="A4116574L">Data1!$BJ$1:$BJ$10,Data1!$BJ$51:$BJ$118</definedName>
-    <definedName name="A4116574L_Data">Data1!$BJ$51:$BJ$118</definedName>
-    <definedName name="A4116574L_Latest">Data1!$BJ$118</definedName>
-    <definedName name="A4116575R">Data1!$FZ$1:$FZ$10,Data1!$FZ$117:$FZ$118</definedName>
-    <definedName name="A4116575R_Data">Data1!$FZ$117:$FZ$118</definedName>
-    <definedName name="A4116575R_Latest">Data1!$FZ$118</definedName>
-    <definedName name="A4116576T">Data1!$IH$1:$IH$10,Data1!$IH$118</definedName>
-    <definedName name="A4116576T_Data">Data1!$IH$118</definedName>
-    <definedName name="A4116576T_Latest">Data1!$IH$118</definedName>
-    <definedName name="A4116644J">Data1!$R$1:$R$10,Data1!$R$47:$R$118</definedName>
-    <definedName name="A4116644J_Data">Data1!$R$47:$R$118</definedName>
-    <definedName name="A4116644J_Latest">Data1!$R$118</definedName>
-    <definedName name="A4116645K">Data1!$EH$1:$EH$10,Data1!$EH$48:$EH$118</definedName>
-    <definedName name="A4116645K_Data">Data1!$EH$48:$EH$118</definedName>
-    <definedName name="A4116645K_Latest">Data1!$EH$118</definedName>
-    <definedName name="A4116646L">Data1!$BZ$1:$BZ$10,Data1!$BZ$51:$BZ$118</definedName>
-    <definedName name="A4116646L_Data">Data1!$BZ$51:$BZ$118</definedName>
-    <definedName name="A4116646L_Latest">Data1!$BZ$118</definedName>
-    <definedName name="A4116647R">Data1!$GP$1:$GP$10,Data1!$GP$117:$GP$118</definedName>
-    <definedName name="A4116647R_Data">Data1!$GP$117:$GP$118</definedName>
-    <definedName name="A4116647R_Latest">Data1!$GP$118</definedName>
-    <definedName name="A4116648T">Data2!$H$1:$H$10,Data2!$H$118</definedName>
-    <definedName name="A4116648T_Data">Data2!$H$118</definedName>
-    <definedName name="A4116648T_Latest">Data2!$H$118</definedName>
-    <definedName name="A4117082K">Data1!$S$1:$S$10,Data1!$S$47:$S$118</definedName>
-    <definedName name="A4117082K_Data">Data1!$S$47:$S$118</definedName>
-    <definedName name="A4117082K_Latest">Data1!$S$118</definedName>
-    <definedName name="A4117083L">Data1!$EI$1:$EI$10,Data1!$EI$48:$EI$118</definedName>
-    <definedName name="A4117083L_Data">Data1!$EI$48:$EI$118</definedName>
-    <definedName name="A4117083L_Latest">Data1!$EI$118</definedName>
-    <definedName name="A4117084R">Data1!$CA$1:$CA$10,Data1!$CA$51:$CA$118</definedName>
-    <definedName name="A4117084R_Data">Data1!$CA$51:$CA$118</definedName>
-    <definedName name="A4117084R_Latest">Data1!$CA$118</definedName>
-    <definedName name="A4117085T">Data1!$GQ$1:$GQ$10,Data1!$GQ$117:$GQ$118</definedName>
-    <definedName name="A4117085T_Data">Data1!$GQ$117:$GQ$118</definedName>
-    <definedName name="A4117085T_Latest">Data1!$GQ$118</definedName>
-    <definedName name="A4117086V">Data2!$I$1:$I$10,Data2!$I$118</definedName>
-    <definedName name="A4117086V_Data">Data2!$I$118</definedName>
-    <definedName name="A4117086V_Latest">Data2!$I$118</definedName>
-    <definedName name="A4117268J">Data1!$O$1:$O$10,Data1!$O$47:$O$118</definedName>
-    <definedName name="A4117268J_Data">Data1!$O$47:$O$118</definedName>
-    <definedName name="A4117268J_Latest">Data1!$O$118</definedName>
-    <definedName name="A4117269K">Data1!$EE$1:$EE$10,Data1!$EE$48:$EE$118</definedName>
-    <definedName name="A4117269K_Data">Data1!$EE$48:$EE$118</definedName>
-    <definedName name="A4117269K_Latest">Data1!$EE$118</definedName>
-    <definedName name="A4117270V">Data1!$BW$1:$BW$10,Data1!$BW$51:$BW$118</definedName>
-    <definedName name="A4117270V_Data">Data1!$BW$51:$BW$118</definedName>
-    <definedName name="A4117270V_Latest">Data1!$BW$118</definedName>
-    <definedName name="A4117271W">Data1!$GM$1:$GM$10,Data1!$GM$117:$GM$118</definedName>
-    <definedName name="A4117271W_Data">Data1!$GM$117:$GM$118</definedName>
-    <definedName name="A4117271W_Latest">Data1!$GM$118</definedName>
-    <definedName name="A4117272X">Data2!$E$1:$E$10,Data2!$E$118</definedName>
-    <definedName name="A4117272X_Data">Data2!$E$118</definedName>
-    <definedName name="A4117272X_Latest">Data2!$E$118</definedName>
-    <definedName name="A4117934X">Data1!$AI$1:$AI$10,Data1!$AI$47:$AI$118</definedName>
-    <definedName name="A4117934X_Data">Data1!$AI$47:$AI$118</definedName>
-    <definedName name="A4117934X_Latest">Data1!$AI$118</definedName>
-    <definedName name="A4117935A">Data1!$EY$1:$EY$10,Data1!$EY$48:$EY$118</definedName>
-    <definedName name="A4117935A_Data">Data1!$EY$48:$EY$118</definedName>
-    <definedName name="A4117935A_Latest">Data1!$EY$118</definedName>
-    <definedName name="A4117936C">Data1!$CQ$1:$CQ$10,Data1!$CQ$51:$CQ$118</definedName>
-    <definedName name="A4117936C_Data">Data1!$CQ$51:$CQ$118</definedName>
-    <definedName name="A4117936C_Latest">Data1!$CQ$118</definedName>
-    <definedName name="A4117937F">Data1!$HG$1:$HG$10,Data1!$HG$117:$HG$118</definedName>
-    <definedName name="A4117937F_Data">Data1!$HG$117:$HG$118</definedName>
-    <definedName name="A4117937F_Latest">Data1!$HG$118</definedName>
-    <definedName name="A4117938J">Data2!$Y$1:$Y$10,Data2!$Y$118</definedName>
-    <definedName name="A4117938J_Data">Data2!$Y$118</definedName>
-    <definedName name="A4117938J_Latest">Data2!$Y$118</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$118</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$118</definedName>
+    <definedName name="A4083524T">Data1!$N$1:$N$10,Data1!$N$11:$N$119</definedName>
+    <definedName name="A4083524T_Data">Data1!$N$11:$N$119</definedName>
+    <definedName name="A4083524T_Latest">Data1!$N$119</definedName>
+    <definedName name="A4083525V">Data1!$ED$1:$ED$10,Data1!$ED$12:$ED$119</definedName>
+    <definedName name="A4083525V_Data">Data1!$ED$12:$ED$119</definedName>
+    <definedName name="A4083525V_Latest">Data1!$ED$119</definedName>
+    <definedName name="A4083526W">Data1!$BV$1:$BV$10,Data1!$BV$15:$BV$119</definedName>
+    <definedName name="A4083526W_Data">Data1!$BV$15:$BV$119</definedName>
+    <definedName name="A4083526W_Latest">Data1!$BV$119</definedName>
+    <definedName name="A4083527X">Data1!$GL$1:$GL$10,Data1!$GL$117:$GL$119</definedName>
+    <definedName name="A4083527X_Data">Data1!$GL$117:$GL$119</definedName>
+    <definedName name="A4083527X_Latest">Data1!$GL$119</definedName>
+    <definedName name="A4083528A">Data2!$D$1:$D$10,Data2!$D$118:$D$119</definedName>
+    <definedName name="A4083528A_Data">Data2!$D$118:$D$119</definedName>
+    <definedName name="A4083528A_Latest">Data2!$D$119</definedName>
+    <definedName name="A4083728V">Data1!$AU$1:$AU$10,Data1!$AU$47:$AU$119</definedName>
+    <definedName name="A4083728V_Data">Data1!$AU$47:$AU$119</definedName>
+    <definedName name="A4083728V_Latest">Data1!$AU$119</definedName>
+    <definedName name="A4083729W">Data1!$FK$1:$FK$10,Data1!$FK$48:$FK$119</definedName>
+    <definedName name="A4083729W_Data">Data1!$FK$48:$FK$119</definedName>
+    <definedName name="A4083729W_Latest">Data1!$FK$119</definedName>
+    <definedName name="A4083730F">Data1!$DC$1:$DC$10,Data1!$DC$51:$DC$119</definedName>
+    <definedName name="A4083730F_Data">Data1!$DC$51:$DC$119</definedName>
+    <definedName name="A4083730F_Latest">Data1!$DC$119</definedName>
+    <definedName name="A4083731J">Data1!$HS$1:$HS$10,Data1!$HS$117:$HS$119</definedName>
+    <definedName name="A4083731J_Data">Data1!$HS$117:$HS$119</definedName>
+    <definedName name="A4083731J_Latest">Data1!$HS$119</definedName>
+    <definedName name="A4083732K">Data2!$AK$1:$AK$10,Data2!$AK$118:$AK$119</definedName>
+    <definedName name="A4083732K_Data">Data2!$AK$118:$AK$119</definedName>
+    <definedName name="A4083732K_Latest">Data2!$AK$119</definedName>
+    <definedName name="A4083938T">Data1!$G$1:$G$10,Data1!$G$47:$G$119</definedName>
+    <definedName name="A4083938T_Data">Data1!$G$47:$G$119</definedName>
+    <definedName name="A4083938T_Latest">Data1!$G$119</definedName>
+    <definedName name="A4083939V">Data1!$DW$1:$DW$10,Data1!$DW$48:$DW$119</definedName>
+    <definedName name="A4083939V_Data">Data1!$DW$48:$DW$119</definedName>
+    <definedName name="A4083939V_Latest">Data1!$DW$119</definedName>
+    <definedName name="A4083940C">Data1!$BO$1:$BO$10,Data1!$BO$51:$BO$119</definedName>
+    <definedName name="A4083940C_Data">Data1!$BO$51:$BO$119</definedName>
+    <definedName name="A4083940C_Latest">Data1!$BO$119</definedName>
+    <definedName name="A4083941F">Data1!$GE$1:$GE$10,Data1!$GE$117:$GE$119</definedName>
+    <definedName name="A4083941F_Data">Data1!$GE$117:$GE$119</definedName>
+    <definedName name="A4083941F_Latest">Data1!$GE$119</definedName>
+    <definedName name="A4083942J">Data1!$IM$1:$IM$10,Data1!$IM$118:$IM$119</definedName>
+    <definedName name="A4083942J_Data">Data1!$IM$118:$IM$119</definedName>
+    <definedName name="A4083942J_Latest">Data1!$IM$119</definedName>
+    <definedName name="A4084454R">Data1!$AH$1:$AH$10,Data1!$AH$47:$AH$119</definedName>
+    <definedName name="A4084454R_Data">Data1!$AH$47:$AH$119</definedName>
+    <definedName name="A4084454R_Latest">Data1!$AH$119</definedName>
+    <definedName name="A4084455T">Data1!$EX$1:$EX$10,Data1!$EX$48:$EX$119</definedName>
+    <definedName name="A4084455T_Data">Data1!$EX$48:$EX$119</definedName>
+    <definedName name="A4084455T_Latest">Data1!$EX$119</definedName>
+    <definedName name="A4084456V">Data1!$CP$1:$CP$10,Data1!$CP$51:$CP$119</definedName>
+    <definedName name="A4084456V_Data">Data1!$CP$51:$CP$119</definedName>
+    <definedName name="A4084456V_Latest">Data1!$CP$119</definedName>
+    <definedName name="A4084457W">Data1!$HF$1:$HF$10,Data1!$HF$117:$HF$119</definedName>
+    <definedName name="A4084457W_Data">Data1!$HF$117:$HF$119</definedName>
+    <definedName name="A4084457W_Latest">Data1!$HF$119</definedName>
+    <definedName name="A4084458X">Data2!$X$1:$X$10,Data2!$X$118:$X$119</definedName>
+    <definedName name="A4084458X_Data">Data2!$X$118:$X$119</definedName>
+    <definedName name="A4084458X_Latest">Data2!$X$119</definedName>
+    <definedName name="A4084874K">Data1!$AA$1:$AA$10,Data1!$AA$47:$AA$119</definedName>
+    <definedName name="A4084874K_Data">Data1!$AA$47:$AA$119</definedName>
+    <definedName name="A4084874K_Latest">Data1!$AA$119</definedName>
+    <definedName name="A4084875L">Data1!$EQ$1:$EQ$10,Data1!$EQ$48:$EQ$119</definedName>
+    <definedName name="A4084875L_Data">Data1!$EQ$48:$EQ$119</definedName>
+    <definedName name="A4084875L_Latest">Data1!$EQ$119</definedName>
+    <definedName name="A4084876R">Data1!$CI$1:$CI$10,Data1!$CI$51:$CI$119</definedName>
+    <definedName name="A4084876R_Data">Data1!$CI$51:$CI$119</definedName>
+    <definedName name="A4084876R_Latest">Data1!$CI$119</definedName>
+    <definedName name="A4084877T">Data1!$GY$1:$GY$10,Data1!$GY$117:$GY$119</definedName>
+    <definedName name="A4084877T_Data">Data1!$GY$117:$GY$119</definedName>
+    <definedName name="A4084877T_Latest">Data1!$GY$119</definedName>
+    <definedName name="A4084878V">Data2!$Q$1:$Q$10,Data2!$Q$118:$Q$119</definedName>
+    <definedName name="A4084878V_Data">Data2!$Q$118:$Q$119</definedName>
+    <definedName name="A4084878V_Latest">Data2!$Q$119</definedName>
+    <definedName name="A4085534J">Data1!$H$1:$H$10,Data1!$H$47:$H$119</definedName>
+    <definedName name="A4085534J_Data">Data1!$H$47:$H$119</definedName>
+    <definedName name="A4085534J_Latest">Data1!$H$119</definedName>
+    <definedName name="A4085535K">Data1!$DX$1:$DX$10,Data1!$DX$48:$DX$119</definedName>
+    <definedName name="A4085535K_Data">Data1!$DX$48:$DX$119</definedName>
+    <definedName name="A4085535K_Latest">Data1!$DX$119</definedName>
+    <definedName name="A4085536L">Data1!$BP$1:$BP$10,Data1!$BP$51:$BP$119</definedName>
+    <definedName name="A4085536L_Data">Data1!$BP$51:$BP$119</definedName>
+    <definedName name="A4085536L_Latest">Data1!$BP$119</definedName>
+    <definedName name="A4085537R">Data1!$GF$1:$GF$10,Data1!$GF$117:$GF$119</definedName>
+    <definedName name="A4085537R_Data">Data1!$GF$117:$GF$119</definedName>
+    <definedName name="A4085537R_Latest">Data1!$GF$119</definedName>
+    <definedName name="A4085538T">Data1!$IN$1:$IN$10,Data1!$IN$118:$IN$119</definedName>
+    <definedName name="A4085538T_Data">Data1!$IN$118:$IN$119</definedName>
+    <definedName name="A4085538T_Latest">Data1!$IN$119</definedName>
+    <definedName name="A4085684R">Data1!$AC$1:$AC$10,Data1!$AC$47:$AC$119</definedName>
+    <definedName name="A4085684R_Data">Data1!$AC$47:$AC$119</definedName>
+    <definedName name="A4085684R_Latest">Data1!$AC$119</definedName>
+    <definedName name="A4085685T">Data1!$ES$1:$ES$10,Data1!$ES$48:$ES$119</definedName>
+    <definedName name="A4085685T_Data">Data1!$ES$48:$ES$119</definedName>
+    <definedName name="A4085685T_Latest">Data1!$ES$119</definedName>
+    <definedName name="A4085686V">Data1!$CK$1:$CK$10,Data1!$CK$51:$CK$119</definedName>
+    <definedName name="A4085686V_Data">Data1!$CK$51:$CK$119</definedName>
+    <definedName name="A4085686V_Latest">Data1!$CK$119</definedName>
+    <definedName name="A4085687W">Data1!$HA$1:$HA$10,Data1!$HA$117:$HA$119</definedName>
+    <definedName name="A4085687W_Data">Data1!$HA$117:$HA$119</definedName>
+    <definedName name="A4085687W_Latest">Data1!$HA$119</definedName>
+    <definedName name="A4085688X">Data2!$S$1:$S$10,Data2!$S$118:$S$119</definedName>
+    <definedName name="A4085688X_Data">Data2!$S$118:$S$119</definedName>
+    <definedName name="A4085688X_Latest">Data2!$S$119</definedName>
+    <definedName name="A4086140K">Data1!$AB$1:$AB$10,Data1!$AB$47:$AB$119</definedName>
+    <definedName name="A4086140K_Data">Data1!$AB$47:$AB$119</definedName>
+    <definedName name="A4086140K_Latest">Data1!$AB$119</definedName>
+    <definedName name="A4086141L">Data1!$ER$1:$ER$10,Data1!$ER$48:$ER$119</definedName>
+    <definedName name="A4086141L_Data">Data1!$ER$48:$ER$119</definedName>
+    <definedName name="A4086141L_Latest">Data1!$ER$119</definedName>
+    <definedName name="A4086142R">Data1!$CJ$1:$CJ$10,Data1!$CJ$51:$CJ$119</definedName>
+    <definedName name="A4086142R_Data">Data1!$CJ$51:$CJ$119</definedName>
+    <definedName name="A4086142R_Latest">Data1!$CJ$119</definedName>
+    <definedName name="A4086143T">Data1!$GZ$1:$GZ$10,Data1!$GZ$117:$GZ$119</definedName>
+    <definedName name="A4086143T_Data">Data1!$GZ$117:$GZ$119</definedName>
+    <definedName name="A4086143T_Latest">Data1!$GZ$119</definedName>
+    <definedName name="A4086144V">Data2!$R$1:$R$10,Data2!$R$118:$R$119</definedName>
+    <definedName name="A4086144V_Data">Data2!$R$118:$R$119</definedName>
+    <definedName name="A4086144V_Latest">Data2!$R$119</definedName>
+    <definedName name="A4086152V">Data1!$Q$1:$Q$10,Data1!$Q$47:$Q$119</definedName>
+    <definedName name="A4086152V_Data">Data1!$Q$47:$Q$119</definedName>
+    <definedName name="A4086152V_Latest">Data1!$Q$119</definedName>
+    <definedName name="A4086153W">Data1!$EG$1:$EG$10,Data1!$EG$48:$EG$119</definedName>
+    <definedName name="A4086153W_Data">Data1!$EG$48:$EG$119</definedName>
+    <definedName name="A4086153W_Latest">Data1!$EG$119</definedName>
+    <definedName name="A4086154X">Data1!$BY$1:$BY$10,Data1!$BY$51:$BY$119</definedName>
+    <definedName name="A4086154X_Data">Data1!$BY$51:$BY$119</definedName>
+    <definedName name="A4086154X_Latest">Data1!$BY$119</definedName>
+    <definedName name="A4086155A">Data1!$GO$1:$GO$10,Data1!$GO$117:$GO$119</definedName>
+    <definedName name="A4086155A_Data">Data1!$GO$117:$GO$119</definedName>
+    <definedName name="A4086155A_Latest">Data1!$GO$119</definedName>
+    <definedName name="A4086156C">Data2!$G$1:$G$10,Data2!$G$118:$G$119</definedName>
+    <definedName name="A4086156C_Data">Data2!$G$118:$G$119</definedName>
+    <definedName name="A4086156C_Latest">Data2!$G$119</definedName>
+    <definedName name="A4086854L">Data1!$AO$1:$AO$10,Data1!$AO$47:$AO$119</definedName>
+    <definedName name="A4086854L_Data">Data1!$AO$47:$AO$119</definedName>
+    <definedName name="A4086854L_Latest">Data1!$AO$119</definedName>
+    <definedName name="A4086855R">Data1!$FE$1:$FE$10,Data1!$FE$48:$FE$119</definedName>
+    <definedName name="A4086855R_Data">Data1!$FE$48:$FE$119</definedName>
+    <definedName name="A4086855R_Latest">Data1!$FE$119</definedName>
+    <definedName name="A4086856T">Data1!$CW$1:$CW$10,Data1!$CW$51:$CW$119</definedName>
+    <definedName name="A4086856T_Data">Data1!$CW$51:$CW$119</definedName>
+    <definedName name="A4086856T_Latest">Data1!$CW$119</definedName>
+    <definedName name="A4086857V">Data1!$HM$1:$HM$10,Data1!$HM$117:$HM$119</definedName>
+    <definedName name="A4086857V_Data">Data1!$HM$117:$HM$119</definedName>
+    <definedName name="A4086857V_Latest">Data1!$HM$119</definedName>
+    <definedName name="A4086858W">Data2!$AE$1:$AE$10,Data2!$AE$118:$AE$119</definedName>
+    <definedName name="A4086858W_Data">Data2!$AE$118:$AE$119</definedName>
+    <definedName name="A4086858W_Latest">Data2!$AE$119</definedName>
+    <definedName name="A4087706C">Data1!$K$1:$K$10,Data1!$K$47:$K$119</definedName>
+    <definedName name="A4087706C_Data">Data1!$K$47:$K$119</definedName>
+    <definedName name="A4087706C_Latest">Data1!$K$119</definedName>
+    <definedName name="A4087707F">Data1!$EA$1:$EA$10,Data1!$EA$48:$EA$119</definedName>
+    <definedName name="A4087707F_Data">Data1!$EA$48:$EA$119</definedName>
+    <definedName name="A4087707F_Latest">Data1!$EA$119</definedName>
+    <definedName name="A4087708J">Data1!$BS$1:$BS$10,Data1!$BS$51:$BS$119</definedName>
+    <definedName name="A4087708J_Data">Data1!$BS$51:$BS$119</definedName>
+    <definedName name="A4087708J_Latest">Data1!$BS$119</definedName>
+    <definedName name="A4087709K">Data1!$GI$1:$GI$10,Data1!$GI$117:$GI$119</definedName>
+    <definedName name="A4087709K_Data">Data1!$GI$117:$GI$119</definedName>
+    <definedName name="A4087709K_Latest">Data1!$GI$119</definedName>
+    <definedName name="A4087710V">Data1!$IQ$1:$IQ$10,Data1!$IQ$118:$IQ$119</definedName>
+    <definedName name="A4087710V_Data">Data1!$IQ$118:$IQ$119</definedName>
+    <definedName name="A4087710V_Latest">Data1!$IQ$119</definedName>
+    <definedName name="A4087754W">Data1!$AY$1:$AY$10,Data1!$AY$47:$AY$119</definedName>
+    <definedName name="A4087754W_Data">Data1!$AY$47:$AY$119</definedName>
+    <definedName name="A4087754W_Latest">Data1!$AY$119</definedName>
+    <definedName name="A4087755X">Data1!$FO$1:$FO$10,Data1!$FO$48:$FO$119</definedName>
+    <definedName name="A4087755X_Data">Data1!$FO$48:$FO$119</definedName>
+    <definedName name="A4087755X_Latest">Data1!$FO$119</definedName>
+    <definedName name="A4087756A">Data1!$DG$1:$DG$10,Data1!$DG$51:$DG$119</definedName>
+    <definedName name="A4087756A_Data">Data1!$DG$51:$DG$119</definedName>
+    <definedName name="A4087756A_Latest">Data1!$DG$119</definedName>
+    <definedName name="A4087757C">Data1!$HW$1:$HW$10,Data1!$HW$117:$HW$119</definedName>
+    <definedName name="A4087757C_Data">Data1!$HW$117:$HW$119</definedName>
+    <definedName name="A4087757C_Latest">Data1!$HW$119</definedName>
+    <definedName name="A4087758F">Data2!$AO$1:$AO$10,Data2!$AO$118:$AO$119</definedName>
+    <definedName name="A4087758F_Data">Data2!$AO$118:$AO$119</definedName>
+    <definedName name="A4087758F_Latest">Data2!$AO$119</definedName>
+    <definedName name="A4088180R">Data1!$BF$1:$BF$10,Data1!$BF$47:$BF$119</definedName>
+    <definedName name="A4088180R_Data">Data1!$BF$47:$BF$119</definedName>
+    <definedName name="A4088180R_Latest">Data1!$BF$119</definedName>
+    <definedName name="A4088181T">Data1!$FV$1:$FV$10,Data1!$FV$48:$FV$119</definedName>
+    <definedName name="A4088181T_Data">Data1!$FV$48:$FV$119</definedName>
+    <definedName name="A4088181T_Latest">Data1!$FV$119</definedName>
+    <definedName name="A4088182V">Data1!$DN$1:$DN$10,Data1!$DN$51:$DN$119</definedName>
+    <definedName name="A4088182V_Data">Data1!$DN$51:$DN$119</definedName>
+    <definedName name="A4088182V_Latest">Data1!$DN$119</definedName>
+    <definedName name="A4088183W">Data1!$ID$1:$ID$10,Data1!$ID$117:$ID$119</definedName>
+    <definedName name="A4088183W_Data">Data1!$ID$117:$ID$119</definedName>
+    <definedName name="A4088183W_Latest">Data1!$ID$119</definedName>
+    <definedName name="A4088184X">Data2!$AV$1:$AV$10,Data2!$AV$118:$AV$119</definedName>
+    <definedName name="A4088184X_Data">Data2!$AV$118:$AV$119</definedName>
+    <definedName name="A4088184X_Latest">Data2!$AV$119</definedName>
+    <definedName name="A4088984W">Data1!$AW$1:$AW$10,Data1!$AW$47:$AW$119</definedName>
+    <definedName name="A4088984W_Data">Data1!$AW$47:$AW$119</definedName>
+    <definedName name="A4088984W_Latest">Data1!$AW$119</definedName>
+    <definedName name="A4088985X">Data1!$FM$1:$FM$10,Data1!$FM$48:$FM$119</definedName>
+    <definedName name="A4088985X_Data">Data1!$FM$48:$FM$119</definedName>
+    <definedName name="A4088985X_Latest">Data1!$FM$119</definedName>
+    <definedName name="A4088986A">Data1!$DE$1:$DE$10,Data1!$DE$51:$DE$119</definedName>
+    <definedName name="A4088986A_Data">Data1!$DE$51:$DE$119</definedName>
+    <definedName name="A4088986A_Latest">Data1!$DE$119</definedName>
+    <definedName name="A4088987C">Data1!$HU$1:$HU$10,Data1!$HU$117:$HU$119</definedName>
+    <definedName name="A4088987C_Data">Data1!$HU$117:$HU$119</definedName>
+    <definedName name="A4088987C_Latest">Data1!$HU$119</definedName>
+    <definedName name="A4088988F">Data2!$AM$1:$AM$10,Data2!$AM$118:$AM$119</definedName>
+    <definedName name="A4088988F_Data">Data2!$AM$118:$AM$119</definedName>
+    <definedName name="A4088988F_Latest">Data2!$AM$119</definedName>
+    <definedName name="A4090940K">Data1!$I$1:$I$10,Data1!$I$47:$I$119</definedName>
+    <definedName name="A4090940K_Data">Data1!$I$47:$I$119</definedName>
+    <definedName name="A4090940K_Latest">Data1!$I$119</definedName>
+    <definedName name="A4090941L">Data1!$DY$1:$DY$10,Data1!$DY$48:$DY$119</definedName>
+    <definedName name="A4090941L_Data">Data1!$DY$48:$DY$119</definedName>
+    <definedName name="A4090941L_Latest">Data1!$DY$119</definedName>
+    <definedName name="A4090942R">Data1!$BQ$1:$BQ$10,Data1!$BQ$51:$BQ$119</definedName>
+    <definedName name="A4090942R_Data">Data1!$BQ$51:$BQ$119</definedName>
+    <definedName name="A4090942R_Latest">Data1!$BQ$119</definedName>
+    <definedName name="A4090943T">Data1!$GG$1:$GG$10,Data1!$GG$117:$GG$119</definedName>
+    <definedName name="A4090943T_Data">Data1!$GG$117:$GG$119</definedName>
+    <definedName name="A4090943T_Latest">Data1!$GG$119</definedName>
+    <definedName name="A4090944V">Data1!$IO$1:$IO$10,Data1!$IO$118:$IO$119</definedName>
+    <definedName name="A4090944V_Data">Data1!$IO$118:$IO$119</definedName>
+    <definedName name="A4090944V_Latest">Data1!$IO$119</definedName>
+    <definedName name="A4091996R">Data1!$AS$1:$AS$10,Data1!$AS$47:$AS$119</definedName>
+    <definedName name="A4091996R_Data">Data1!$AS$47:$AS$119</definedName>
+    <definedName name="A4091996R_Latest">Data1!$AS$119</definedName>
+    <definedName name="A4091997T">Data1!$FI$1:$FI$10,Data1!$FI$48:$FI$119</definedName>
+    <definedName name="A4091997T_Data">Data1!$FI$48:$FI$119</definedName>
+    <definedName name="A4091997T_Latest">Data1!$FI$119</definedName>
+    <definedName name="A4091998V">Data1!$DA$1:$DA$10,Data1!$DA$51:$DA$119</definedName>
+    <definedName name="A4091998V_Data">Data1!$DA$51:$DA$119</definedName>
+    <definedName name="A4091998V_Latest">Data1!$DA$119</definedName>
+    <definedName name="A4091999W">Data1!$HQ$1:$HQ$10,Data1!$HQ$117:$HQ$119</definedName>
+    <definedName name="A4091999W_Data">Data1!$HQ$117:$HQ$119</definedName>
+    <definedName name="A4091999W_Latest">Data1!$HQ$119</definedName>
+    <definedName name="A4092000W">Data2!$AI$1:$AI$10,Data2!$AI$118:$AI$119</definedName>
+    <definedName name="A4092000W_Data">Data2!$AI$118:$AI$119</definedName>
+    <definedName name="A4092000W_Latest">Data2!$AI$119</definedName>
+    <definedName name="A4093034L">Data1!$BB$1:$BB$10,Data1!$BB$47:$BB$119</definedName>
+    <definedName name="A4093034L_Data">Data1!$BB$47:$BB$119</definedName>
+    <definedName name="A4093034L_Latest">Data1!$BB$119</definedName>
+    <definedName name="A4093035R">Data1!$FR$1:$FR$10,Data1!$FR$48:$FR$119</definedName>
+    <definedName name="A4093035R_Data">Data1!$FR$48:$FR$119</definedName>
+    <definedName name="A4093035R_Latest">Data1!$FR$119</definedName>
+    <definedName name="A4093036T">Data1!$DJ$1:$DJ$10,Data1!$DJ$51:$DJ$119</definedName>
+    <definedName name="A4093036T_Data">Data1!$DJ$51:$DJ$119</definedName>
+    <definedName name="A4093036T_Latest">Data1!$DJ$119</definedName>
+    <definedName name="A4093037V">Data1!$HZ$1:$HZ$10,Data1!$HZ$117:$HZ$119</definedName>
+    <definedName name="A4093037V_Data">Data1!$HZ$117:$HZ$119</definedName>
+    <definedName name="A4093037V_Latest">Data1!$HZ$119</definedName>
+    <definedName name="A4093038W">Data2!$AR$1:$AR$10,Data2!$AR$118:$AR$119</definedName>
+    <definedName name="A4093038W_Data">Data2!$AR$118:$AR$119</definedName>
+    <definedName name="A4093038W_Latest">Data2!$AR$119</definedName>
+    <definedName name="A4093946C">Data1!$BE$1:$BE$10,Data1!$BE$47:$BE$119</definedName>
+    <definedName name="A4093946C_Data">Data1!$BE$47:$BE$119</definedName>
+    <definedName name="A4093946C_Latest">Data1!$BE$119</definedName>
+    <definedName name="A4093947F">Data1!$FU$1:$FU$10,Data1!$FU$48:$FU$119</definedName>
+    <definedName name="A4093947F_Data">Data1!$FU$48:$FU$119</definedName>
+    <definedName name="A4093947F_Latest">Data1!$FU$119</definedName>
+    <definedName name="A4093948J">Data1!$DM$1:$DM$10,Data1!$DM$51:$DM$119</definedName>
+    <definedName name="A4093948J_Data">Data1!$DM$51:$DM$119</definedName>
+    <definedName name="A4093948J_Latest">Data1!$DM$119</definedName>
+    <definedName name="A4093949K">Data1!$IC$1:$IC$10,Data1!$IC$117:$IC$119</definedName>
+    <definedName name="A4093949K_Data">Data1!$IC$117:$IC$119</definedName>
+    <definedName name="A4093949K_Latest">Data1!$IC$119</definedName>
+    <definedName name="A4093950V">Data2!$AU$1:$AU$10,Data2!$AU$118:$AU$119</definedName>
+    <definedName name="A4093950V_Data">Data2!$AU$118:$AU$119</definedName>
+    <definedName name="A4093950V_Latest">Data2!$AU$119</definedName>
+    <definedName name="A4094024A">Data1!$AZ$1:$AZ$10,Data1!$AZ$47:$AZ$119</definedName>
+    <definedName name="A4094024A_Data">Data1!$AZ$47:$AZ$119</definedName>
+    <definedName name="A4094024A_Latest">Data1!$AZ$119</definedName>
+    <definedName name="A4094025C">Data1!$FP$1:$FP$10,Data1!$FP$48:$FP$119</definedName>
+    <definedName name="A4094025C_Data">Data1!$FP$48:$FP$119</definedName>
+    <definedName name="A4094025C_Latest">Data1!$FP$119</definedName>
+    <definedName name="A4094026F">Data1!$DH$1:$DH$10,Data1!$DH$51:$DH$119</definedName>
+    <definedName name="A4094026F_Data">Data1!$DH$51:$DH$119</definedName>
+    <definedName name="A4094026F_Latest">Data1!$DH$119</definedName>
+    <definedName name="A4094027J">Data1!$HX$1:$HX$10,Data1!$HX$117:$HX$119</definedName>
+    <definedName name="A4094027J_Data">Data1!$HX$117:$HX$119</definedName>
+    <definedName name="A4094027J_Latest">Data1!$HX$119</definedName>
+    <definedName name="A4094028K">Data2!$AP$1:$AP$10,Data2!$AP$118:$AP$119</definedName>
+    <definedName name="A4094028K_Data">Data2!$AP$118:$AP$119</definedName>
+    <definedName name="A4094028K_Latest">Data2!$AP$119</definedName>
+    <definedName name="A4095662L">Data1!$AN$1:$AN$10,Data1!$AN$47:$AN$119</definedName>
+    <definedName name="A4095662L_Data">Data1!$AN$47:$AN$119</definedName>
+    <definedName name="A4095662L_Latest">Data1!$AN$119</definedName>
+    <definedName name="A4095663R">Data1!$FD$1:$FD$10,Data1!$FD$48:$FD$119</definedName>
+    <definedName name="A4095663R_Data">Data1!$FD$48:$FD$119</definedName>
+    <definedName name="A4095663R_Latest">Data1!$FD$119</definedName>
+    <definedName name="A4095664T">Data1!$CV$1:$CV$10,Data1!$CV$51:$CV$119</definedName>
+    <definedName name="A4095664T_Data">Data1!$CV$51:$CV$119</definedName>
+    <definedName name="A4095664T_Latest">Data1!$CV$119</definedName>
+    <definedName name="A4095665V">Data1!$HL$1:$HL$10,Data1!$HL$117:$HL$119</definedName>
+    <definedName name="A4095665V_Data">Data1!$HL$117:$HL$119</definedName>
+    <definedName name="A4095665V_Latest">Data1!$HL$119</definedName>
+    <definedName name="A4095666W">Data2!$AD$1:$AD$10,Data2!$AD$118:$AD$119</definedName>
+    <definedName name="A4095666W_Data">Data2!$AD$118:$AD$119</definedName>
+    <definedName name="A4095666W_Latest">Data2!$AD$119</definedName>
+    <definedName name="A4095686F">Data1!$AR$1:$AR$10,Data1!$AR$47:$AR$119</definedName>
+    <definedName name="A4095686F_Data">Data1!$AR$47:$AR$119</definedName>
+    <definedName name="A4095686F_Latest">Data1!$AR$119</definedName>
+    <definedName name="A4095687J">Data1!$FH$1:$FH$10,Data1!$FH$48:$FH$119</definedName>
+    <definedName name="A4095687J_Data">Data1!$FH$48:$FH$119</definedName>
+    <definedName name="A4095687J_Latest">Data1!$FH$119</definedName>
+    <definedName name="A4095688K">Data1!$CZ$1:$CZ$10,Data1!$CZ$51:$CZ$119</definedName>
+    <definedName name="A4095688K_Data">Data1!$CZ$51:$CZ$119</definedName>
+    <definedName name="A4095688K_Latest">Data1!$CZ$119</definedName>
+    <definedName name="A4095689L">Data1!$HP$1:$HP$10,Data1!$HP$117:$HP$119</definedName>
+    <definedName name="A4095689L_Data">Data1!$HP$117:$HP$119</definedName>
+    <definedName name="A4095689L_Latest">Data1!$HP$119</definedName>
+    <definedName name="A4095690W">Data2!$AH$1:$AH$10,Data2!$AH$118:$AH$119</definedName>
+    <definedName name="A4095690W_Data">Data2!$AH$118:$AH$119</definedName>
+    <definedName name="A4095690W_Latest">Data2!$AH$119</definedName>
+    <definedName name="A4095740J">Data1!$AQ$1:$AQ$10,Data1!$AQ$47:$AQ$119</definedName>
+    <definedName name="A4095740J_Data">Data1!$AQ$47:$AQ$119</definedName>
+    <definedName name="A4095740J_Latest">Data1!$AQ$119</definedName>
+    <definedName name="A4095741K">Data1!$FG$1:$FG$10,Data1!$FG$48:$FG$119</definedName>
+    <definedName name="A4095741K_Data">Data1!$FG$48:$FG$119</definedName>
+    <definedName name="A4095741K_Latest">Data1!$FG$119</definedName>
+    <definedName name="A4095742L">Data1!$CY$1:$CY$10,Data1!$CY$51:$CY$119</definedName>
+    <definedName name="A4095742L_Data">Data1!$CY$51:$CY$119</definedName>
+    <definedName name="A4095742L_Latest">Data1!$CY$119</definedName>
+    <definedName name="A4095743R">Data1!$HO$1:$HO$10,Data1!$HO$117:$HO$119</definedName>
+    <definedName name="A4095743R_Data">Data1!$HO$117:$HO$119</definedName>
+    <definedName name="A4095743R_Latest">Data1!$HO$119</definedName>
+    <definedName name="A4095744T">Data2!$AG$1:$AG$10,Data2!$AG$118:$AG$119</definedName>
+    <definedName name="A4095744T_Data">Data2!$AG$118:$AG$119</definedName>
+    <definedName name="A4095744T_Latest">Data2!$AG$119</definedName>
+    <definedName name="A4097366F">Data1!$X$1:$X$10,Data1!$X$47:$X$119</definedName>
+    <definedName name="A4097366F_Data">Data1!$X$47:$X$119</definedName>
+    <definedName name="A4097366F_Latest">Data1!$X$119</definedName>
+    <definedName name="A4097367J">Data1!$EN$1:$EN$10,Data1!$EN$48:$EN$119</definedName>
+    <definedName name="A4097367J_Data">Data1!$EN$48:$EN$119</definedName>
+    <definedName name="A4097367J_Latest">Data1!$EN$119</definedName>
+    <definedName name="A4097368K">Data1!$CF$1:$CF$10,Data1!$CF$51:$CF$119</definedName>
+    <definedName name="A4097368K_Data">Data1!$CF$51:$CF$119</definedName>
+    <definedName name="A4097368K_Latest">Data1!$CF$119</definedName>
+    <definedName name="A4097369L">Data1!$GV$1:$GV$10,Data1!$GV$117:$GV$119</definedName>
+    <definedName name="A4097369L_Data">Data1!$GV$117:$GV$119</definedName>
+    <definedName name="A4097369L_Latest">Data1!$GV$119</definedName>
+    <definedName name="A4097370W">Data2!$N$1:$N$10,Data2!$N$118:$N$119</definedName>
+    <definedName name="A4097370W_Data">Data2!$N$118:$N$119</definedName>
+    <definedName name="A4097370W_Latest">Data2!$N$119</definedName>
+    <definedName name="A4097576C">Data1!$AD$1:$AD$10,Data1!$AD$47:$AD$119</definedName>
+    <definedName name="A4097576C_Data">Data1!$AD$47:$AD$119</definedName>
+    <definedName name="A4097576C_Latest">Data1!$AD$119</definedName>
+    <definedName name="A4097577F">Data1!$ET$1:$ET$10,Data1!$ET$48:$ET$119</definedName>
+    <definedName name="A4097577F_Data">Data1!$ET$48:$ET$119</definedName>
+    <definedName name="A4097577F_Latest">Data1!$ET$119</definedName>
+    <definedName name="A4097578J">Data1!$CL$1:$CL$10,Data1!$CL$51:$CL$119</definedName>
+    <definedName name="A4097578J_Data">Data1!$CL$51:$CL$119</definedName>
+    <definedName name="A4097578J_Latest">Data1!$CL$119</definedName>
+    <definedName name="A4097579K">Data1!$HB$1:$HB$10,Data1!$HB$117:$HB$119</definedName>
+    <definedName name="A4097579K_Data">Data1!$HB$117:$HB$119</definedName>
+    <definedName name="A4097579K_Latest">Data1!$HB$119</definedName>
+    <definedName name="A4097580V">Data2!$T$1:$T$10,Data2!$T$118:$T$119</definedName>
+    <definedName name="A4097580V_Data">Data2!$T$118:$T$119</definedName>
+    <definedName name="A4097580V_Latest">Data2!$T$119</definedName>
+    <definedName name="A4097606F">Data1!$AP$1:$AP$10,Data1!$AP$47:$AP$119</definedName>
+    <definedName name="A4097606F_Data">Data1!$AP$47:$AP$119</definedName>
+    <definedName name="A4097606F_Latest">Data1!$AP$119</definedName>
+    <definedName name="A4097607J">Data1!$FF$1:$FF$10,Data1!$FF$48:$FF$119</definedName>
+    <definedName name="A4097607J_Data">Data1!$FF$48:$FF$119</definedName>
+    <definedName name="A4097607J_Latest">Data1!$FF$119</definedName>
+    <definedName name="A4097608K">Data1!$CX$1:$CX$10,Data1!$CX$51:$CX$119</definedName>
+    <definedName name="A4097608K_Data">Data1!$CX$51:$CX$119</definedName>
+    <definedName name="A4097608K_Latest">Data1!$CX$119</definedName>
+    <definedName name="A4097609L">Data1!$HN$1:$HN$10,Data1!$HN$117:$HN$119</definedName>
+    <definedName name="A4097609L_Data">Data1!$HN$117:$HN$119</definedName>
+    <definedName name="A4097609L_Latest">Data1!$HN$119</definedName>
+    <definedName name="A4097610W">Data2!$AF$1:$AF$10,Data2!$AF$118:$AF$119</definedName>
+    <definedName name="A4097610W_Data">Data2!$AF$118:$AF$119</definedName>
+    <definedName name="A4097610W_Latest">Data2!$AF$119</definedName>
+    <definedName name="A4097624K">Data1!$E$1:$E$10,Data1!$E$47:$E$119</definedName>
+    <definedName name="A4097624K_Data">Data1!$E$47:$E$119</definedName>
+    <definedName name="A4097624K_Latest">Data1!$E$119</definedName>
+    <definedName name="A4097625L">Data1!$DU$1:$DU$10,Data1!$DU$48:$DU$119</definedName>
+    <definedName name="A4097625L_Data">Data1!$DU$48:$DU$119</definedName>
+    <definedName name="A4097625L_Latest">Data1!$DU$119</definedName>
+    <definedName name="A4097626R">Data1!$BM$1:$BM$10,Data1!$BM$51:$BM$119</definedName>
+    <definedName name="A4097626R_Data">Data1!$BM$51:$BM$119</definedName>
+    <definedName name="A4097626R_Latest">Data1!$BM$119</definedName>
+    <definedName name="A4097627T">Data1!$GC$1:$GC$10,Data1!$GC$117:$GC$119</definedName>
+    <definedName name="A4097627T_Data">Data1!$GC$117:$GC$119</definedName>
+    <definedName name="A4097627T_Latest">Data1!$GC$119</definedName>
+    <definedName name="A4097628V">Data1!$IK$1:$IK$10,Data1!$IK$118:$IK$119</definedName>
+    <definedName name="A4097628V_Data">Data1!$IK$118:$IK$119</definedName>
+    <definedName name="A4097628V_Latest">Data1!$IK$119</definedName>
+    <definedName name="A4098056T">Data1!$AM$1:$AM$10,Data1!$AM$47:$AM$119</definedName>
+    <definedName name="A4098056T_Data">Data1!$AM$47:$AM$119</definedName>
+    <definedName name="A4098056T_Latest">Data1!$AM$119</definedName>
+    <definedName name="A4098057V">Data1!$FC$1:$FC$10,Data1!$FC$48:$FC$119</definedName>
+    <definedName name="A4098057V_Data">Data1!$FC$48:$FC$119</definedName>
+    <definedName name="A4098057V_Latest">Data1!$FC$119</definedName>
+    <definedName name="A4098058W">Data1!$CU$1:$CU$10,Data1!$CU$51:$CU$119</definedName>
+    <definedName name="A4098058W_Data">Data1!$CU$51:$CU$119</definedName>
+    <definedName name="A4098058W_Latest">Data1!$CU$119</definedName>
+    <definedName name="A4098059X">Data1!$HK$1:$HK$10,Data1!$HK$117:$HK$119</definedName>
+    <definedName name="A4098059X_Data">Data1!$HK$117:$HK$119</definedName>
+    <definedName name="A4098059X_Latest">Data1!$HK$119</definedName>
+    <definedName name="A4098060J">Data2!$AC$1:$AC$10,Data2!$AC$118:$AC$119</definedName>
+    <definedName name="A4098060J_Data">Data2!$AC$118:$AC$119</definedName>
+    <definedName name="A4098060J_Latest">Data2!$AC$119</definedName>
+    <definedName name="A4099880J">Data1!$BD$1:$BD$10,Data1!$BD$47:$BD$119</definedName>
+    <definedName name="A4099880J_Data">Data1!$BD$47:$BD$119</definedName>
+    <definedName name="A4099880J_Latest">Data1!$BD$119</definedName>
+    <definedName name="A4099881K">Data1!$FT$1:$FT$10,Data1!$FT$48:$FT$119</definedName>
+    <definedName name="A4099881K_Data">Data1!$FT$48:$FT$119</definedName>
+    <definedName name="A4099881K_Latest">Data1!$FT$119</definedName>
+    <definedName name="A4099882L">Data1!$DL$1:$DL$10,Data1!$DL$51:$DL$119</definedName>
+    <definedName name="A4099882L_Data">Data1!$DL$51:$DL$119</definedName>
+    <definedName name="A4099882L_Latest">Data1!$DL$119</definedName>
+    <definedName name="A4099883R">Data1!$IB$1:$IB$10,Data1!$IB$117:$IB$119</definedName>
+    <definedName name="A4099883R_Data">Data1!$IB$117:$IB$119</definedName>
+    <definedName name="A4099883R_Latest">Data1!$IB$119</definedName>
+    <definedName name="A4099884T">Data2!$AT$1:$AT$10,Data2!$AT$118:$AT$119</definedName>
+    <definedName name="A4099884T_Data">Data2!$AT$118:$AT$119</definedName>
+    <definedName name="A4099884T_Latest">Data2!$AT$119</definedName>
+    <definedName name="A4100528C">Data1!$D$1:$D$10,Data1!$D$47:$D$119</definedName>
+    <definedName name="A4100528C_Data">Data1!$D$47:$D$119</definedName>
+    <definedName name="A4100528C_Latest">Data1!$D$119</definedName>
+    <definedName name="A4100529F">Data1!$DT$1:$DT$10,Data1!$DT$48:$DT$119</definedName>
+    <definedName name="A4100529F_Data">Data1!$DT$48:$DT$119</definedName>
+    <definedName name="A4100529F_Latest">Data1!$DT$119</definedName>
+    <definedName name="A4100530R">Data1!$BL$1:$BL$10,Data1!$BL$51:$BL$119</definedName>
+    <definedName name="A4100530R_Data">Data1!$BL$51:$BL$119</definedName>
+    <definedName name="A4100530R_Latest">Data1!$BL$119</definedName>
+    <definedName name="A4100531T">Data1!$GB$1:$GB$10,Data1!$GB$117:$GB$119</definedName>
+    <definedName name="A4100531T_Data">Data1!$GB$117:$GB$119</definedName>
+    <definedName name="A4100531T_Latest">Data1!$GB$119</definedName>
+    <definedName name="A4100532V">Data1!$IJ$1:$IJ$10,Data1!$IJ$118:$IJ$119</definedName>
+    <definedName name="A4100532V_Data">Data1!$IJ$118:$IJ$119</definedName>
+    <definedName name="A4100532V_Latest">Data1!$IJ$119</definedName>
+    <definedName name="A4100966C">Data1!$Y$1:$Y$10,Data1!$Y$47:$Y$119</definedName>
+    <definedName name="A4100966C_Data">Data1!$Y$47:$Y$119</definedName>
+    <definedName name="A4100966C_Latest">Data1!$Y$119</definedName>
+    <definedName name="A4100967F">Data1!$EO$1:$EO$10,Data1!$EO$48:$EO$119</definedName>
+    <definedName name="A4100967F_Data">Data1!$EO$48:$EO$119</definedName>
+    <definedName name="A4100967F_Latest">Data1!$EO$119</definedName>
+    <definedName name="A4100968J">Data1!$CG$1:$CG$10,Data1!$CG$51:$CG$119</definedName>
+    <definedName name="A4100968J_Data">Data1!$CG$51:$CG$119</definedName>
+    <definedName name="A4100968J_Latest">Data1!$CG$119</definedName>
+    <definedName name="A4100969K">Data1!$GW$1:$GW$10,Data1!$GW$117:$GW$119</definedName>
+    <definedName name="A4100969K_Data">Data1!$GW$117:$GW$119</definedName>
+    <definedName name="A4100969K_Latest">Data1!$GW$119</definedName>
+    <definedName name="A4100970V">Data2!$O$1:$O$10,Data2!$O$118:$O$119</definedName>
+    <definedName name="A4100970V_Data">Data2!$O$118:$O$119</definedName>
+    <definedName name="A4100970V_Latest">Data2!$O$119</definedName>
+    <definedName name="A4102184W">Data1!$BA$1:$BA$10,Data1!$BA$47:$BA$119</definedName>
+    <definedName name="A4102184W_Data">Data1!$BA$47:$BA$119</definedName>
+    <definedName name="A4102184W_Latest">Data1!$BA$119</definedName>
+    <definedName name="A4102185X">Data1!$FQ$1:$FQ$10,Data1!$FQ$48:$FQ$119</definedName>
+    <definedName name="A4102185X_Data">Data1!$FQ$48:$FQ$119</definedName>
+    <definedName name="A4102185X_Latest">Data1!$FQ$119</definedName>
+    <definedName name="A4102186A">Data1!$DI$1:$DI$10,Data1!$DI$51:$DI$119</definedName>
+    <definedName name="A4102186A_Data">Data1!$DI$51:$DI$119</definedName>
+    <definedName name="A4102186A_Latest">Data1!$DI$119</definedName>
+    <definedName name="A4102187C">Data1!$HY$1:$HY$10,Data1!$HY$117:$HY$119</definedName>
+    <definedName name="A4102187C_Data">Data1!$HY$117:$HY$119</definedName>
+    <definedName name="A4102187C_Latest">Data1!$HY$119</definedName>
+    <definedName name="A4102188F">Data2!$AQ$1:$AQ$10,Data2!$AQ$118:$AQ$119</definedName>
+    <definedName name="A4102188F_Data">Data2!$AQ$118:$AQ$119</definedName>
+    <definedName name="A4102188F_Latest">Data2!$AQ$119</definedName>
+    <definedName name="A4102994X">Data1!$U$1:$U$10,Data1!$U$47:$U$119</definedName>
+    <definedName name="A4102994X_Data">Data1!$U$47:$U$119</definedName>
+    <definedName name="A4102994X_Latest">Data1!$U$119</definedName>
+    <definedName name="A4102995A">Data1!$EK$1:$EK$10,Data1!$EK$48:$EK$119</definedName>
+    <definedName name="A4102995A_Data">Data1!$EK$48:$EK$119</definedName>
+    <definedName name="A4102995A_Latest">Data1!$EK$119</definedName>
+    <definedName name="A4102996C">Data1!$CC$1:$CC$10,Data1!$CC$51:$CC$119</definedName>
+    <definedName name="A4102996C_Data">Data1!$CC$51:$CC$119</definedName>
+    <definedName name="A4102996C_Latest">Data1!$CC$119</definedName>
+    <definedName name="A4102997F">Data1!$GS$1:$GS$10,Data1!$GS$117:$GS$119</definedName>
+    <definedName name="A4102997F_Data">Data1!$GS$117:$GS$119</definedName>
+    <definedName name="A4102997F_Latest">Data1!$GS$119</definedName>
+    <definedName name="A4102998J">Data2!$K$1:$K$10,Data2!$K$118:$K$119</definedName>
+    <definedName name="A4102998J_Data">Data2!$K$118:$K$119</definedName>
+    <definedName name="A4102998J_Latest">Data2!$K$119</definedName>
+    <definedName name="A4103552J">Data1!$BI$1:$BI$10,Data1!$BI$47:$BI$119</definedName>
+    <definedName name="A4103552J_Data">Data1!$BI$47:$BI$119</definedName>
+    <definedName name="A4103552J_Latest">Data1!$BI$119</definedName>
+    <definedName name="A4103553K">Data1!$FY$1:$FY$10,Data1!$FY$48:$FY$119</definedName>
+    <definedName name="A4103553K_Data">Data1!$FY$48:$FY$119</definedName>
+    <definedName name="A4103553K_Latest">Data1!$FY$119</definedName>
+    <definedName name="A4103554L">Data1!$DQ$1:$DQ$10,Data1!$DQ$51:$DQ$119</definedName>
+    <definedName name="A4103554L_Data">Data1!$DQ$51:$DQ$119</definedName>
+    <definedName name="A4103554L_Latest">Data1!$DQ$119</definedName>
+    <definedName name="A4103555R">Data1!$IG$1:$IG$10,Data1!$IG$117:$IG$119</definedName>
+    <definedName name="A4103555R_Data">Data1!$IG$117:$IG$119</definedName>
+    <definedName name="A4103555R_Latest">Data1!$IG$119</definedName>
+    <definedName name="A4103556T">Data2!$AY$1:$AY$10,Data2!$AY$118:$AY$119</definedName>
+    <definedName name="A4103556T_Data">Data2!$AY$118:$AY$119</definedName>
+    <definedName name="A4103556T_Latest">Data2!$AY$119</definedName>
+    <definedName name="A4103768V">Data1!$J$1:$J$10,Data1!$J$47:$J$119</definedName>
+    <definedName name="A4103768V_Data">Data1!$J$47:$J$119</definedName>
+    <definedName name="A4103768V_Latest">Data1!$J$119</definedName>
+    <definedName name="A4103769W">Data1!$DZ$1:$DZ$10,Data1!$DZ$48:$DZ$119</definedName>
+    <definedName name="A4103769W_Data">Data1!$DZ$48:$DZ$119</definedName>
+    <definedName name="A4103769W_Latest">Data1!$DZ$119</definedName>
+    <definedName name="A4103770F">Data1!$BR$1:$BR$10,Data1!$BR$51:$BR$119</definedName>
+    <definedName name="A4103770F_Data">Data1!$BR$51:$BR$119</definedName>
+    <definedName name="A4103770F_Latest">Data1!$BR$119</definedName>
+    <definedName name="A4103771J">Data1!$GH$1:$GH$10,Data1!$GH$117:$GH$119</definedName>
+    <definedName name="A4103771J_Data">Data1!$GH$117:$GH$119</definedName>
+    <definedName name="A4103771J_Latest">Data1!$GH$119</definedName>
+    <definedName name="A4103772K">Data1!$IP$1:$IP$10,Data1!$IP$118:$IP$119</definedName>
+    <definedName name="A4103772K_Data">Data1!$IP$118:$IP$119</definedName>
+    <definedName name="A4103772K_Latest">Data1!$IP$119</definedName>
+    <definedName name="A4104722F">Data1!$P$1:$P$10,Data1!$P$47:$P$119</definedName>
+    <definedName name="A4104722F_Data">Data1!$P$47:$P$119</definedName>
+    <definedName name="A4104722F_Latest">Data1!$P$119</definedName>
+    <definedName name="A4104723J">Data1!$EF$1:$EF$10,Data1!$EF$48:$EF$119</definedName>
+    <definedName name="A4104723J_Data">Data1!$EF$48:$EF$119</definedName>
+    <definedName name="A4104723J_Latest">Data1!$EF$119</definedName>
+    <definedName name="A4104724K">Data1!$BX$1:$BX$10,Data1!$BX$51:$BX$119</definedName>
+    <definedName name="A4104724K_Data">Data1!$BX$51:$BX$119</definedName>
+    <definedName name="A4104724K_Latest">Data1!$BX$119</definedName>
+    <definedName name="A4104725L">Data1!$GN$1:$GN$10,Data1!$GN$117:$GN$119</definedName>
+    <definedName name="A4104725L_Data">Data1!$GN$117:$GN$119</definedName>
+    <definedName name="A4104725L_Latest">Data1!$GN$119</definedName>
+    <definedName name="A4104726R">Data2!$F$1:$F$10,Data2!$F$118:$F$119</definedName>
+    <definedName name="A4104726R_Data">Data2!$F$118:$F$119</definedName>
+    <definedName name="A4104726R_Latest">Data2!$F$119</definedName>
+    <definedName name="A4105748W">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$119</definedName>
+    <definedName name="A4105748W_Data">Data1!$Z$11:$Z$119</definedName>
+    <definedName name="A4105748W_Latest">Data1!$Z$119</definedName>
+    <definedName name="A4105749X">Data1!$EP$1:$EP$10,Data1!$EP$12:$EP$119</definedName>
+    <definedName name="A4105749X_Data">Data1!$EP$12:$EP$119</definedName>
+    <definedName name="A4105749X_Latest">Data1!$EP$119</definedName>
+    <definedName name="A4105750J">Data1!$CH$1:$CH$10,Data1!$CH$15:$CH$119</definedName>
+    <definedName name="A4105750J_Data">Data1!$CH$15:$CH$119</definedName>
+    <definedName name="A4105750J_Latest">Data1!$CH$119</definedName>
+    <definedName name="A4105751K">Data1!$GX$1:$GX$10,Data1!$GX$117:$GX$119</definedName>
+    <definedName name="A4105751K_Data">Data1!$GX$117:$GX$119</definedName>
+    <definedName name="A4105751K_Latest">Data1!$GX$119</definedName>
+    <definedName name="A4105752L">Data2!$P$1:$P$10,Data2!$P$118:$P$119</definedName>
+    <definedName name="A4105752L_Data">Data2!$P$118:$P$119</definedName>
+    <definedName name="A4105752L_Latest">Data2!$P$119</definedName>
+    <definedName name="A4105850T">Data1!$AT$1:$AT$10,Data1!$AT$47:$AT$119</definedName>
+    <definedName name="A4105850T_Data">Data1!$AT$47:$AT$119</definedName>
+    <definedName name="A4105850T_Latest">Data1!$AT$119</definedName>
+    <definedName name="A4105851V">Data1!$FJ$1:$FJ$10,Data1!$FJ$48:$FJ$119</definedName>
+    <definedName name="A4105851V_Data">Data1!$FJ$48:$FJ$119</definedName>
+    <definedName name="A4105851V_Latest">Data1!$FJ$119</definedName>
+    <definedName name="A4105852W">Data1!$DB$1:$DB$10,Data1!$DB$51:$DB$119</definedName>
+    <definedName name="A4105852W_Data">Data1!$DB$51:$DB$119</definedName>
+    <definedName name="A4105852W_Latest">Data1!$DB$119</definedName>
+    <definedName name="A4105853X">Data1!$HR$1:$HR$10,Data1!$HR$117:$HR$119</definedName>
+    <definedName name="A4105853X_Data">Data1!$HR$117:$HR$119</definedName>
+    <definedName name="A4105853X_Latest">Data1!$HR$119</definedName>
+    <definedName name="A4105854A">Data2!$AJ$1:$AJ$10,Data2!$AJ$118:$AJ$119</definedName>
+    <definedName name="A4105854A_Data">Data2!$AJ$118:$AJ$119</definedName>
+    <definedName name="A4105854A_Latest">Data2!$AJ$119</definedName>
+    <definedName name="A4106552L">Data1!$AK$1:$AK$10,Data1!$AK$47:$AK$119</definedName>
+    <definedName name="A4106552L_Data">Data1!$AK$47:$AK$119</definedName>
+    <definedName name="A4106552L_Latest">Data1!$AK$119</definedName>
+    <definedName name="A4106553R">Data1!$FA$1:$FA$10,Data1!$FA$48:$FA$119</definedName>
+    <definedName name="A4106553R_Data">Data1!$FA$48:$FA$119</definedName>
+    <definedName name="A4106553R_Latest">Data1!$FA$119</definedName>
+    <definedName name="A4106554T">Data1!$CS$1:$CS$10,Data1!$CS$51:$CS$119</definedName>
+    <definedName name="A4106554T_Data">Data1!$CS$51:$CS$119</definedName>
+    <definedName name="A4106554T_Latest">Data1!$CS$119</definedName>
+    <definedName name="A4106555V">Data1!$HI$1:$HI$10,Data1!$HI$117:$HI$119</definedName>
+    <definedName name="A4106555V_Data">Data1!$HI$117:$HI$119</definedName>
+    <definedName name="A4106555V_Latest">Data1!$HI$119</definedName>
+    <definedName name="A4106556W">Data2!$AA$1:$AA$10,Data2!$AA$118:$AA$119</definedName>
+    <definedName name="A4106556W_Data">Data2!$AA$118:$AA$119</definedName>
+    <definedName name="A4106556W_Latest">Data2!$AA$119</definedName>
+    <definedName name="A4106978W">Data1!$F$1:$F$10,Data1!$F$47:$F$119</definedName>
+    <definedName name="A4106978W_Data">Data1!$F$47:$F$119</definedName>
+    <definedName name="A4106978W_Latest">Data1!$F$119</definedName>
+    <definedName name="A4106979X">Data1!$DV$1:$DV$10,Data1!$DV$48:$DV$119</definedName>
+    <definedName name="A4106979X_Data">Data1!$DV$48:$DV$119</definedName>
+    <definedName name="A4106979X_Latest">Data1!$DV$119</definedName>
+    <definedName name="A4106980J">Data1!$BN$1:$BN$10,Data1!$BN$51:$BN$119</definedName>
+    <definedName name="A4106980J_Data">Data1!$BN$51:$BN$119</definedName>
+    <definedName name="A4106980J_Latest">Data1!$BN$119</definedName>
+    <definedName name="A4106981K">Data1!$GD$1:$GD$10,Data1!$GD$117:$GD$119</definedName>
+    <definedName name="A4106981K_Data">Data1!$GD$117:$GD$119</definedName>
+    <definedName name="A4106981K_Latest">Data1!$GD$119</definedName>
+    <definedName name="A4106982L">Data1!$IL$1:$IL$10,Data1!$IL$118:$IL$119</definedName>
+    <definedName name="A4106982L_Data">Data1!$IL$118:$IL$119</definedName>
+    <definedName name="A4106982L_Latest">Data1!$IL$119</definedName>
+    <definedName name="A4107638V">Data1!$W$1:$W$10,Data1!$W$47:$W$119</definedName>
+    <definedName name="A4107638V_Data">Data1!$W$47:$W$119</definedName>
+    <definedName name="A4107638V_Latest">Data1!$W$119</definedName>
+    <definedName name="A4107639W">Data1!$EM$1:$EM$10,Data1!$EM$48:$EM$119</definedName>
+    <definedName name="A4107639W_Data">Data1!$EM$48:$EM$119</definedName>
+    <definedName name="A4107639W_Latest">Data1!$EM$119</definedName>
+    <definedName name="A4107640F">Data1!$CE$1:$CE$10,Data1!$CE$51:$CE$119</definedName>
+    <definedName name="A4107640F_Data">Data1!$CE$51:$CE$119</definedName>
+    <definedName name="A4107640F_Latest">Data1!$CE$119</definedName>
+    <definedName name="A4107641J">Data1!$GU$1:$GU$10,Data1!$GU$117:$GU$119</definedName>
+    <definedName name="A4107641J_Data">Data1!$GU$117:$GU$119</definedName>
+    <definedName name="A4107641J_Latest">Data1!$GU$119</definedName>
+    <definedName name="A4107642K">Data2!$M$1:$M$10,Data2!$M$118:$M$119</definedName>
+    <definedName name="A4107642K_Data">Data2!$M$118:$M$119</definedName>
+    <definedName name="A4107642K_Latest">Data2!$M$119</definedName>
+    <definedName name="A4107788A">Data1!$BC$1:$BC$10,Data1!$BC$47:$BC$119</definedName>
+    <definedName name="A4107788A_Data">Data1!$BC$47:$BC$119</definedName>
+    <definedName name="A4107788A_Latest">Data1!$BC$119</definedName>
+    <definedName name="A4107789C">Data1!$FS$1:$FS$10,Data1!$FS$48:$FS$119</definedName>
+    <definedName name="A4107789C_Data">Data1!$FS$48:$FS$119</definedName>
+    <definedName name="A4107789C_Latest">Data1!$FS$119</definedName>
+    <definedName name="A4107790L">Data1!$DK$1:$DK$10,Data1!$DK$51:$DK$119</definedName>
+    <definedName name="A4107790L_Data">Data1!$DK$51:$DK$119</definedName>
+    <definedName name="A4107790L_Latest">Data1!$DK$119</definedName>
+    <definedName name="A4107791R">Data1!$IA$1:$IA$10,Data1!$IA$117:$IA$119</definedName>
+    <definedName name="A4107791R_Data">Data1!$IA$117:$IA$119</definedName>
+    <definedName name="A4107791R_Latest">Data1!$IA$119</definedName>
+    <definedName name="A4107792T">Data2!$AS$1:$AS$10,Data2!$AS$118:$AS$119</definedName>
+    <definedName name="A4107792T_Data">Data2!$AS$118:$AS$119</definedName>
+    <definedName name="A4107792T_Latest">Data2!$AS$119</definedName>
+    <definedName name="A4108856K">Data1!$C$1:$C$10,Data1!$C$47:$C$119</definedName>
+    <definedName name="A4108856K_Data">Data1!$C$47:$C$119</definedName>
+    <definedName name="A4108856K_Latest">Data1!$C$119</definedName>
+    <definedName name="A4108857L">Data1!$DS$1:$DS$10,Data1!$DS$48:$DS$119</definedName>
+    <definedName name="A4108857L_Data">Data1!$DS$48:$DS$119</definedName>
+    <definedName name="A4108857L_Latest">Data1!$DS$119</definedName>
+    <definedName name="A4108858R">Data1!$BK$1:$BK$10,Data1!$BK$51:$BK$119</definedName>
+    <definedName name="A4108858R_Data">Data1!$BK$51:$BK$119</definedName>
+    <definedName name="A4108858R_Latest">Data1!$BK$119</definedName>
+    <definedName name="A4108859T">Data1!$GA$1:$GA$10,Data1!$GA$117:$GA$119</definedName>
+    <definedName name="A4108859T_Data">Data1!$GA$117:$GA$119</definedName>
+    <definedName name="A4108859T_Latest">Data1!$GA$119</definedName>
+    <definedName name="A4108860A">Data1!$II$1:$II$10,Data1!$II$118:$II$119</definedName>
+    <definedName name="A4108860A_Data">Data1!$II$118:$II$119</definedName>
+    <definedName name="A4108860A_Latest">Data1!$II$119</definedName>
+    <definedName name="A4109594R">Data1!$AE$1:$AE$10,Data1!$AE$47:$AE$119</definedName>
+    <definedName name="A4109594R_Data">Data1!$AE$47:$AE$119</definedName>
+    <definedName name="A4109594R_Latest">Data1!$AE$119</definedName>
+    <definedName name="A4109595T">Data1!$EU$1:$EU$10,Data1!$EU$48:$EU$119</definedName>
+    <definedName name="A4109595T_Data">Data1!$EU$48:$EU$119</definedName>
+    <definedName name="A4109595T_Latest">Data1!$EU$119</definedName>
+    <definedName name="A4109596V">Data1!$CM$1:$CM$10,Data1!$CM$51:$CM$119</definedName>
+    <definedName name="A4109596V_Data">Data1!$CM$51:$CM$119</definedName>
+    <definedName name="A4109596V_Latest">Data1!$CM$119</definedName>
+    <definedName name="A4109597W">Data1!$HC$1:$HC$10,Data1!$HC$117:$HC$119</definedName>
+    <definedName name="A4109597W_Data">Data1!$HC$117:$HC$119</definedName>
+    <definedName name="A4109597W_Latest">Data1!$HC$119</definedName>
+    <definedName name="A4109598X">Data2!$U$1:$U$10,Data2!$U$118:$U$119</definedName>
+    <definedName name="A4109598X_Data">Data2!$U$118:$U$119</definedName>
+    <definedName name="A4109598X_Latest">Data2!$U$119</definedName>
+    <definedName name="A4110278K">Data1!$AV$1:$AV$10,Data1!$AV$47:$AV$119</definedName>
+    <definedName name="A4110278K_Data">Data1!$AV$47:$AV$119</definedName>
+    <definedName name="A4110278K_Latest">Data1!$AV$119</definedName>
+    <definedName name="A4110279L">Data1!$FL$1:$FL$10,Data1!$FL$48:$FL$119</definedName>
+    <definedName name="A4110279L_Data">Data1!$FL$48:$FL$119</definedName>
+    <definedName name="A4110279L_Latest">Data1!$FL$119</definedName>
+    <definedName name="A4110280W">Data1!$DD$1:$DD$10,Data1!$DD$51:$DD$119</definedName>
+    <definedName name="A4110280W_Data">Data1!$DD$51:$DD$119</definedName>
+    <definedName name="A4110280W_Latest">Data1!$DD$119</definedName>
+    <definedName name="A4110281X">Data1!$HT$1:$HT$10,Data1!$HT$117:$HT$119</definedName>
+    <definedName name="A4110281X_Data">Data1!$HT$117:$HT$119</definedName>
+    <definedName name="A4110281X_Latest">Data1!$HT$119</definedName>
+    <definedName name="A4110282A">Data2!$AL$1:$AL$10,Data2!$AL$118:$AL$119</definedName>
+    <definedName name="A4110282A_Data">Data2!$AL$118:$AL$119</definedName>
+    <definedName name="A4110282A_Latest">Data2!$AL$119</definedName>
+    <definedName name="A4111982J">Data1!$T$1:$T$10,Data1!$T$47:$T$119</definedName>
+    <definedName name="A4111982J_Data">Data1!$T$47:$T$119</definedName>
+    <definedName name="A4111982J_Latest">Data1!$T$119</definedName>
+    <definedName name="A4111983K">Data1!$EJ$1:$EJ$10,Data1!$EJ$48:$EJ$119</definedName>
+    <definedName name="A4111983K_Data">Data1!$EJ$48:$EJ$119</definedName>
+    <definedName name="A4111983K_Latest">Data1!$EJ$119</definedName>
+    <definedName name="A4111984L">Data1!$CB$1:$CB$10,Data1!$CB$51:$CB$119</definedName>
+    <definedName name="A4111984L_Data">Data1!$CB$51:$CB$119</definedName>
+    <definedName name="A4111984L_Latest">Data1!$CB$119</definedName>
+    <definedName name="A4111985R">Data1!$GR$1:$GR$10,Data1!$GR$117:$GR$119</definedName>
+    <definedName name="A4111985R_Data">Data1!$GR$117:$GR$119</definedName>
+    <definedName name="A4111985R_Latest">Data1!$GR$119</definedName>
+    <definedName name="A4111986T">Data2!$J$1:$J$10,Data2!$J$118:$J$119</definedName>
+    <definedName name="A4111986T_Data">Data2!$J$118:$J$119</definedName>
+    <definedName name="A4111986T_Latest">Data2!$J$119</definedName>
+    <definedName name="A4112000C">Data1!$AF$1:$AF$10,Data1!$AF$47:$AF$119</definedName>
+    <definedName name="A4112000C_Data">Data1!$AF$47:$AF$119</definedName>
+    <definedName name="A4112000C_Latest">Data1!$AF$119</definedName>
+    <definedName name="A4112001F">Data1!$EV$1:$EV$10,Data1!$EV$48:$EV$119</definedName>
+    <definedName name="A4112001F_Data">Data1!$EV$48:$EV$119</definedName>
+    <definedName name="A4112001F_Latest">Data1!$EV$119</definedName>
+    <definedName name="A4112002J">Data1!$CN$1:$CN$10,Data1!$CN$51:$CN$119</definedName>
+    <definedName name="A4112002J_Data">Data1!$CN$51:$CN$119</definedName>
+    <definedName name="A4112002J_Latest">Data1!$CN$119</definedName>
+    <definedName name="A4112003K">Data1!$HD$1:$HD$10,Data1!$HD$117:$HD$119</definedName>
+    <definedName name="A4112003K_Data">Data1!$HD$117:$HD$119</definedName>
+    <definedName name="A4112003K_Latest">Data1!$HD$119</definedName>
+    <definedName name="A4112004L">Data2!$V$1:$V$10,Data2!$V$118:$V$119</definedName>
+    <definedName name="A4112004L_Data">Data2!$V$118:$V$119</definedName>
+    <definedName name="A4112004L_Latest">Data2!$V$119</definedName>
+    <definedName name="A4112378F">Data1!$AG$1:$AG$10,Data1!$AG$47:$AG$119</definedName>
+    <definedName name="A4112378F_Data">Data1!$AG$47:$AG$119</definedName>
+    <definedName name="A4112378F_Latest">Data1!$AG$119</definedName>
+    <definedName name="A4112379J">Data1!$EW$1:$EW$10,Data1!$EW$48:$EW$119</definedName>
+    <definedName name="A4112379J_Data">Data1!$EW$48:$EW$119</definedName>
+    <definedName name="A4112379J_Latest">Data1!$EW$119</definedName>
+    <definedName name="A4112380T">Data1!$CO$1:$CO$10,Data1!$CO$51:$CO$119</definedName>
+    <definedName name="A4112380T_Data">Data1!$CO$51:$CO$119</definedName>
+    <definedName name="A4112380T_Latest">Data1!$CO$119</definedName>
+    <definedName name="A4112381V">Data1!$HE$1:$HE$10,Data1!$HE$117:$HE$119</definedName>
+    <definedName name="A4112381V_Data">Data1!$HE$117:$HE$119</definedName>
+    <definedName name="A4112381V_Latest">Data1!$HE$119</definedName>
+    <definedName name="A4112382W">Data2!$W$1:$W$10,Data2!$W$118:$W$119</definedName>
+    <definedName name="A4112382W_Data">Data2!$W$118:$W$119</definedName>
+    <definedName name="A4112382W_Latest">Data2!$W$119</definedName>
+    <definedName name="A4113494J">Data1!$V$1:$V$10,Data1!$V$47:$V$119</definedName>
+    <definedName name="A4113494J_Data">Data1!$V$47:$V$119</definedName>
+    <definedName name="A4113494J_Latest">Data1!$V$119</definedName>
+    <definedName name="A4113495K">Data1!$EL$1:$EL$10,Data1!$EL$48:$EL$119</definedName>
+    <definedName name="A4113495K_Data">Data1!$EL$48:$EL$119</definedName>
+    <definedName name="A4113495K_Latest">Data1!$EL$119</definedName>
+    <definedName name="A4113496L">Data1!$CD$1:$CD$10,Data1!$CD$51:$CD$119</definedName>
+    <definedName name="A4113496L_Data">Data1!$CD$51:$CD$119</definedName>
+    <definedName name="A4113496L_Latest">Data1!$CD$119</definedName>
+    <definedName name="A4113497R">Data1!$GT$1:$GT$10,Data1!$GT$117:$GT$119</definedName>
+    <definedName name="A4113497R_Data">Data1!$GT$117:$GT$119</definedName>
+    <definedName name="A4113497R_Latest">Data1!$GT$119</definedName>
+    <definedName name="A4113498T">Data2!$L$1:$L$10,Data2!$L$118:$L$119</definedName>
+    <definedName name="A4113498T_Data">Data2!$L$118:$L$119</definedName>
+    <definedName name="A4113498T_Latest">Data2!$L$119</definedName>
+    <definedName name="A4113590J">Data1!$AJ$1:$AJ$10,Data1!$AJ$47:$AJ$119</definedName>
+    <definedName name="A4113590J_Data">Data1!$AJ$47:$AJ$119</definedName>
+    <definedName name="A4113590J_Latest">Data1!$AJ$119</definedName>
+    <definedName name="A4113591K">Data1!$EZ$1:$EZ$10,Data1!$EZ$48:$EZ$119</definedName>
+    <definedName name="A4113591K_Data">Data1!$EZ$48:$EZ$119</definedName>
+    <definedName name="A4113591K_Latest">Data1!$EZ$119</definedName>
+    <definedName name="A4113592L">Data1!$CR$1:$CR$10,Data1!$CR$51:$CR$119</definedName>
+    <definedName name="A4113592L_Data">Data1!$CR$51:$CR$119</definedName>
+    <definedName name="A4113592L_Latest">Data1!$CR$119</definedName>
+    <definedName name="A4113593R">Data1!$HH$1:$HH$10,Data1!$HH$117:$HH$119</definedName>
+    <definedName name="A4113593R_Data">Data1!$HH$117:$HH$119</definedName>
+    <definedName name="A4113593R_Latest">Data1!$HH$119</definedName>
+    <definedName name="A4113594T">Data2!$Z$1:$Z$10,Data2!$Z$118:$Z$119</definedName>
+    <definedName name="A4113594T_Data">Data2!$Z$118:$Z$119</definedName>
+    <definedName name="A4113594T_Latest">Data2!$Z$119</definedName>
+    <definedName name="A4114286J">Data1!$BG$1:$BG$10,Data1!$BG$47:$BG$119</definedName>
+    <definedName name="A4114286J_Data">Data1!$BG$47:$BG$119</definedName>
+    <definedName name="A4114286J_Latest">Data1!$BG$119</definedName>
+    <definedName name="A4114287K">Data1!$FW$1:$FW$10,Data1!$FW$48:$FW$119</definedName>
+    <definedName name="A4114287K_Data">Data1!$FW$48:$FW$119</definedName>
+    <definedName name="A4114287K_Latest">Data1!$FW$119</definedName>
+    <definedName name="A4114288L">Data1!$DO$1:$DO$10,Data1!$DO$51:$DO$119</definedName>
+    <definedName name="A4114288L_Data">Data1!$DO$51:$DO$119</definedName>
+    <definedName name="A4114288L_Latest">Data1!$DO$119</definedName>
+    <definedName name="A4114289R">Data1!$IE$1:$IE$10,Data1!$IE$117:$IE$119</definedName>
+    <definedName name="A4114289R_Data">Data1!$IE$117:$IE$119</definedName>
+    <definedName name="A4114289R_Latest">Data1!$IE$119</definedName>
+    <definedName name="A4114290X">Data2!$AW$1:$AW$10,Data2!$AW$118:$AW$119</definedName>
+    <definedName name="A4114290X_Data">Data2!$AW$118:$AW$119</definedName>
+    <definedName name="A4114290X_Latest">Data2!$AW$119</definedName>
+    <definedName name="A4114808F">Data1!$AL$1:$AL$10,Data1!$AL$11:$AL$119</definedName>
+    <definedName name="A4114808F_Data">Data1!$AL$11:$AL$119</definedName>
+    <definedName name="A4114808F_Latest">Data1!$AL$119</definedName>
+    <definedName name="A4114809J">Data1!$FB$1:$FB$10,Data1!$FB$12:$FB$119</definedName>
+    <definedName name="A4114809J_Data">Data1!$FB$12:$FB$119</definedName>
+    <definedName name="A4114809J_Latest">Data1!$FB$119</definedName>
+    <definedName name="A4114810T">Data1!$CT$1:$CT$10,Data1!$CT$15:$CT$119</definedName>
+    <definedName name="A4114810T_Data">Data1!$CT$15:$CT$119</definedName>
+    <definedName name="A4114810T_Latest">Data1!$CT$119</definedName>
+    <definedName name="A4114811V">Data1!$HJ$1:$HJ$10,Data1!$HJ$117:$HJ$119</definedName>
+    <definedName name="A4114811V_Data">Data1!$HJ$117:$HJ$119</definedName>
+    <definedName name="A4114811V_Latest">Data1!$HJ$119</definedName>
+    <definedName name="A4114812W">Data2!$AB$1:$AB$10,Data2!$AB$118:$AB$119</definedName>
+    <definedName name="A4114812W_Data">Data2!$AB$118:$AB$119</definedName>
+    <definedName name="A4114812W_Latest">Data2!$AB$119</definedName>
+    <definedName name="A4114952X">Data1!$BH$1:$BH$10,Data1!$BH$47:$BH$119</definedName>
+    <definedName name="A4114952X_Data">Data1!$BH$47:$BH$119</definedName>
+    <definedName name="A4114952X_Latest">Data1!$BH$119</definedName>
+    <definedName name="A4114953A">Data1!$FX$1:$FX$10,Data1!$FX$48:$FX$119</definedName>
+    <definedName name="A4114953A_Data">Data1!$FX$48:$FX$119</definedName>
+    <definedName name="A4114953A_Latest">Data1!$FX$119</definedName>
+    <definedName name="A4114954C">Data1!$DP$1:$DP$10,Data1!$DP$51:$DP$119</definedName>
+    <definedName name="A4114954C_Data">Data1!$DP$51:$DP$119</definedName>
+    <definedName name="A4114954C_Latest">Data1!$DP$119</definedName>
+    <definedName name="A4114955F">Data1!$IF$1:$IF$10,Data1!$IF$117:$IF$119</definedName>
+    <definedName name="A4114955F_Data">Data1!$IF$117:$IF$119</definedName>
+    <definedName name="A4114955F_Latest">Data1!$IF$119</definedName>
+    <definedName name="A4114956J">Data2!$AX$1:$AX$10,Data2!$AX$118:$AX$119</definedName>
+    <definedName name="A4114956J_Data">Data2!$AX$118:$AX$119</definedName>
+    <definedName name="A4114956J_Latest">Data2!$AX$119</definedName>
+    <definedName name="A4115732R">Data1!$L$1:$L$10,Data1!$L$47:$L$119</definedName>
+    <definedName name="A4115732R_Data">Data1!$L$47:$L$119</definedName>
+    <definedName name="A4115732R_Latest">Data1!$L$119</definedName>
+    <definedName name="A4115733T">Data1!$EB$1:$EB$10,Data1!$EB$48:$EB$119</definedName>
+    <definedName name="A4115733T_Data">Data1!$EB$48:$EB$119</definedName>
+    <definedName name="A4115733T_Latest">Data1!$EB$119</definedName>
+    <definedName name="A4115734V">Data1!$BT$1:$BT$10,Data1!$BT$51:$BT$119</definedName>
+    <definedName name="A4115734V_Data">Data1!$BT$51:$BT$119</definedName>
+    <definedName name="A4115734V_Latest">Data1!$BT$119</definedName>
+    <definedName name="A4115735W">Data1!$GJ$1:$GJ$10,Data1!$GJ$117:$GJ$119</definedName>
+    <definedName name="A4115735W_Data">Data1!$GJ$117:$GJ$119</definedName>
+    <definedName name="A4115735W_Latest">Data1!$GJ$119</definedName>
+    <definedName name="A4115736X">Data2!$B$1:$B$10,Data2!$B$118:$B$119</definedName>
+    <definedName name="A4115736X_Data">Data2!$B$118:$B$119</definedName>
+    <definedName name="A4115736X_Latest">Data2!$B$119</definedName>
+    <definedName name="A4116128L">Data1!$AX$1:$AX$10,Data1!$AX$11:$AX$119</definedName>
+    <definedName name="A4116128L_Data">Data1!$AX$11:$AX$119</definedName>
+    <definedName name="A4116128L_Latest">Data1!$AX$119</definedName>
+    <definedName name="A4116129R">Data1!$FN$1:$FN$10,Data1!$FN$12:$FN$119</definedName>
+    <definedName name="A4116129R_Data">Data1!$FN$12:$FN$119</definedName>
+    <definedName name="A4116129R_Latest">Data1!$FN$119</definedName>
+    <definedName name="A4116130X">Data1!$DF$1:$DF$10,Data1!$DF$15:$DF$119</definedName>
+    <definedName name="A4116130X_Data">Data1!$DF$15:$DF$119</definedName>
+    <definedName name="A4116130X_Latest">Data1!$DF$119</definedName>
+    <definedName name="A4116131A">Data1!$HV$1:$HV$10,Data1!$HV$117:$HV$119</definedName>
+    <definedName name="A4116131A_Data">Data1!$HV$117:$HV$119</definedName>
+    <definedName name="A4116131A_Latest">Data1!$HV$119</definedName>
+    <definedName name="A4116132C">Data2!$AN$1:$AN$10,Data2!$AN$118:$AN$119</definedName>
+    <definedName name="A4116132C_Data">Data2!$AN$118:$AN$119</definedName>
+    <definedName name="A4116132C_Latest">Data2!$AN$119</definedName>
+    <definedName name="A4116164W">Data1!$M$1:$M$10,Data1!$M$47:$M$119</definedName>
+    <definedName name="A4116164W_Data">Data1!$M$47:$M$119</definedName>
+    <definedName name="A4116164W_Latest">Data1!$M$119</definedName>
+    <definedName name="A4116165X">Data1!$EC$1:$EC$10,Data1!$EC$48:$EC$119</definedName>
+    <definedName name="A4116165X_Data">Data1!$EC$48:$EC$119</definedName>
+    <definedName name="A4116165X_Latest">Data1!$EC$119</definedName>
+    <definedName name="A4116166A">Data1!$BU$1:$BU$10,Data1!$BU$51:$BU$119</definedName>
+    <definedName name="A4116166A_Data">Data1!$BU$51:$BU$119</definedName>
+    <definedName name="A4116166A_Latest">Data1!$BU$119</definedName>
+    <definedName name="A4116167C">Data1!$GK$1:$GK$10,Data1!$GK$117:$GK$119</definedName>
+    <definedName name="A4116167C_Data">Data1!$GK$117:$GK$119</definedName>
+    <definedName name="A4116167C_Latest">Data1!$GK$119</definedName>
+    <definedName name="A4116168F">Data2!$C$1:$C$10,Data2!$C$118:$C$119</definedName>
+    <definedName name="A4116168F_Data">Data2!$C$118:$C$119</definedName>
+    <definedName name="A4116168F_Latest">Data2!$C$119</definedName>
+    <definedName name="A4116572J">Data1!$B$1:$B$10,Data1!$B$47:$B$119</definedName>
+    <definedName name="A4116572J_Data">Data1!$B$47:$B$119</definedName>
+    <definedName name="A4116572J_Latest">Data1!$B$119</definedName>
+    <definedName name="A4116573K">Data1!$DR$1:$DR$10,Data1!$DR$48:$DR$119</definedName>
+    <definedName name="A4116573K_Data">Data1!$DR$48:$DR$119</definedName>
+    <definedName name="A4116573K_Latest">Data1!$DR$119</definedName>
+    <definedName name="A4116574L">Data1!$BJ$1:$BJ$10,Data1!$BJ$51:$BJ$119</definedName>
+    <definedName name="A4116574L_Data">Data1!$BJ$51:$BJ$119</definedName>
+    <definedName name="A4116574L_Latest">Data1!$BJ$119</definedName>
+    <definedName name="A4116575R">Data1!$FZ$1:$FZ$10,Data1!$FZ$117:$FZ$119</definedName>
+    <definedName name="A4116575R_Data">Data1!$FZ$117:$FZ$119</definedName>
+    <definedName name="A4116575R_Latest">Data1!$FZ$119</definedName>
+    <definedName name="A4116576T">Data1!$IH$1:$IH$10,Data1!$IH$118:$IH$119</definedName>
+    <definedName name="A4116576T_Data">Data1!$IH$118:$IH$119</definedName>
+    <definedName name="A4116576T_Latest">Data1!$IH$119</definedName>
+    <definedName name="A4116644J">Data1!$R$1:$R$10,Data1!$R$47:$R$119</definedName>
+    <definedName name="A4116644J_Data">Data1!$R$47:$R$119</definedName>
+    <definedName name="A4116644J_Latest">Data1!$R$119</definedName>
+    <definedName name="A4116645K">Data1!$EH$1:$EH$10,Data1!$EH$48:$EH$119</definedName>
+    <definedName name="A4116645K_Data">Data1!$EH$48:$EH$119</definedName>
+    <definedName name="A4116645K_Latest">Data1!$EH$119</definedName>
+    <definedName name="A4116646L">Data1!$BZ$1:$BZ$10,Data1!$BZ$51:$BZ$119</definedName>
+    <definedName name="A4116646L_Data">Data1!$BZ$51:$BZ$119</definedName>
+    <definedName name="A4116646L_Latest">Data1!$BZ$119</definedName>
+    <definedName name="A4116647R">Data1!$GP$1:$GP$10,Data1!$GP$117:$GP$119</definedName>
+    <definedName name="A4116647R_Data">Data1!$GP$117:$GP$119</definedName>
+    <definedName name="A4116647R_Latest">Data1!$GP$119</definedName>
+    <definedName name="A4116648T">Data2!$H$1:$H$10,Data2!$H$118:$H$119</definedName>
+    <definedName name="A4116648T_Data">Data2!$H$118:$H$119</definedName>
+    <definedName name="A4116648T_Latest">Data2!$H$119</definedName>
+    <definedName name="A4117082K">Data1!$S$1:$S$10,Data1!$S$47:$S$119</definedName>
+    <definedName name="A4117082K_Data">Data1!$S$47:$S$119</definedName>
+    <definedName name="A4117082K_Latest">Data1!$S$119</definedName>
+    <definedName name="A4117083L">Data1!$EI$1:$EI$10,Data1!$EI$48:$EI$119</definedName>
+    <definedName name="A4117083L_Data">Data1!$EI$48:$EI$119</definedName>
+    <definedName name="A4117083L_Latest">Data1!$EI$119</definedName>
+    <definedName name="A4117084R">Data1!$CA$1:$CA$10,Data1!$CA$51:$CA$119</definedName>
+    <definedName name="A4117084R_Data">Data1!$CA$51:$CA$119</definedName>
+    <definedName name="A4117084R_Latest">Data1!$CA$119</definedName>
+    <definedName name="A4117085T">Data1!$GQ$1:$GQ$10,Data1!$GQ$117:$GQ$119</definedName>
+    <definedName name="A4117085T_Data">Data1!$GQ$117:$GQ$119</definedName>
+    <definedName name="A4117085T_Latest">Data1!$GQ$119</definedName>
+    <definedName name="A4117086V">Data2!$I$1:$I$10,Data2!$I$118:$I$119</definedName>
+    <definedName name="A4117086V_Data">Data2!$I$118:$I$119</definedName>
+    <definedName name="A4117086V_Latest">Data2!$I$119</definedName>
+    <definedName name="A4117268J">Data1!$O$1:$O$10,Data1!$O$47:$O$119</definedName>
+    <definedName name="A4117268J_Data">Data1!$O$47:$O$119</definedName>
+    <definedName name="A4117268J_Latest">Data1!$O$119</definedName>
+    <definedName name="A4117269K">Data1!$EE$1:$EE$10,Data1!$EE$48:$EE$119</definedName>
+    <definedName name="A4117269K_Data">Data1!$EE$48:$EE$119</definedName>
+    <definedName name="A4117269K_Latest">Data1!$EE$119</definedName>
+    <definedName name="A4117270V">Data1!$BW$1:$BW$10,Data1!$BW$51:$BW$119</definedName>
+    <definedName name="A4117270V_Data">Data1!$BW$51:$BW$119</definedName>
+    <definedName name="A4117270V_Latest">Data1!$BW$119</definedName>
+    <definedName name="A4117271W">Data1!$GM$1:$GM$10,Data1!$GM$117:$GM$119</definedName>
+    <definedName name="A4117271W_Data">Data1!$GM$117:$GM$119</definedName>
+    <definedName name="A4117271W_Latest">Data1!$GM$119</definedName>
+    <definedName name="A4117272X">Data2!$E$1:$E$10,Data2!$E$118:$E$119</definedName>
+    <definedName name="A4117272X_Data">Data2!$E$118:$E$119</definedName>
+    <definedName name="A4117272X_Latest">Data2!$E$119</definedName>
+    <definedName name="A4117934X">Data1!$AI$1:$AI$10,Data1!$AI$47:$AI$119</definedName>
+    <definedName name="A4117934X_Data">Data1!$AI$47:$AI$119</definedName>
+    <definedName name="A4117934X_Latest">Data1!$AI$119</definedName>
+    <definedName name="A4117935A">Data1!$EY$1:$EY$10,Data1!$EY$48:$EY$119</definedName>
+    <definedName name="A4117935A_Data">Data1!$EY$48:$EY$119</definedName>
+    <definedName name="A4117935A_Latest">Data1!$EY$119</definedName>
+    <definedName name="A4117936C">Data1!$CQ$1:$CQ$10,Data1!$CQ$51:$CQ$119</definedName>
+    <definedName name="A4117936C_Data">Data1!$CQ$51:$CQ$119</definedName>
+    <definedName name="A4117936C_Latest">Data1!$CQ$119</definedName>
+    <definedName name="A4117937F">Data1!$HG$1:$HG$10,Data1!$HG$117:$HG$119</definedName>
+    <definedName name="A4117937F_Data">Data1!$HG$117:$HG$119</definedName>
+    <definedName name="A4117937F_Latest">Data1!$HG$119</definedName>
+    <definedName name="A4117938J">Data2!$Y$1:$Y$10,Data2!$Y$118:$Y$119</definedName>
+    <definedName name="A4117938J_Data">Data2!$Y$118:$Y$119</definedName>
+    <definedName name="A4117938J_Latest">Data2!$Y$119</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$119</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$119</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -5129,10 +5129,10 @@
         <v>39234</v>
       </c>
       <c r="G12" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H12" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>259</v>
@@ -5161,10 +5161,10 @@
         <v>39234</v>
       </c>
       <c r="G13" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H13" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>259</v>
@@ -5193,10 +5193,10 @@
         <v>39234</v>
       </c>
       <c r="G14" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H14" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>259</v>
@@ -5225,10 +5225,10 @@
         <v>39234</v>
       </c>
       <c r="G15" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H15" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>259</v>
@@ -5257,10 +5257,10 @@
         <v>39234</v>
       </c>
       <c r="G16" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H16" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>259</v>
@@ -5289,10 +5289,10 @@
         <v>39234</v>
       </c>
       <c r="G17" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H17" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>259</v>
@@ -5321,10 +5321,10 @@
         <v>39234</v>
       </c>
       <c r="G18" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H18" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>259</v>
@@ -5353,10 +5353,10 @@
         <v>39234</v>
       </c>
       <c r="G19" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H19" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>259</v>
@@ -5385,10 +5385,10 @@
         <v>39234</v>
       </c>
       <c r="G20" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H20" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>259</v>
@@ -5417,10 +5417,10 @@
         <v>39234</v>
       </c>
       <c r="G21" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H21" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>259</v>
@@ -5449,10 +5449,10 @@
         <v>39234</v>
       </c>
       <c r="G22" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>259</v>
@@ -5481,10 +5481,10 @@
         <v>39234</v>
       </c>
       <c r="G23" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>259</v>
@@ -5513,10 +5513,10 @@
         <v>35947</v>
       </c>
       <c r="G24" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H24" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>259</v>
@@ -5545,10 +5545,10 @@
         <v>39234</v>
       </c>
       <c r="G25" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H25" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>259</v>
@@ -5577,10 +5577,10 @@
         <v>39234</v>
       </c>
       <c r="G26" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H26" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>259</v>
@@ -5609,10 +5609,10 @@
         <v>39234</v>
       </c>
       <c r="G27" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H27" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I27" s="11" t="s">
         <v>259</v>
@@ -5641,10 +5641,10 @@
         <v>39234</v>
       </c>
       <c r="G28" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H28" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I28" s="11" t="s">
         <v>259</v>
@@ -5673,10 +5673,10 @@
         <v>39234</v>
       </c>
       <c r="G29" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H29" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I29" s="11" t="s">
         <v>259</v>
@@ -5705,10 +5705,10 @@
         <v>39234</v>
       </c>
       <c r="G30" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H30" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I30" s="11" t="s">
         <v>259</v>
@@ -5737,10 +5737,10 @@
         <v>39234</v>
       </c>
       <c r="G31" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H31" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>259</v>
@@ -5769,10 +5769,10 @@
         <v>39234</v>
       </c>
       <c r="G32" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H32" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>259</v>
@@ -5801,10 +5801,10 @@
         <v>39234</v>
       </c>
       <c r="G33" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H33" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I33" s="11" t="s">
         <v>259</v>
@@ -5833,10 +5833,10 @@
         <v>39234</v>
       </c>
       <c r="G34" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H34" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I34" s="11" t="s">
         <v>259</v>
@@ -5865,10 +5865,10 @@
         <v>39234</v>
       </c>
       <c r="G35" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H35" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I35" s="11" t="s">
         <v>259</v>
@@ -5897,10 +5897,10 @@
         <v>35947</v>
       </c>
       <c r="G36" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H36" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>259</v>
@@ -5929,10 +5929,10 @@
         <v>39234</v>
       </c>
       <c r="G37" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H37" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I37" s="11" t="s">
         <v>259</v>
@@ -5961,10 +5961,10 @@
         <v>39234</v>
       </c>
       <c r="G38" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H38" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I38" s="11" t="s">
         <v>259</v>
@@ -5993,10 +5993,10 @@
         <v>39234</v>
       </c>
       <c r="G39" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H39" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I39" s="11" t="s">
         <v>259</v>
@@ -6025,10 +6025,10 @@
         <v>39234</v>
       </c>
       <c r="G40" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H40" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I40" s="11" t="s">
         <v>259</v>
@@ -6057,10 +6057,10 @@
         <v>39234</v>
       </c>
       <c r="G41" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H41" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I41" s="11" t="s">
         <v>259</v>
@@ -6089,10 +6089,10 @@
         <v>39234</v>
       </c>
       <c r="G42" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H42" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I42" s="11" t="s">
         <v>259</v>
@@ -6121,10 +6121,10 @@
         <v>39234</v>
       </c>
       <c r="G43" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H43" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I43" s="11" t="s">
         <v>259</v>
@@ -6153,10 +6153,10 @@
         <v>39234</v>
       </c>
       <c r="G44" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H44" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I44" s="11" t="s">
         <v>259</v>
@@ -6185,10 +6185,10 @@
         <v>39234</v>
       </c>
       <c r="G45" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H45" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I45" s="11" t="s">
         <v>259</v>
@@ -6217,10 +6217,10 @@
         <v>39234</v>
       </c>
       <c r="G46" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H46" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I46" s="11" t="s">
         <v>259</v>
@@ -6249,10 +6249,10 @@
         <v>39234</v>
       </c>
       <c r="G47" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H47" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I47" s="11" t="s">
         <v>259</v>
@@ -6281,10 +6281,10 @@
         <v>35947</v>
       </c>
       <c r="G48" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H48" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I48" s="11" t="s">
         <v>259</v>
@@ -6313,10 +6313,10 @@
         <v>39234</v>
       </c>
       <c r="G49" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H49" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I49" s="11" t="s">
         <v>259</v>
@@ -6345,10 +6345,10 @@
         <v>39234</v>
       </c>
       <c r="G50" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H50" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I50" s="11" t="s">
         <v>259</v>
@@ -6377,10 +6377,10 @@
         <v>39234</v>
       </c>
       <c r="G51" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H51" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I51" s="11" t="s">
         <v>259</v>
@@ -6409,10 +6409,10 @@
         <v>39234</v>
       </c>
       <c r="G52" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H52" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I52" s="11" t="s">
         <v>259</v>
@@ -6441,10 +6441,10 @@
         <v>39234</v>
       </c>
       <c r="G53" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H53" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I53" s="11" t="s">
         <v>259</v>
@@ -6473,10 +6473,10 @@
         <v>39234</v>
       </c>
       <c r="G54" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H54" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I54" s="11" t="s">
         <v>259</v>
@@ -6505,10 +6505,10 @@
         <v>39234</v>
       </c>
       <c r="G55" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H55" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I55" s="11" t="s">
         <v>259</v>
@@ -6537,10 +6537,10 @@
         <v>39234</v>
       </c>
       <c r="G56" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H56" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I56" s="11" t="s">
         <v>259</v>
@@ -6569,10 +6569,10 @@
         <v>39234</v>
       </c>
       <c r="G57" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H57" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I57" s="11" t="s">
         <v>259</v>
@@ -6601,10 +6601,10 @@
         <v>39234</v>
       </c>
       <c r="G58" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H58" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I58" s="11" t="s">
         <v>259</v>
@@ -6633,10 +6633,10 @@
         <v>39234</v>
       </c>
       <c r="G59" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H59" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I59" s="11" t="s">
         <v>259</v>
@@ -6665,10 +6665,10 @@
         <v>35947</v>
       </c>
       <c r="G60" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H60" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I60" s="11" t="s">
         <v>259</v>
@@ -6697,10 +6697,10 @@
         <v>39234</v>
       </c>
       <c r="G61" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H61" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I61" s="11" t="s">
         <v>259</v>
@@ -6729,10 +6729,10 @@
         <v>39234</v>
       </c>
       <c r="G62" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H62" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I62" s="11" t="s">
         <v>259</v>
@@ -6761,10 +6761,10 @@
         <v>39234</v>
       </c>
       <c r="G63" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H63" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I63" s="11" t="s">
         <v>259</v>
@@ -6793,10 +6793,10 @@
         <v>39234</v>
       </c>
       <c r="G64" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H64" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I64" s="11" t="s">
         <v>259</v>
@@ -6825,10 +6825,10 @@
         <v>39234</v>
       </c>
       <c r="G65" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H65" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I65" s="11" t="s">
         <v>259</v>
@@ -6857,10 +6857,10 @@
         <v>39234</v>
       </c>
       <c r="G66" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H66" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I66" s="11" t="s">
         <v>259</v>
@@ -6889,10 +6889,10 @@
         <v>39234</v>
       </c>
       <c r="G67" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H67" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I67" s="11" t="s">
         <v>259</v>
@@ -6921,10 +6921,10 @@
         <v>39234</v>
       </c>
       <c r="G68" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H68" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I68" s="11" t="s">
         <v>259</v>
@@ -6953,10 +6953,10 @@
         <v>39234</v>
       </c>
       <c r="G69" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H69" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I69" s="11" t="s">
         <v>259</v>
@@ -6985,10 +6985,10 @@
         <v>39234</v>
       </c>
       <c r="G70" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H70" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I70" s="11" t="s">
         <v>259</v>
@@ -7017,10 +7017,10 @@
         <v>39234</v>
       </c>
       <c r="G71" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H71" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I71" s="11" t="s">
         <v>259</v>
@@ -7049,10 +7049,10 @@
         <v>39600</v>
       </c>
       <c r="G72" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H72" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I72" s="11" t="s">
         <v>323</v>
@@ -7081,10 +7081,10 @@
         <v>39600</v>
       </c>
       <c r="G73" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H73" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I73" s="11" t="s">
         <v>323</v>
@@ -7113,10 +7113,10 @@
         <v>39600</v>
       </c>
       <c r="G74" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H74" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I74" s="11" t="s">
         <v>323</v>
@@ -7145,10 +7145,10 @@
         <v>39600</v>
       </c>
       <c r="G75" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H75" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I75" s="11" t="s">
         <v>323</v>
@@ -7177,10 +7177,10 @@
         <v>39600</v>
       </c>
       <c r="G76" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H76" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I76" s="11" t="s">
         <v>323</v>
@@ -7209,10 +7209,10 @@
         <v>39600</v>
       </c>
       <c r="G77" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H77" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I77" s="11" t="s">
         <v>323</v>
@@ -7241,10 +7241,10 @@
         <v>39600</v>
       </c>
       <c r="G78" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H78" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I78" s="11" t="s">
         <v>323</v>
@@ -7273,10 +7273,10 @@
         <v>39600</v>
       </c>
       <c r="G79" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H79" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I79" s="11" t="s">
         <v>323</v>
@@ -7305,10 +7305,10 @@
         <v>39600</v>
       </c>
       <c r="G80" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H80" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I80" s="11" t="s">
         <v>323</v>
@@ -7337,10 +7337,10 @@
         <v>39600</v>
       </c>
       <c r="G81" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H81" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I81" s="11" t="s">
         <v>323</v>
@@ -7369,10 +7369,10 @@
         <v>39600</v>
       </c>
       <c r="G82" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H82" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I82" s="11" t="s">
         <v>323</v>
@@ -7401,10 +7401,10 @@
         <v>39600</v>
       </c>
       <c r="G83" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H83" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I83" s="11" t="s">
         <v>323</v>
@@ -7433,10 +7433,10 @@
         <v>36312</v>
       </c>
       <c r="G84" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H84" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I84" s="11" t="s">
         <v>323</v>
@@ -7465,10 +7465,10 @@
         <v>39600</v>
       </c>
       <c r="G85" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H85" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I85" s="11" t="s">
         <v>323</v>
@@ -7497,10 +7497,10 @@
         <v>39600</v>
       </c>
       <c r="G86" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H86" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I86" s="11" t="s">
         <v>323</v>
@@ -7529,10 +7529,10 @@
         <v>39600</v>
       </c>
       <c r="G87" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H87" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I87" s="11" t="s">
         <v>323</v>
@@ -7561,10 +7561,10 @@
         <v>39600</v>
       </c>
       <c r="G88" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H88" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I88" s="11" t="s">
         <v>323</v>
@@ -7593,10 +7593,10 @@
         <v>39600</v>
       </c>
       <c r="G89" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H89" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I89" s="11" t="s">
         <v>323</v>
@@ -7625,10 +7625,10 @@
         <v>39600</v>
       </c>
       <c r="G90" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H90" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I90" s="11" t="s">
         <v>323</v>
@@ -7657,10 +7657,10 @@
         <v>39600</v>
       </c>
       <c r="G91" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H91" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I91" s="11" t="s">
         <v>323</v>
@@ -7689,10 +7689,10 @@
         <v>39600</v>
       </c>
       <c r="G92" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H92" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I92" s="11" t="s">
         <v>323</v>
@@ -7721,10 +7721,10 @@
         <v>39600</v>
       </c>
       <c r="G93" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H93" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I93" s="11" t="s">
         <v>323</v>
@@ -7753,10 +7753,10 @@
         <v>39600</v>
       </c>
       <c r="G94" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H94" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I94" s="11" t="s">
         <v>323</v>
@@ -7785,10 +7785,10 @@
         <v>39600</v>
       </c>
       <c r="G95" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H95" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I95" s="11" t="s">
         <v>323</v>
@@ -7817,10 +7817,10 @@
         <v>36312</v>
       </c>
       <c r="G96" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H96" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I96" s="11" t="s">
         <v>323</v>
@@ -7849,10 +7849,10 @@
         <v>39600</v>
       </c>
       <c r="G97" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H97" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I97" s="11" t="s">
         <v>323</v>
@@ -7881,10 +7881,10 @@
         <v>39600</v>
       </c>
       <c r="G98" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H98" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I98" s="11" t="s">
         <v>323</v>
@@ -7913,10 +7913,10 @@
         <v>39600</v>
       </c>
       <c r="G99" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H99" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I99" s="11" t="s">
         <v>323</v>
@@ -7945,10 +7945,10 @@
         <v>39600</v>
       </c>
       <c r="G100" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H100" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I100" s="11" t="s">
         <v>323</v>
@@ -7977,10 +7977,10 @@
         <v>39600</v>
       </c>
       <c r="G101" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H101" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I101" s="11" t="s">
         <v>323</v>
@@ -8009,10 +8009,10 @@
         <v>39600</v>
       </c>
       <c r="G102" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H102" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I102" s="11" t="s">
         <v>323</v>
@@ -8041,10 +8041,10 @@
         <v>39600</v>
       </c>
       <c r="G103" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H103" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I103" s="11" t="s">
         <v>323</v>
@@ -8073,10 +8073,10 @@
         <v>39600</v>
       </c>
       <c r="G104" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H104" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I104" s="11" t="s">
         <v>323</v>
@@ -8105,10 +8105,10 @@
         <v>39600</v>
       </c>
       <c r="G105" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H105" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I105" s="11" t="s">
         <v>323</v>
@@ -8137,10 +8137,10 @@
         <v>39600</v>
       </c>
       <c r="G106" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H106" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I106" s="11" t="s">
         <v>323</v>
@@ -8169,10 +8169,10 @@
         <v>39600</v>
       </c>
       <c r="G107" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H107" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I107" s="11" t="s">
         <v>323</v>
@@ -8201,10 +8201,10 @@
         <v>36312</v>
       </c>
       <c r="G108" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H108" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I108" s="11" t="s">
         <v>323</v>
@@ -8233,10 +8233,10 @@
         <v>39600</v>
       </c>
       <c r="G109" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H109" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I109" s="11" t="s">
         <v>323</v>
@@ -8265,10 +8265,10 @@
         <v>39600</v>
       </c>
       <c r="G110" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H110" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I110" s="11" t="s">
         <v>323</v>
@@ -8297,10 +8297,10 @@
         <v>39600</v>
       </c>
       <c r="G111" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H111" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I111" s="11" t="s">
         <v>323</v>
@@ -8329,10 +8329,10 @@
         <v>39600</v>
       </c>
       <c r="G112" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H112" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I112" s="11" t="s">
         <v>323</v>
@@ -8361,10 +8361,10 @@
         <v>39600</v>
       </c>
       <c r="G113" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H113" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I113" s="11" t="s">
         <v>323</v>
@@ -8393,10 +8393,10 @@
         <v>39600</v>
       </c>
       <c r="G114" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H114" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I114" s="11" t="s">
         <v>323</v>
@@ -8425,10 +8425,10 @@
         <v>39600</v>
       </c>
       <c r="G115" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H115" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I115" s="11" t="s">
         <v>323</v>
@@ -8457,10 +8457,10 @@
         <v>39600</v>
       </c>
       <c r="G116" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H116" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I116" s="11" t="s">
         <v>323</v>
@@ -8489,10 +8489,10 @@
         <v>39600</v>
       </c>
       <c r="G117" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H117" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I117" s="11" t="s">
         <v>323</v>
@@ -8521,10 +8521,10 @@
         <v>39600</v>
       </c>
       <c r="G118" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H118" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I118" s="11" t="s">
         <v>323</v>
@@ -8553,10 +8553,10 @@
         <v>39600</v>
       </c>
       <c r="G119" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H119" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I119" s="11" t="s">
         <v>323</v>
@@ -8585,10 +8585,10 @@
         <v>36312</v>
       </c>
       <c r="G120" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H120" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I120" s="11" t="s">
         <v>323</v>
@@ -8617,10 +8617,10 @@
         <v>39600</v>
       </c>
       <c r="G121" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H121" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I121" s="11" t="s">
         <v>323</v>
@@ -8649,10 +8649,10 @@
         <v>39600</v>
       </c>
       <c r="G122" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H122" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I122" s="11" t="s">
         <v>323</v>
@@ -8681,10 +8681,10 @@
         <v>39600</v>
       </c>
       <c r="G123" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H123" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I123" s="11" t="s">
         <v>323</v>
@@ -8713,10 +8713,10 @@
         <v>39600</v>
       </c>
       <c r="G124" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H124" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I124" s="11" t="s">
         <v>323</v>
@@ -8745,10 +8745,10 @@
         <v>39600</v>
       </c>
       <c r="G125" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H125" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I125" s="11" t="s">
         <v>323</v>
@@ -8777,10 +8777,10 @@
         <v>39600</v>
       </c>
       <c r="G126" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H126" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I126" s="11" t="s">
         <v>323</v>
@@ -8809,10 +8809,10 @@
         <v>39600</v>
       </c>
       <c r="G127" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H127" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I127" s="11" t="s">
         <v>323</v>
@@ -8841,10 +8841,10 @@
         <v>39600</v>
       </c>
       <c r="G128" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H128" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I128" s="11" t="s">
         <v>323</v>
@@ -8873,10 +8873,10 @@
         <v>39600</v>
       </c>
       <c r="G129" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H129" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I129" s="11" t="s">
         <v>323</v>
@@ -8905,10 +8905,10 @@
         <v>39600</v>
       </c>
       <c r="G130" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H130" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I130" s="11" t="s">
         <v>323</v>
@@ -8937,10 +8937,10 @@
         <v>39600</v>
       </c>
       <c r="G131" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H131" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I131" s="11" t="s">
         <v>323</v>
@@ -8969,10 +8969,10 @@
         <v>39326</v>
       </c>
       <c r="G132" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H132" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I132" s="11" t="s">
         <v>323</v>
@@ -9001,10 +9001,10 @@
         <v>39326</v>
       </c>
       <c r="G133" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H133" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I133" s="11" t="s">
         <v>323</v>
@@ -9033,10 +9033,10 @@
         <v>39326</v>
       </c>
       <c r="G134" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H134" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I134" s="11" t="s">
         <v>323</v>
@@ -9065,10 +9065,10 @@
         <v>39326</v>
       </c>
       <c r="G135" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H135" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I135" s="11" t="s">
         <v>323</v>
@@ -9097,10 +9097,10 @@
         <v>39326</v>
       </c>
       <c r="G136" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H136" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I136" s="11" t="s">
         <v>323</v>
@@ -9129,10 +9129,10 @@
         <v>39326</v>
       </c>
       <c r="G137" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H137" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I137" s="11" t="s">
         <v>323</v>
@@ -9161,10 +9161,10 @@
         <v>39326</v>
       </c>
       <c r="G138" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H138" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I138" s="11" t="s">
         <v>323</v>
@@ -9193,10 +9193,10 @@
         <v>39326</v>
       </c>
       <c r="G139" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H139" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I139" s="11" t="s">
         <v>323</v>
@@ -9225,10 +9225,10 @@
         <v>39326</v>
       </c>
       <c r="G140" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H140" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I140" s="11" t="s">
         <v>323</v>
@@ -9257,10 +9257,10 @@
         <v>39326</v>
       </c>
       <c r="G141" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H141" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I141" s="11" t="s">
         <v>323</v>
@@ -9289,10 +9289,10 @@
         <v>39326</v>
       </c>
       <c r="G142" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H142" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I142" s="11" t="s">
         <v>323</v>
@@ -9321,10 +9321,10 @@
         <v>39326</v>
       </c>
       <c r="G143" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H143" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I143" s="11" t="s">
         <v>323</v>
@@ -9353,10 +9353,10 @@
         <v>36039</v>
       </c>
       <c r="G144" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H144" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I144" s="11" t="s">
         <v>323</v>
@@ -9385,10 +9385,10 @@
         <v>39326</v>
       </c>
       <c r="G145" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H145" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I145" s="11" t="s">
         <v>323</v>
@@ -9417,10 +9417,10 @@
         <v>39326</v>
       </c>
       <c r="G146" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H146" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I146" s="11" t="s">
         <v>323</v>
@@ -9449,10 +9449,10 @@
         <v>39326</v>
       </c>
       <c r="G147" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H147" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I147" s="11" t="s">
         <v>323</v>
@@ -9481,10 +9481,10 @@
         <v>39326</v>
       </c>
       <c r="G148" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H148" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I148" s="11" t="s">
         <v>323</v>
@@ -9513,10 +9513,10 @@
         <v>39326</v>
       </c>
       <c r="G149" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H149" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I149" s="11" t="s">
         <v>323</v>
@@ -9545,10 +9545,10 @@
         <v>39326</v>
       </c>
       <c r="G150" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H150" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I150" s="11" t="s">
         <v>323</v>
@@ -9577,10 +9577,10 @@
         <v>39326</v>
       </c>
       <c r="G151" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H151" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I151" s="11" t="s">
         <v>323</v>
@@ -9609,10 +9609,10 @@
         <v>39326</v>
       </c>
       <c r="G152" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H152" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I152" s="11" t="s">
         <v>323</v>
@@ -9641,10 +9641,10 @@
         <v>39326</v>
       </c>
       <c r="G153" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H153" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I153" s="11" t="s">
         <v>323</v>
@@ -9673,10 +9673,10 @@
         <v>39326</v>
       </c>
       <c r="G154" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H154" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I154" s="11" t="s">
         <v>323</v>
@@ -9705,10 +9705,10 @@
         <v>39326</v>
       </c>
       <c r="G155" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H155" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I155" s="11" t="s">
         <v>323</v>
@@ -9737,10 +9737,10 @@
         <v>36039</v>
       </c>
       <c r="G156" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H156" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I156" s="11" t="s">
         <v>323</v>
@@ -9769,10 +9769,10 @@
         <v>39326</v>
       </c>
       <c r="G157" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H157" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I157" s="11" t="s">
         <v>323</v>
@@ -9801,10 +9801,10 @@
         <v>39326</v>
       </c>
       <c r="G158" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H158" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I158" s="11" t="s">
         <v>323</v>
@@ -9833,10 +9833,10 @@
         <v>39326</v>
       </c>
       <c r="G159" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H159" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I159" s="11" t="s">
         <v>323</v>
@@ -9865,10 +9865,10 @@
         <v>39326</v>
       </c>
       <c r="G160" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H160" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I160" s="11" t="s">
         <v>323</v>
@@ -9897,10 +9897,10 @@
         <v>39326</v>
       </c>
       <c r="G161" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H161" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I161" s="11" t="s">
         <v>323</v>
@@ -9929,10 +9929,10 @@
         <v>39326</v>
       </c>
       <c r="G162" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H162" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I162" s="11" t="s">
         <v>323</v>
@@ -9961,10 +9961,10 @@
         <v>39326</v>
       </c>
       <c r="G163" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H163" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I163" s="11" t="s">
         <v>323</v>
@@ -9993,10 +9993,10 @@
         <v>39326</v>
       </c>
       <c r="G164" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H164" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I164" s="11" t="s">
         <v>323</v>
@@ -10025,10 +10025,10 @@
         <v>39326</v>
       </c>
       <c r="G165" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H165" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I165" s="11" t="s">
         <v>323</v>
@@ -10057,10 +10057,10 @@
         <v>39326</v>
       </c>
       <c r="G166" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H166" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I166" s="11" t="s">
         <v>323</v>
@@ -10089,10 +10089,10 @@
         <v>39326</v>
       </c>
       <c r="G167" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H167" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I167" s="11" t="s">
         <v>323</v>
@@ -10121,10 +10121,10 @@
         <v>36039</v>
       </c>
       <c r="G168" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H168" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I168" s="11" t="s">
         <v>323</v>
@@ -10153,10 +10153,10 @@
         <v>39326</v>
       </c>
       <c r="G169" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H169" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I169" s="11" t="s">
         <v>323</v>
@@ -10185,10 +10185,10 @@
         <v>39326</v>
       </c>
       <c r="G170" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H170" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I170" s="11" t="s">
         <v>323</v>
@@ -10217,10 +10217,10 @@
         <v>39326</v>
       </c>
       <c r="G171" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H171" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I171" s="11" t="s">
         <v>323</v>
@@ -10249,10 +10249,10 @@
         <v>39326</v>
       </c>
       <c r="G172" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H172" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I172" s="11" t="s">
         <v>323</v>
@@ -10281,10 +10281,10 @@
         <v>39326</v>
       </c>
       <c r="G173" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H173" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I173" s="11" t="s">
         <v>323</v>
@@ -10313,10 +10313,10 @@
         <v>39326</v>
       </c>
       <c r="G174" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H174" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I174" s="11" t="s">
         <v>323</v>
@@ -10345,10 +10345,10 @@
         <v>39326</v>
       </c>
       <c r="G175" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H175" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I175" s="11" t="s">
         <v>323</v>
@@ -10377,10 +10377,10 @@
         <v>39326</v>
       </c>
       <c r="G176" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H176" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I176" s="11" t="s">
         <v>323</v>
@@ -10409,10 +10409,10 @@
         <v>39326</v>
       </c>
       <c r="G177" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H177" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I177" s="11" t="s">
         <v>323</v>
@@ -10441,10 +10441,10 @@
         <v>39326</v>
       </c>
       <c r="G178" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H178" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I178" s="11" t="s">
         <v>323</v>
@@ -10473,10 +10473,10 @@
         <v>39326</v>
       </c>
       <c r="G179" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H179" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I179" s="11" t="s">
         <v>323</v>
@@ -10505,10 +10505,10 @@
         <v>36039</v>
       </c>
       <c r="G180" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H180" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I180" s="11" t="s">
         <v>323</v>
@@ -10537,10 +10537,10 @@
         <v>39326</v>
       </c>
       <c r="G181" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H181" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I181" s="11" t="s">
         <v>323</v>
@@ -10569,10 +10569,10 @@
         <v>39326</v>
       </c>
       <c r="G182" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H182" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I182" s="11" t="s">
         <v>323</v>
@@ -10601,10 +10601,10 @@
         <v>39326</v>
       </c>
       <c r="G183" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H183" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I183" s="11" t="s">
         <v>323</v>
@@ -10633,10 +10633,10 @@
         <v>39326</v>
       </c>
       <c r="G184" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H184" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I184" s="11" t="s">
         <v>323</v>
@@ -10665,10 +10665,10 @@
         <v>39326</v>
       </c>
       <c r="G185" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H185" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I185" s="11" t="s">
         <v>323</v>
@@ -10697,10 +10697,10 @@
         <v>39326</v>
       </c>
       <c r="G186" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H186" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I186" s="11" t="s">
         <v>323</v>
@@ -10729,10 +10729,10 @@
         <v>39326</v>
       </c>
       <c r="G187" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H187" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I187" s="11" t="s">
         <v>323</v>
@@ -10761,10 +10761,10 @@
         <v>39326</v>
       </c>
       <c r="G188" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H188" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I188" s="11" t="s">
         <v>323</v>
@@ -10793,10 +10793,10 @@
         <v>39326</v>
       </c>
       <c r="G189" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H189" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I189" s="11" t="s">
         <v>323</v>
@@ -10825,10 +10825,10 @@
         <v>39326</v>
       </c>
       <c r="G190" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H190" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I190" s="11" t="s">
         <v>323</v>
@@ -10857,10 +10857,10 @@
         <v>39326</v>
       </c>
       <c r="G191" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H191" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I191" s="11" t="s">
         <v>323</v>
@@ -10889,10 +10889,10 @@
         <v>45627</v>
       </c>
       <c r="G192" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H192" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I192" s="11" t="s">
         <v>445</v>
@@ -10921,10 +10921,10 @@
         <v>45627</v>
       </c>
       <c r="G193" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H193" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I193" s="11" t="s">
         <v>445</v>
@@ -10953,10 +10953,10 @@
         <v>45627</v>
       </c>
       <c r="G194" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H194" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I194" s="11" t="s">
         <v>445</v>
@@ -10985,10 +10985,10 @@
         <v>45627</v>
       </c>
       <c r="G195" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H195" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I195" s="11" t="s">
         <v>445</v>
@@ -11017,10 +11017,10 @@
         <v>45627</v>
       </c>
       <c r="G196" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H196" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I196" s="11" t="s">
         <v>445</v>
@@ -11049,10 +11049,10 @@
         <v>45627</v>
       </c>
       <c r="G197" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H197" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I197" s="11" t="s">
         <v>445</v>
@@ -11081,10 +11081,10 @@
         <v>45627</v>
       </c>
       <c r="G198" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H198" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I198" s="11" t="s">
         <v>445</v>
@@ -11113,10 +11113,10 @@
         <v>45627</v>
       </c>
       <c r="G199" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H199" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I199" s="11" t="s">
         <v>445</v>
@@ -11145,10 +11145,10 @@
         <v>45627</v>
       </c>
       <c r="G200" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H200" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I200" s="11" t="s">
         <v>445</v>
@@ -11177,10 +11177,10 @@
         <v>45627</v>
       </c>
       <c r="G201" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H201" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I201" s="11" t="s">
         <v>445</v>
@@ -11209,10 +11209,10 @@
         <v>45627</v>
       </c>
       <c r="G202" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H202" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I202" s="11" t="s">
         <v>445</v>
@@ -11241,10 +11241,10 @@
         <v>45627</v>
       </c>
       <c r="G203" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H203" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I203" s="11" t="s">
         <v>445</v>
@@ -11273,10 +11273,10 @@
         <v>45627</v>
       </c>
       <c r="G204" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H204" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I204" s="11" t="s">
         <v>445</v>
@@ -11305,10 +11305,10 @@
         <v>45627</v>
       </c>
       <c r="G205" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H205" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I205" s="11" t="s">
         <v>445</v>
@@ -11337,10 +11337,10 @@
         <v>45627</v>
       </c>
       <c r="G206" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H206" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I206" s="11" t="s">
         <v>445</v>
@@ -11369,10 +11369,10 @@
         <v>45627</v>
       </c>
       <c r="G207" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H207" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I207" s="11" t="s">
         <v>445</v>
@@ -11401,10 +11401,10 @@
         <v>45627</v>
       </c>
       <c r="G208" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H208" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I208" s="11" t="s">
         <v>445</v>
@@ -11433,10 +11433,10 @@
         <v>45627</v>
       </c>
       <c r="G209" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H209" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I209" s="11" t="s">
         <v>445</v>
@@ -11465,10 +11465,10 @@
         <v>45627</v>
       </c>
       <c r="G210" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H210" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I210" s="11" t="s">
         <v>445</v>
@@ -11497,10 +11497,10 @@
         <v>45627</v>
       </c>
       <c r="G211" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H211" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I211" s="11" t="s">
         <v>445</v>
@@ -11529,10 +11529,10 @@
         <v>45627</v>
       </c>
       <c r="G212" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H212" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I212" s="11" t="s">
         <v>445</v>
@@ -11561,10 +11561,10 @@
         <v>45627</v>
       </c>
       <c r="G213" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H213" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I213" s="11" t="s">
         <v>445</v>
@@ -11593,10 +11593,10 @@
         <v>45627</v>
       </c>
       <c r="G214" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H214" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I214" s="11" t="s">
         <v>445</v>
@@ -11625,10 +11625,10 @@
         <v>45627</v>
       </c>
       <c r="G215" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H215" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I215" s="11" t="s">
         <v>445</v>
@@ -11657,10 +11657,10 @@
         <v>45627</v>
       </c>
       <c r="G216" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H216" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I216" s="11" t="s">
         <v>445</v>
@@ -11689,10 +11689,10 @@
         <v>45627</v>
       </c>
       <c r="G217" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H217" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I217" s="11" t="s">
         <v>445</v>
@@ -11721,10 +11721,10 @@
         <v>45627</v>
       </c>
       <c r="G218" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H218" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I218" s="11" t="s">
         <v>445</v>
@@ -11753,10 +11753,10 @@
         <v>45627</v>
       </c>
       <c r="G219" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H219" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I219" s="11" t="s">
         <v>445</v>
@@ -11785,10 +11785,10 @@
         <v>45627</v>
       </c>
       <c r="G220" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H220" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I220" s="11" t="s">
         <v>445</v>
@@ -11817,10 +11817,10 @@
         <v>45627</v>
       </c>
       <c r="G221" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H221" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I221" s="11" t="s">
         <v>445</v>
@@ -11849,10 +11849,10 @@
         <v>45627</v>
       </c>
       <c r="G222" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H222" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I222" s="11" t="s">
         <v>445</v>
@@ -11881,10 +11881,10 @@
         <v>45627</v>
       </c>
       <c r="G223" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H223" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I223" s="11" t="s">
         <v>445</v>
@@ -11913,10 +11913,10 @@
         <v>45627</v>
       </c>
       <c r="G224" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H224" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I224" s="11" t="s">
         <v>445</v>
@@ -11945,10 +11945,10 @@
         <v>45627</v>
       </c>
       <c r="G225" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H225" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I225" s="11" t="s">
         <v>445</v>
@@ -11977,10 +11977,10 @@
         <v>45627</v>
       </c>
       <c r="G226" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H226" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I226" s="11" t="s">
         <v>445</v>
@@ -12009,10 +12009,10 @@
         <v>45627</v>
       </c>
       <c r="G227" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H227" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I227" s="11" t="s">
         <v>445</v>
@@ -12041,10 +12041,10 @@
         <v>45627</v>
       </c>
       <c r="G228" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H228" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I228" s="11" t="s">
         <v>445</v>
@@ -12073,10 +12073,10 @@
         <v>45627</v>
       </c>
       <c r="G229" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H229" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I229" s="11" t="s">
         <v>445</v>
@@ -12105,10 +12105,10 @@
         <v>45627</v>
       </c>
       <c r="G230" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H230" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I230" s="11" t="s">
         <v>445</v>
@@ -12137,10 +12137,10 @@
         <v>45627</v>
       </c>
       <c r="G231" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H231" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I231" s="11" t="s">
         <v>445</v>
@@ -12169,10 +12169,10 @@
         <v>45627</v>
       </c>
       <c r="G232" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H232" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I232" s="11" t="s">
         <v>445</v>
@@ -12201,10 +12201,10 @@
         <v>45627</v>
       </c>
       <c r="G233" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H233" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I233" s="11" t="s">
         <v>445</v>
@@ -12233,10 +12233,10 @@
         <v>45627</v>
       </c>
       <c r="G234" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H234" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I234" s="11" t="s">
         <v>445</v>
@@ -12265,10 +12265,10 @@
         <v>45627</v>
       </c>
       <c r="G235" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H235" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I235" s="11" t="s">
         <v>445</v>
@@ -12297,10 +12297,10 @@
         <v>45627</v>
       </c>
       <c r="G236" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H236" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I236" s="11" t="s">
         <v>445</v>
@@ -12329,10 +12329,10 @@
         <v>45627</v>
       </c>
       <c r="G237" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H237" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I237" s="11" t="s">
         <v>445</v>
@@ -12361,10 +12361,10 @@
         <v>45627</v>
       </c>
       <c r="G238" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H238" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I238" s="11" t="s">
         <v>445</v>
@@ -12393,10 +12393,10 @@
         <v>45627</v>
       </c>
       <c r="G239" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H239" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I239" s="11" t="s">
         <v>445</v>
@@ -12425,10 +12425,10 @@
         <v>45627</v>
       </c>
       <c r="G240" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H240" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I240" s="11" t="s">
         <v>445</v>
@@ -12457,10 +12457,10 @@
         <v>45627</v>
       </c>
       <c r="G241" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H241" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I241" s="11" t="s">
         <v>445</v>
@@ -12489,10 +12489,10 @@
         <v>45627</v>
       </c>
       <c r="G242" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H242" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I242" s="11" t="s">
         <v>445</v>
@@ -12521,10 +12521,10 @@
         <v>45627</v>
       </c>
       <c r="G243" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H243" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I243" s="11" t="s">
         <v>445</v>
@@ -12553,10 +12553,10 @@
         <v>45627</v>
       </c>
       <c r="G244" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H244" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I244" s="11" t="s">
         <v>445</v>
@@ -12585,10 +12585,10 @@
         <v>45627</v>
       </c>
       <c r="G245" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H245" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I245" s="11" t="s">
         <v>445</v>
@@ -12617,10 +12617,10 @@
         <v>45627</v>
       </c>
       <c r="G246" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H246" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I246" s="11" t="s">
         <v>445</v>
@@ -12649,10 +12649,10 @@
         <v>45627</v>
       </c>
       <c r="G247" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H247" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I247" s="11" t="s">
         <v>445</v>
@@ -12681,10 +12681,10 @@
         <v>45627</v>
       </c>
       <c r="G248" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H248" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I248" s="11" t="s">
         <v>445</v>
@@ -12713,10 +12713,10 @@
         <v>45627</v>
       </c>
       <c r="G249" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H249" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I249" s="11" t="s">
         <v>445</v>
@@ -12745,10 +12745,10 @@
         <v>45627</v>
       </c>
       <c r="G250" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H250" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I250" s="11" t="s">
         <v>445</v>
@@ -12777,10 +12777,10 @@
         <v>45627</v>
       </c>
       <c r="G251" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H251" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I251" s="11" t="s">
         <v>445</v>
@@ -12809,10 +12809,10 @@
         <v>45717</v>
       </c>
       <c r="G252" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H252" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I252" s="11" t="s">
         <v>445</v>
@@ -12841,10 +12841,10 @@
         <v>45717</v>
       </c>
       <c r="G253" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H253" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I253" s="11" t="s">
         <v>445</v>
@@ -12873,10 +12873,10 @@
         <v>45717</v>
       </c>
       <c r="G254" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H254" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I254" s="11" t="s">
         <v>445</v>
@@ -12905,10 +12905,10 @@
         <v>45717</v>
       </c>
       <c r="G255" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H255" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I255" s="11" t="s">
         <v>445</v>
@@ -12937,10 +12937,10 @@
         <v>45717</v>
       </c>
       <c r="G256" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H256" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I256" s="11" t="s">
         <v>445</v>
@@ -12969,10 +12969,10 @@
         <v>45717</v>
       </c>
       <c r="G257" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H257" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I257" s="11" t="s">
         <v>445</v>
@@ -13001,10 +13001,10 @@
         <v>45717</v>
       </c>
       <c r="G258" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H258" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I258" s="11" t="s">
         <v>445</v>
@@ -13033,10 +13033,10 @@
         <v>45717</v>
       </c>
       <c r="G259" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H259" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I259" s="11" t="s">
         <v>445</v>
@@ -13065,10 +13065,10 @@
         <v>45717</v>
       </c>
       <c r="G260" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H260" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I260" s="11" t="s">
         <v>445</v>
@@ -13097,10 +13097,10 @@
         <v>45717</v>
       </c>
       <c r="G261" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H261" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I261" s="11" t="s">
         <v>445</v>
@@ -13129,10 +13129,10 @@
         <v>45717</v>
       </c>
       <c r="G262" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H262" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I262" s="11" t="s">
         <v>445</v>
@@ -13161,10 +13161,10 @@
         <v>45717</v>
       </c>
       <c r="G263" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H263" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I263" s="11" t="s">
         <v>445</v>
@@ -13193,10 +13193,10 @@
         <v>45717</v>
       </c>
       <c r="G264" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H264" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I264" s="11" t="s">
         <v>445</v>
@@ -13225,10 +13225,10 @@
         <v>45717</v>
       </c>
       <c r="G265" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H265" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I265" s="11" t="s">
         <v>445</v>
@@ -13257,10 +13257,10 @@
         <v>45717</v>
       </c>
       <c r="G266" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H266" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I266" s="11" t="s">
         <v>445</v>
@@ -13289,10 +13289,10 @@
         <v>45717</v>
       </c>
       <c r="G267" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H267" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I267" s="11" t="s">
         <v>445</v>
@@ -13321,10 +13321,10 @@
         <v>45717</v>
       </c>
       <c r="G268" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H268" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I268" s="11" t="s">
         <v>445</v>
@@ -13353,10 +13353,10 @@
         <v>45717</v>
       </c>
       <c r="G269" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H269" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I269" s="11" t="s">
         <v>445</v>
@@ -13385,10 +13385,10 @@
         <v>45717</v>
       </c>
       <c r="G270" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H270" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I270" s="11" t="s">
         <v>445</v>
@@ -13417,10 +13417,10 @@
         <v>45717</v>
       </c>
       <c r="G271" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H271" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I271" s="11" t="s">
         <v>445</v>
@@ -13449,10 +13449,10 @@
         <v>45717</v>
       </c>
       <c r="G272" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H272" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I272" s="11" t="s">
         <v>445</v>
@@ -13481,10 +13481,10 @@
         <v>45717</v>
       </c>
       <c r="G273" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H273" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I273" s="11" t="s">
         <v>445</v>
@@ -13513,10 +13513,10 @@
         <v>45717</v>
       </c>
       <c r="G274" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H274" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I274" s="11" t="s">
         <v>445</v>
@@ -13545,10 +13545,10 @@
         <v>45717</v>
       </c>
       <c r="G275" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H275" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I275" s="11" t="s">
         <v>445</v>
@@ -13577,10 +13577,10 @@
         <v>45717</v>
       </c>
       <c r="G276" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H276" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I276" s="11" t="s">
         <v>445</v>
@@ -13609,10 +13609,10 @@
         <v>45717</v>
       </c>
       <c r="G277" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H277" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I277" s="11" t="s">
         <v>445</v>
@@ -13641,10 +13641,10 @@
         <v>45717</v>
       </c>
       <c r="G278" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H278" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I278" s="11" t="s">
         <v>445</v>
@@ -13673,10 +13673,10 @@
         <v>45717</v>
       </c>
       <c r="G279" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H279" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I279" s="11" t="s">
         <v>445</v>
@@ -13705,10 +13705,10 @@
         <v>45717</v>
       </c>
       <c r="G280" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H280" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I280" s="11" t="s">
         <v>445</v>
@@ -13737,10 +13737,10 @@
         <v>45717</v>
       </c>
       <c r="G281" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H281" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I281" s="11" t="s">
         <v>445</v>
@@ -13769,10 +13769,10 @@
         <v>45717</v>
       </c>
       <c r="G282" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H282" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I282" s="11" t="s">
         <v>445</v>
@@ -13801,10 +13801,10 @@
         <v>45717</v>
       </c>
       <c r="G283" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H283" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I283" s="11" t="s">
         <v>445</v>
@@ -13833,10 +13833,10 @@
         <v>45717</v>
       </c>
       <c r="G284" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H284" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I284" s="11" t="s">
         <v>445</v>
@@ -13865,10 +13865,10 @@
         <v>45717</v>
       </c>
       <c r="G285" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H285" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I285" s="11" t="s">
         <v>445</v>
@@ -13897,10 +13897,10 @@
         <v>45717</v>
       </c>
       <c r="G286" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H286" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I286" s="11" t="s">
         <v>445</v>
@@ -13929,10 +13929,10 @@
         <v>45717</v>
       </c>
       <c r="G287" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H287" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I287" s="11" t="s">
         <v>445</v>
@@ -13961,10 +13961,10 @@
         <v>45717</v>
       </c>
       <c r="G288" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H288" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I288" s="11" t="s">
         <v>445</v>
@@ -13993,10 +13993,10 @@
         <v>45717</v>
       </c>
       <c r="G289" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H289" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I289" s="11" t="s">
         <v>445</v>
@@ -14025,10 +14025,10 @@
         <v>45717</v>
       </c>
       <c r="G290" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H290" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I290" s="11" t="s">
         <v>445</v>
@@ -14057,10 +14057,10 @@
         <v>45717</v>
       </c>
       <c r="G291" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H291" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I291" s="11" t="s">
         <v>445</v>
@@ -14089,10 +14089,10 @@
         <v>45717</v>
       </c>
       <c r="G292" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H292" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I292" s="11" t="s">
         <v>445</v>
@@ -14121,10 +14121,10 @@
         <v>45717</v>
       </c>
       <c r="G293" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H293" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I293" s="11" t="s">
         <v>445</v>
@@ -14153,10 +14153,10 @@
         <v>45717</v>
       </c>
       <c r="G294" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H294" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I294" s="11" t="s">
         <v>445</v>
@@ -14185,10 +14185,10 @@
         <v>45717</v>
       </c>
       <c r="G295" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H295" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I295" s="11" t="s">
         <v>445</v>
@@ -14217,10 +14217,10 @@
         <v>45717</v>
       </c>
       <c r="G296" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H296" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I296" s="11" t="s">
         <v>445</v>
@@ -14249,10 +14249,10 @@
         <v>45717</v>
       </c>
       <c r="G297" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H297" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I297" s="11" t="s">
         <v>445</v>
@@ -14281,10 +14281,10 @@
         <v>45717</v>
       </c>
       <c r="G298" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H298" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I298" s="11" t="s">
         <v>445</v>
@@ -14313,10 +14313,10 @@
         <v>45717</v>
       </c>
       <c r="G299" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H299" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I299" s="11" t="s">
         <v>445</v>
@@ -14345,10 +14345,10 @@
         <v>45717</v>
       </c>
       <c r="G300" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H300" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I300" s="11" t="s">
         <v>445</v>
@@ -14377,10 +14377,10 @@
         <v>45717</v>
       </c>
       <c r="G301" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H301" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I301" s="11" t="s">
         <v>445</v>
@@ -14409,10 +14409,10 @@
         <v>45717</v>
       </c>
       <c r="G302" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H302" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I302" s="11" t="s">
         <v>445</v>
@@ -14441,10 +14441,10 @@
         <v>45717</v>
       </c>
       <c r="G303" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H303" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I303" s="11" t="s">
         <v>445</v>
@@ -14473,10 +14473,10 @@
         <v>45717</v>
       </c>
       <c r="G304" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H304" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I304" s="11" t="s">
         <v>445</v>
@@ -14505,10 +14505,10 @@
         <v>45717</v>
       </c>
       <c r="G305" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H305" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I305" s="11" t="s">
         <v>445</v>
@@ -14537,10 +14537,10 @@
         <v>45717</v>
       </c>
       <c r="G306" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H306" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I306" s="11" t="s">
         <v>445</v>
@@ -14569,10 +14569,10 @@
         <v>45717</v>
       </c>
       <c r="G307" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H307" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I307" s="11" t="s">
         <v>445</v>
@@ -14601,10 +14601,10 @@
         <v>45717</v>
       </c>
       <c r="G308" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H308" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I308" s="11" t="s">
         <v>445</v>
@@ -14633,10 +14633,10 @@
         <v>45717</v>
       </c>
       <c r="G309" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H309" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I309" s="11" t="s">
         <v>445</v>
@@ -14665,10 +14665,10 @@
         <v>45717</v>
       </c>
       <c r="G310" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H310" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I310" s="11" t="s">
         <v>445</v>
@@ -14697,10 +14697,10 @@
         <v>45717</v>
       </c>
       <c r="G311" s="10">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H311" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I311" s="11" t="s">
         <v>445</v>
@@ -15035,7 +15035,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IQ118"/>
+  <dimension ref="A1:IQ119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -20336,754 +20336,754 @@
         <v>256</v>
       </c>
       <c r="B8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="C8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="D8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="E8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="F8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="G8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="I8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="J8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="K8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="L8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="M8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="N8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="O8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="P8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="Q8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="R8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="S8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="T8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="U8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="V8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="W8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="X8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="Y8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="Z8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AA8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AB8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AC8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AD8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AE8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AF8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AG8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AH8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AI8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AJ8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AK8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AL8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AM8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AN8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AO8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AP8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AQ8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AR8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AS8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AT8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AU8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AV8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AW8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AX8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AY8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AZ8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="BA8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="BB8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="BC8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="BD8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="BE8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="BF8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="BG8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="BH8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="BI8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="BJ8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="BK8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="BL8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="BM8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="BN8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="BO8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="BP8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="BQ8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="BR8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="BS8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="BT8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="BU8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="BV8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="BW8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="BX8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="BY8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="BZ8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="CA8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="CB8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="CC8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="CD8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="CE8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="CF8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="CG8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="CH8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="CI8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="CJ8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="CK8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="CL8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="CM8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="CN8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="CO8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="CP8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="CQ8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="CR8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="CS8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="CT8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="CU8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="CV8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="CW8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="CX8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="CY8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="CZ8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="DA8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="DB8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="DC8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="DD8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="DE8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="DF8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="DG8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="DH8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="DI8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="DJ8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="DK8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="DL8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="DM8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="DN8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="DO8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="DP8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="DQ8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="DR8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="DS8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="DT8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="DU8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="DV8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="DW8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="DX8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="DY8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="DZ8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="EA8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="EB8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="EC8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="ED8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="EE8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="EF8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="EG8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="EH8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="EI8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="EJ8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="EK8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="EL8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="EM8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="EN8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="EO8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="EP8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="EQ8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="ER8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="ES8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="ET8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="EU8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="EV8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="EW8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="EX8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="EY8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="EZ8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="FA8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="FB8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="FC8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="FD8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="FE8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="FF8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="FG8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="FH8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="FI8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="FJ8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="FK8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="FL8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="FM8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="FN8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="FO8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="FP8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="FQ8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="FR8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="FS8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="FT8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="FU8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="FV8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="FW8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="FX8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="FY8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="FZ8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="GA8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="GB8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="GC8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="GD8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="GE8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="GF8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="GG8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="GH8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="GI8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="GJ8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="GK8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="GL8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="GM8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="GN8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="GO8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="GP8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="GQ8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="GR8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="GS8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="GT8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="GU8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="GV8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="GW8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="GX8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="GY8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="GZ8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="HA8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="HB8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="HC8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="HD8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="HE8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="HF8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="HG8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="HH8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="HI8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="HJ8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="HK8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="HL8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="HM8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="HN8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="HO8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="HP8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="HQ8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="HR8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="HS8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="HT8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="HU8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="HV8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="HW8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="HX8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="HY8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="HZ8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="IA8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="IB8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="IC8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="ID8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="IE8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="IF8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="IG8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="IH8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="II8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="IJ8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="IK8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="IL8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="IM8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="IN8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="IO8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="IP8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="IQ8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
     </row>
     <row r="9" spans="1:251" x14ac:dyDescent="0.2">
@@ -21091,754 +21091,754 @@
         <v>257</v>
       </c>
       <c r="B9" s="1">
+        <v>73</v>
+      </c>
+      <c r="C9" s="1">
+        <v>73</v>
+      </c>
+      <c r="D9" s="1">
+        <v>73</v>
+      </c>
+      <c r="E9" s="1">
+        <v>73</v>
+      </c>
+      <c r="F9" s="1">
+        <v>73</v>
+      </c>
+      <c r="G9" s="1">
+        <v>73</v>
+      </c>
+      <c r="H9" s="1">
+        <v>73</v>
+      </c>
+      <c r="I9" s="1">
+        <v>73</v>
+      </c>
+      <c r="J9" s="1">
+        <v>73</v>
+      </c>
+      <c r="K9" s="1">
+        <v>73</v>
+      </c>
+      <c r="L9" s="1">
+        <v>73</v>
+      </c>
+      <c r="M9" s="1">
+        <v>73</v>
+      </c>
+      <c r="N9" s="1">
+        <v>109</v>
+      </c>
+      <c r="O9" s="1">
+        <v>73</v>
+      </c>
+      <c r="P9" s="1">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>73</v>
+      </c>
+      <c r="R9" s="1">
+        <v>73</v>
+      </c>
+      <c r="S9" s="1">
+        <v>73</v>
+      </c>
+      <c r="T9" s="1">
+        <v>73</v>
+      </c>
+      <c r="U9" s="1">
+        <v>73</v>
+      </c>
+      <c r="V9" s="1">
+        <v>73</v>
+      </c>
+      <c r="W9" s="1">
+        <v>73</v>
+      </c>
+      <c r="X9" s="1">
+        <v>73</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>73</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>109</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>73</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>73</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>73</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>73</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>73</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>73</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>73</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>73</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>73</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>73</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>109</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>73</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>73</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>73</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>73</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>73</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>73</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>73</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>73</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>73</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>73</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>73</v>
+      </c>
+      <c r="AX9" s="1">
+        <v>109</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>73</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>73</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>73</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>73</v>
+      </c>
+      <c r="BC9" s="1">
+        <v>73</v>
+      </c>
+      <c r="BD9" s="1">
+        <v>73</v>
+      </c>
+      <c r="BE9" s="1">
+        <v>73</v>
+      </c>
+      <c r="BF9" s="1">
+        <v>73</v>
+      </c>
+      <c r="BG9" s="1">
+        <v>73</v>
+      </c>
+      <c r="BH9" s="1">
+        <v>73</v>
+      </c>
+      <c r="BI9" s="1">
+        <v>73</v>
+      </c>
+      <c r="BJ9" s="1">
+        <v>69</v>
+      </c>
+      <c r="BK9" s="1">
+        <v>69</v>
+      </c>
+      <c r="BL9" s="1">
+        <v>69</v>
+      </c>
+      <c r="BM9" s="1">
+        <v>69</v>
+      </c>
+      <c r="BN9" s="1">
+        <v>69</v>
+      </c>
+      <c r="BO9" s="1">
+        <v>69</v>
+      </c>
+      <c r="BP9" s="1">
+        <v>69</v>
+      </c>
+      <c r="BQ9" s="1">
+        <v>69</v>
+      </c>
+      <c r="BR9" s="1">
+        <v>69</v>
+      </c>
+      <c r="BS9" s="1">
+        <v>69</v>
+      </c>
+      <c r="BT9" s="1">
+        <v>69</v>
+      </c>
+      <c r="BU9" s="1">
+        <v>69</v>
+      </c>
+      <c r="BV9" s="1">
+        <v>105</v>
+      </c>
+      <c r="BW9" s="1">
+        <v>69</v>
+      </c>
+      <c r="BX9" s="1">
+        <v>69</v>
+      </c>
+      <c r="BY9" s="1">
+        <v>69</v>
+      </c>
+      <c r="BZ9" s="1">
+        <v>69</v>
+      </c>
+      <c r="CA9" s="1">
+        <v>69</v>
+      </c>
+      <c r="CB9" s="1">
+        <v>69</v>
+      </c>
+      <c r="CC9" s="1">
+        <v>69</v>
+      </c>
+      <c r="CD9" s="1">
+        <v>69</v>
+      </c>
+      <c r="CE9" s="1">
+        <v>69</v>
+      </c>
+      <c r="CF9" s="1">
+        <v>69</v>
+      </c>
+      <c r="CG9" s="1">
+        <v>69</v>
+      </c>
+      <c r="CH9" s="1">
+        <v>105</v>
+      </c>
+      <c r="CI9" s="1">
+        <v>69</v>
+      </c>
+      <c r="CJ9" s="1">
+        <v>69</v>
+      </c>
+      <c r="CK9" s="1">
+        <v>69</v>
+      </c>
+      <c r="CL9" s="1">
+        <v>69</v>
+      </c>
+      <c r="CM9" s="1">
+        <v>69</v>
+      </c>
+      <c r="CN9" s="1">
+        <v>69</v>
+      </c>
+      <c r="CO9" s="1">
+        <v>69</v>
+      </c>
+      <c r="CP9" s="1">
+        <v>69</v>
+      </c>
+      <c r="CQ9" s="1">
+        <v>69</v>
+      </c>
+      <c r="CR9" s="1">
+        <v>69</v>
+      </c>
+      <c r="CS9" s="1">
+        <v>69</v>
+      </c>
+      <c r="CT9" s="1">
+        <v>105</v>
+      </c>
+      <c r="CU9" s="1">
+        <v>69</v>
+      </c>
+      <c r="CV9" s="1">
+        <v>69</v>
+      </c>
+      <c r="CW9" s="1">
+        <v>69</v>
+      </c>
+      <c r="CX9" s="1">
+        <v>69</v>
+      </c>
+      <c r="CY9" s="1">
+        <v>69</v>
+      </c>
+      <c r="CZ9" s="1">
+        <v>69</v>
+      </c>
+      <c r="DA9" s="1">
+        <v>69</v>
+      </c>
+      <c r="DB9" s="1">
+        <v>69</v>
+      </c>
+      <c r="DC9" s="1">
+        <v>69</v>
+      </c>
+      <c r="DD9" s="1">
+        <v>69</v>
+      </c>
+      <c r="DE9" s="1">
+        <v>69</v>
+      </c>
+      <c r="DF9" s="1">
+        <v>105</v>
+      </c>
+      <c r="DG9" s="1">
+        <v>69</v>
+      </c>
+      <c r="DH9" s="1">
+        <v>69</v>
+      </c>
+      <c r="DI9" s="1">
+        <v>69</v>
+      </c>
+      <c r="DJ9" s="1">
+        <v>69</v>
+      </c>
+      <c r="DK9" s="1">
+        <v>69</v>
+      </c>
+      <c r="DL9" s="1">
+        <v>69</v>
+      </c>
+      <c r="DM9" s="1">
+        <v>69</v>
+      </c>
+      <c r="DN9" s="1">
+        <v>69</v>
+      </c>
+      <c r="DO9" s="1">
+        <v>69</v>
+      </c>
+      <c r="DP9" s="1">
+        <v>69</v>
+      </c>
+      <c r="DQ9" s="1">
+        <v>69</v>
+      </c>
+      <c r="DR9" s="1">
         <v>72</v>
       </c>
-      <c r="C9" s="1">
+      <c r="DS9" s="1">
         <v>72</v>
       </c>
-      <c r="D9" s="1">
+      <c r="DT9" s="1">
         <v>72</v>
       </c>
-      <c r="E9" s="1">
+      <c r="DU9" s="1">
         <v>72</v>
       </c>
-      <c r="F9" s="1">
+      <c r="DV9" s="1">
         <v>72</v>
       </c>
-      <c r="G9" s="1">
+      <c r="DW9" s="1">
         <v>72</v>
       </c>
-      <c r="H9" s="1">
+      <c r="DX9" s="1">
         <v>72</v>
       </c>
-      <c r="I9" s="1">
+      <c r="DY9" s="1">
         <v>72</v>
       </c>
-      <c r="J9" s="1">
+      <c r="DZ9" s="1">
         <v>72</v>
       </c>
-      <c r="K9" s="1">
+      <c r="EA9" s="1">
         <v>72</v>
       </c>
-      <c r="L9" s="1">
+      <c r="EB9" s="1">
         <v>72</v>
       </c>
-      <c r="M9" s="1">
+      <c r="EC9" s="1">
         <v>72</v>
       </c>
-      <c r="N9" s="1">
+      <c r="ED9" s="1">
         <v>108</v>
       </c>
-      <c r="O9" s="1">
+      <c r="EE9" s="1">
         <v>72</v>
       </c>
-      <c r="P9" s="1">
+      <c r="EF9" s="1">
         <v>72</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="EG9" s="1">
         <v>72</v>
       </c>
-      <c r="R9" s="1">
+      <c r="EH9" s="1">
         <v>72</v>
       </c>
-      <c r="S9" s="1">
+      <c r="EI9" s="1">
         <v>72</v>
       </c>
-      <c r="T9" s="1">
+      <c r="EJ9" s="1">
         <v>72</v>
       </c>
-      <c r="U9" s="1">
+      <c r="EK9" s="1">
         <v>72</v>
       </c>
-      <c r="V9" s="1">
+      <c r="EL9" s="1">
         <v>72</v>
       </c>
-      <c r="W9" s="1">
+      <c r="EM9" s="1">
         <v>72</v>
       </c>
-      <c r="X9" s="1">
+      <c r="EN9" s="1">
         <v>72</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="EO9" s="1">
         <v>72</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="EP9" s="1">
         <v>108</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="EQ9" s="1">
         <v>72</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="ER9" s="1">
         <v>72</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="ES9" s="1">
         <v>72</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="ET9" s="1">
         <v>72</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="EU9" s="1">
         <v>72</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="EV9" s="1">
         <v>72</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="EW9" s="1">
         <v>72</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="EX9" s="1">
         <v>72</v>
       </c>
-      <c r="AI9" s="1">
+      <c r="EY9" s="1">
         <v>72</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="EZ9" s="1">
         <v>72</v>
       </c>
-      <c r="AK9" s="1">
+      <c r="FA9" s="1">
         <v>72</v>
       </c>
-      <c r="AL9" s="1">
+      <c r="FB9" s="1">
         <v>108</v>
       </c>
-      <c r="AM9" s="1">
+      <c r="FC9" s="1">
         <v>72</v>
       </c>
-      <c r="AN9" s="1">
+      <c r="FD9" s="1">
         <v>72</v>
       </c>
-      <c r="AO9" s="1">
+      <c r="FE9" s="1">
         <v>72</v>
       </c>
-      <c r="AP9" s="1">
+      <c r="FF9" s="1">
         <v>72</v>
       </c>
-      <c r="AQ9" s="1">
+      <c r="FG9" s="1">
         <v>72</v>
       </c>
-      <c r="AR9" s="1">
+      <c r="FH9" s="1">
         <v>72</v>
       </c>
-      <c r="AS9" s="1">
+      <c r="FI9" s="1">
         <v>72</v>
       </c>
-      <c r="AT9" s="1">
+      <c r="FJ9" s="1">
         <v>72</v>
       </c>
-      <c r="AU9" s="1">
+      <c r="FK9" s="1">
         <v>72</v>
       </c>
-      <c r="AV9" s="1">
+      <c r="FL9" s="1">
         <v>72</v>
       </c>
-      <c r="AW9" s="1">
+      <c r="FM9" s="1">
         <v>72</v>
       </c>
-      <c r="AX9" s="1">
+      <c r="FN9" s="1">
         <v>108</v>
       </c>
-      <c r="AY9" s="1">
+      <c r="FO9" s="1">
         <v>72</v>
       </c>
-      <c r="AZ9" s="1">
+      <c r="FP9" s="1">
         <v>72</v>
       </c>
-      <c r="BA9" s="1">
+      <c r="FQ9" s="1">
         <v>72</v>
       </c>
-      <c r="BB9" s="1">
+      <c r="FR9" s="1">
         <v>72</v>
       </c>
-      <c r="BC9" s="1">
+      <c r="FS9" s="1">
         <v>72</v>
       </c>
-      <c r="BD9" s="1">
+      <c r="FT9" s="1">
         <v>72</v>
       </c>
-      <c r="BE9" s="1">
+      <c r="FU9" s="1">
         <v>72</v>
       </c>
-      <c r="BF9" s="1">
+      <c r="FV9" s="1">
         <v>72</v>
       </c>
-      <c r="BG9" s="1">
+      <c r="FW9" s="1">
         <v>72</v>
       </c>
-      <c r="BH9" s="1">
+      <c r="FX9" s="1">
         <v>72</v>
       </c>
-      <c r="BI9" s="1">
+      <c r="FY9" s="1">
         <v>72</v>
       </c>
-      <c r="BJ9" s="1">
-        <v>68</v>
-      </c>
-      <c r="BK9" s="1">
-        <v>68</v>
-      </c>
-      <c r="BL9" s="1">
-        <v>68</v>
-      </c>
-      <c r="BM9" s="1">
-        <v>68</v>
-      </c>
-      <c r="BN9" s="1">
-        <v>68</v>
-      </c>
-      <c r="BO9" s="1">
-        <v>68</v>
-      </c>
-      <c r="BP9" s="1">
-        <v>68</v>
-      </c>
-      <c r="BQ9" s="1">
-        <v>68</v>
-      </c>
-      <c r="BR9" s="1">
-        <v>68</v>
-      </c>
-      <c r="BS9" s="1">
-        <v>68</v>
-      </c>
-      <c r="BT9" s="1">
-        <v>68</v>
-      </c>
-      <c r="BU9" s="1">
-        <v>68</v>
-      </c>
-      <c r="BV9" s="1">
-        <v>104</v>
-      </c>
-      <c r="BW9" s="1">
-        <v>68</v>
-      </c>
-      <c r="BX9" s="1">
-        <v>68</v>
-      </c>
-      <c r="BY9" s="1">
-        <v>68</v>
-      </c>
-      <c r="BZ9" s="1">
-        <v>68</v>
-      </c>
-      <c r="CA9" s="1">
-        <v>68</v>
-      </c>
-      <c r="CB9" s="1">
-        <v>68</v>
-      </c>
-      <c r="CC9" s="1">
-        <v>68</v>
-      </c>
-      <c r="CD9" s="1">
-        <v>68</v>
-      </c>
-      <c r="CE9" s="1">
-        <v>68</v>
-      </c>
-      <c r="CF9" s="1">
-        <v>68</v>
-      </c>
-      <c r="CG9" s="1">
-        <v>68</v>
-      </c>
-      <c r="CH9" s="1">
-        <v>104</v>
-      </c>
-      <c r="CI9" s="1">
-        <v>68</v>
-      </c>
-      <c r="CJ9" s="1">
-        <v>68</v>
-      </c>
-      <c r="CK9" s="1">
-        <v>68</v>
-      </c>
-      <c r="CL9" s="1">
-        <v>68</v>
-      </c>
-      <c r="CM9" s="1">
-        <v>68</v>
-      </c>
-      <c r="CN9" s="1">
-        <v>68</v>
-      </c>
-      <c r="CO9" s="1">
-        <v>68</v>
-      </c>
-      <c r="CP9" s="1">
-        <v>68</v>
-      </c>
-      <c r="CQ9" s="1">
-        <v>68</v>
-      </c>
-      <c r="CR9" s="1">
-        <v>68</v>
-      </c>
-      <c r="CS9" s="1">
-        <v>68</v>
-      </c>
-      <c r="CT9" s="1">
-        <v>104</v>
-      </c>
-      <c r="CU9" s="1">
-        <v>68</v>
-      </c>
-      <c r="CV9" s="1">
-        <v>68</v>
-      </c>
-      <c r="CW9" s="1">
-        <v>68</v>
-      </c>
-      <c r="CX9" s="1">
-        <v>68</v>
-      </c>
-      <c r="CY9" s="1">
-        <v>68</v>
-      </c>
-      <c r="CZ9" s="1">
-        <v>68</v>
-      </c>
-      <c r="DA9" s="1">
-        <v>68</v>
-      </c>
-      <c r="DB9" s="1">
-        <v>68</v>
-      </c>
-      <c r="DC9" s="1">
-        <v>68</v>
-      </c>
-      <c r="DD9" s="1">
-        <v>68</v>
-      </c>
-      <c r="DE9" s="1">
-        <v>68</v>
-      </c>
-      <c r="DF9" s="1">
-        <v>104</v>
-      </c>
-      <c r="DG9" s="1">
-        <v>68</v>
-      </c>
-      <c r="DH9" s="1">
-        <v>68</v>
-      </c>
-      <c r="DI9" s="1">
-        <v>68</v>
-      </c>
-      <c r="DJ9" s="1">
-        <v>68</v>
-      </c>
-      <c r="DK9" s="1">
-        <v>68</v>
-      </c>
-      <c r="DL9" s="1">
-        <v>68</v>
-      </c>
-      <c r="DM9" s="1">
-        <v>68</v>
-      </c>
-      <c r="DN9" s="1">
-        <v>68</v>
-      </c>
-      <c r="DO9" s="1">
-        <v>68</v>
-      </c>
-      <c r="DP9" s="1">
-        <v>68</v>
-      </c>
-      <c r="DQ9" s="1">
-        <v>68</v>
-      </c>
-      <c r="DR9" s="1">
-        <v>71</v>
-      </c>
-      <c r="DS9" s="1">
-        <v>71</v>
-      </c>
-      <c r="DT9" s="1">
-        <v>71</v>
-      </c>
-      <c r="DU9" s="1">
-        <v>71</v>
-      </c>
-      <c r="DV9" s="1">
-        <v>71</v>
-      </c>
-      <c r="DW9" s="1">
-        <v>71</v>
-      </c>
-      <c r="DX9" s="1">
-        <v>71</v>
-      </c>
-      <c r="DY9" s="1">
-        <v>71</v>
-      </c>
-      <c r="DZ9" s="1">
-        <v>71</v>
-      </c>
-      <c r="EA9" s="1">
-        <v>71</v>
-      </c>
-      <c r="EB9" s="1">
-        <v>71</v>
-      </c>
-      <c r="EC9" s="1">
-        <v>71</v>
-      </c>
-      <c r="ED9" s="1">
-        <v>107</v>
-      </c>
-      <c r="EE9" s="1">
-        <v>71</v>
-      </c>
-      <c r="EF9" s="1">
-        <v>71</v>
-      </c>
-      <c r="EG9" s="1">
-        <v>71</v>
-      </c>
-      <c r="EH9" s="1">
-        <v>71</v>
-      </c>
-      <c r="EI9" s="1">
-        <v>71</v>
-      </c>
-      <c r="EJ9" s="1">
-        <v>71</v>
-      </c>
-      <c r="EK9" s="1">
-        <v>71</v>
-      </c>
-      <c r="EL9" s="1">
-        <v>71</v>
-      </c>
-      <c r="EM9" s="1">
-        <v>71</v>
-      </c>
-      <c r="EN9" s="1">
-        <v>71</v>
-      </c>
-      <c r="EO9" s="1">
-        <v>71</v>
-      </c>
-      <c r="EP9" s="1">
-        <v>107</v>
-      </c>
-      <c r="EQ9" s="1">
-        <v>71</v>
-      </c>
-      <c r="ER9" s="1">
-        <v>71</v>
-      </c>
-      <c r="ES9" s="1">
-        <v>71</v>
-      </c>
-      <c r="ET9" s="1">
-        <v>71</v>
-      </c>
-      <c r="EU9" s="1">
-        <v>71</v>
-      </c>
-      <c r="EV9" s="1">
-        <v>71</v>
-      </c>
-      <c r="EW9" s="1">
-        <v>71</v>
-      </c>
-      <c r="EX9" s="1">
-        <v>71</v>
-      </c>
-      <c r="EY9" s="1">
-        <v>71</v>
-      </c>
-      <c r="EZ9" s="1">
-        <v>71</v>
-      </c>
-      <c r="FA9" s="1">
-        <v>71</v>
-      </c>
-      <c r="FB9" s="1">
-        <v>107</v>
-      </c>
-      <c r="FC9" s="1">
-        <v>71</v>
-      </c>
-      <c r="FD9" s="1">
-        <v>71</v>
-      </c>
-      <c r="FE9" s="1">
-        <v>71</v>
-      </c>
-      <c r="FF9" s="1">
-        <v>71</v>
-      </c>
-      <c r="FG9" s="1">
-        <v>71</v>
-      </c>
-      <c r="FH9" s="1">
-        <v>71</v>
-      </c>
-      <c r="FI9" s="1">
-        <v>71</v>
-      </c>
-      <c r="FJ9" s="1">
-        <v>71</v>
-      </c>
-      <c r="FK9" s="1">
-        <v>71</v>
-      </c>
-      <c r="FL9" s="1">
-        <v>71</v>
-      </c>
-      <c r="FM9" s="1">
-        <v>71</v>
-      </c>
-      <c r="FN9" s="1">
-        <v>107</v>
-      </c>
-      <c r="FO9" s="1">
-        <v>71</v>
-      </c>
-      <c r="FP9" s="1">
-        <v>71</v>
-      </c>
-      <c r="FQ9" s="1">
-        <v>71</v>
-      </c>
-      <c r="FR9" s="1">
-        <v>71</v>
-      </c>
-      <c r="FS9" s="1">
-        <v>71</v>
-      </c>
-      <c r="FT9" s="1">
-        <v>71</v>
-      </c>
-      <c r="FU9" s="1">
-        <v>71</v>
-      </c>
-      <c r="FV9" s="1">
-        <v>71</v>
-      </c>
-      <c r="FW9" s="1">
-        <v>71</v>
-      </c>
-      <c r="FX9" s="1">
-        <v>71</v>
-      </c>
-      <c r="FY9" s="1">
-        <v>71</v>
-      </c>
       <c r="FZ9" s="1">
+        <v>3</v>
+      </c>
+      <c r="GA9" s="1">
+        <v>3</v>
+      </c>
+      <c r="GB9" s="1">
+        <v>3</v>
+      </c>
+      <c r="GC9" s="1">
+        <v>3</v>
+      </c>
+      <c r="GD9" s="1">
+        <v>3</v>
+      </c>
+      <c r="GE9" s="1">
+        <v>3</v>
+      </c>
+      <c r="GF9" s="1">
+        <v>3</v>
+      </c>
+      <c r="GG9" s="1">
+        <v>3</v>
+      </c>
+      <c r="GH9" s="1">
+        <v>3</v>
+      </c>
+      <c r="GI9" s="1">
+        <v>3</v>
+      </c>
+      <c r="GJ9" s="1">
+        <v>3</v>
+      </c>
+      <c r="GK9" s="1">
+        <v>3</v>
+      </c>
+      <c r="GL9" s="1">
+        <v>3</v>
+      </c>
+      <c r="GM9" s="1">
+        <v>3</v>
+      </c>
+      <c r="GN9" s="1">
+        <v>3</v>
+      </c>
+      <c r="GO9" s="1">
+        <v>3</v>
+      </c>
+      <c r="GP9" s="1">
+        <v>3</v>
+      </c>
+      <c r="GQ9" s="1">
+        <v>3</v>
+      </c>
+      <c r="GR9" s="1">
+        <v>3</v>
+      </c>
+      <c r="GS9" s="1">
+        <v>3</v>
+      </c>
+      <c r="GT9" s="1">
+        <v>3</v>
+      </c>
+      <c r="GU9" s="1">
+        <v>3</v>
+      </c>
+      <c r="GV9" s="1">
+        <v>3</v>
+      </c>
+      <c r="GW9" s="1">
+        <v>3</v>
+      </c>
+      <c r="GX9" s="1">
+        <v>3</v>
+      </c>
+      <c r="GY9" s="1">
+        <v>3</v>
+      </c>
+      <c r="GZ9" s="1">
+        <v>3</v>
+      </c>
+      <c r="HA9" s="1">
+        <v>3</v>
+      </c>
+      <c r="HB9" s="1">
+        <v>3</v>
+      </c>
+      <c r="HC9" s="1">
+        <v>3</v>
+      </c>
+      <c r="HD9" s="1">
+        <v>3</v>
+      </c>
+      <c r="HE9" s="1">
+        <v>3</v>
+      </c>
+      <c r="HF9" s="1">
+        <v>3</v>
+      </c>
+      <c r="HG9" s="1">
+        <v>3</v>
+      </c>
+      <c r="HH9" s="1">
+        <v>3</v>
+      </c>
+      <c r="HI9" s="1">
+        <v>3</v>
+      </c>
+      <c r="HJ9" s="1">
+        <v>3</v>
+      </c>
+      <c r="HK9" s="1">
+        <v>3</v>
+      </c>
+      <c r="HL9" s="1">
+        <v>3</v>
+      </c>
+      <c r="HM9" s="1">
+        <v>3</v>
+      </c>
+      <c r="HN9" s="1">
+        <v>3</v>
+      </c>
+      <c r="HO9" s="1">
+        <v>3</v>
+      </c>
+      <c r="HP9" s="1">
+        <v>3</v>
+      </c>
+      <c r="HQ9" s="1">
+        <v>3</v>
+      </c>
+      <c r="HR9" s="1">
+        <v>3</v>
+      </c>
+      <c r="HS9" s="1">
+        <v>3</v>
+      </c>
+      <c r="HT9" s="1">
+        <v>3</v>
+      </c>
+      <c r="HU9" s="1">
+        <v>3</v>
+      </c>
+      <c r="HV9" s="1">
+        <v>3</v>
+      </c>
+      <c r="HW9" s="1">
+        <v>3</v>
+      </c>
+      <c r="HX9" s="1">
+        <v>3</v>
+      </c>
+      <c r="HY9" s="1">
+        <v>3</v>
+      </c>
+      <c r="HZ9" s="1">
+        <v>3</v>
+      </c>
+      <c r="IA9" s="1">
+        <v>3</v>
+      </c>
+      <c r="IB9" s="1">
+        <v>3</v>
+      </c>
+      <c r="IC9" s="1">
+        <v>3</v>
+      </c>
+      <c r="ID9" s="1">
+        <v>3</v>
+      </c>
+      <c r="IE9" s="1">
+        <v>3</v>
+      </c>
+      <c r="IF9" s="1">
+        <v>3</v>
+      </c>
+      <c r="IG9" s="1">
+        <v>3</v>
+      </c>
+      <c r="IH9" s="1">
         <v>2</v>
       </c>
-      <c r="GA9" s="1">
+      <c r="II9" s="1">
         <v>2</v>
       </c>
-      <c r="GB9" s="1">
+      <c r="IJ9" s="1">
         <v>2</v>
       </c>
-      <c r="GC9" s="1">
+      <c r="IK9" s="1">
         <v>2</v>
       </c>
-      <c r="GD9" s="1">
+      <c r="IL9" s="1">
         <v>2</v>
       </c>
-      <c r="GE9" s="1">
+      <c r="IM9" s="1">
         <v>2</v>
       </c>
-      <c r="GF9" s="1">
+      <c r="IN9" s="1">
         <v>2</v>
       </c>
-      <c r="GG9" s="1">
+      <c r="IO9" s="1">
         <v>2</v>
       </c>
-      <c r="GH9" s="1">
+      <c r="IP9" s="1">
         <v>2</v>
       </c>
-      <c r="GI9" s="1">
+      <c r="IQ9" s="1">
         <v>2</v>
-      </c>
-      <c r="GJ9" s="1">
-        <v>2</v>
-      </c>
-      <c r="GK9" s="1">
-        <v>2</v>
-      </c>
-      <c r="GL9" s="1">
-        <v>2</v>
-      </c>
-      <c r="GM9" s="1">
-        <v>2</v>
-      </c>
-      <c r="GN9" s="1">
-        <v>2</v>
-      </c>
-      <c r="GO9" s="1">
-        <v>2</v>
-      </c>
-      <c r="GP9" s="1">
-        <v>2</v>
-      </c>
-      <c r="GQ9" s="1">
-        <v>2</v>
-      </c>
-      <c r="GR9" s="1">
-        <v>2</v>
-      </c>
-      <c r="GS9" s="1">
-        <v>2</v>
-      </c>
-      <c r="GT9" s="1">
-        <v>2</v>
-      </c>
-      <c r="GU9" s="1">
-        <v>2</v>
-      </c>
-      <c r="GV9" s="1">
-        <v>2</v>
-      </c>
-      <c r="GW9" s="1">
-        <v>2</v>
-      </c>
-      <c r="GX9" s="1">
-        <v>2</v>
-      </c>
-      <c r="GY9" s="1">
-        <v>2</v>
-      </c>
-      <c r="GZ9" s="1">
-        <v>2</v>
-      </c>
-      <c r="HA9" s="1">
-        <v>2</v>
-      </c>
-      <c r="HB9" s="1">
-        <v>2</v>
-      </c>
-      <c r="HC9" s="1">
-        <v>2</v>
-      </c>
-      <c r="HD9" s="1">
-        <v>2</v>
-      </c>
-      <c r="HE9" s="1">
-        <v>2</v>
-      </c>
-      <c r="HF9" s="1">
-        <v>2</v>
-      </c>
-      <c r="HG9" s="1">
-        <v>2</v>
-      </c>
-      <c r="HH9" s="1">
-        <v>2</v>
-      </c>
-      <c r="HI9" s="1">
-        <v>2</v>
-      </c>
-      <c r="HJ9" s="1">
-        <v>2</v>
-      </c>
-      <c r="HK9" s="1">
-        <v>2</v>
-      </c>
-      <c r="HL9" s="1">
-        <v>2</v>
-      </c>
-      <c r="HM9" s="1">
-        <v>2</v>
-      </c>
-      <c r="HN9" s="1">
-        <v>2</v>
-      </c>
-      <c r="HO9" s="1">
-        <v>2</v>
-      </c>
-      <c r="HP9" s="1">
-        <v>2</v>
-      </c>
-      <c r="HQ9" s="1">
-        <v>2</v>
-      </c>
-      <c r="HR9" s="1">
-        <v>2</v>
-      </c>
-      <c r="HS9" s="1">
-        <v>2</v>
-      </c>
-      <c r="HT9" s="1">
-        <v>2</v>
-      </c>
-      <c r="HU9" s="1">
-        <v>2</v>
-      </c>
-      <c r="HV9" s="1">
-        <v>2</v>
-      </c>
-      <c r="HW9" s="1">
-        <v>2</v>
-      </c>
-      <c r="HX9" s="1">
-        <v>2</v>
-      </c>
-      <c r="HY9" s="1">
-        <v>2</v>
-      </c>
-      <c r="HZ9" s="1">
-        <v>2</v>
-      </c>
-      <c r="IA9" s="1">
-        <v>2</v>
-      </c>
-      <c r="IB9" s="1">
-        <v>2</v>
-      </c>
-      <c r="IC9" s="1">
-        <v>2</v>
-      </c>
-      <c r="ID9" s="1">
-        <v>2</v>
-      </c>
-      <c r="IE9" s="1">
-        <v>2</v>
-      </c>
-      <c r="IF9" s="1">
-        <v>2</v>
-      </c>
-      <c r="IG9" s="1">
-        <v>2</v>
-      </c>
-      <c r="IH9" s="1">
-        <v>1</v>
-      </c>
-      <c r="II9" s="1">
-        <v>1</v>
-      </c>
-      <c r="IJ9" s="1">
-        <v>1</v>
-      </c>
-      <c r="IK9" s="1">
-        <v>1</v>
-      </c>
-      <c r="IL9" s="1">
-        <v>1</v>
-      </c>
-      <c r="IM9" s="1">
-        <v>1</v>
-      </c>
-      <c r="IN9" s="1">
-        <v>1</v>
-      </c>
-      <c r="IO9" s="1">
-        <v>1</v>
-      </c>
-      <c r="IP9" s="1">
-        <v>1</v>
-      </c>
-      <c r="IQ9" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:251" x14ac:dyDescent="0.2">
@@ -62800,6 +62800,761 @@
       </c>
       <c r="IQ118" s="9">
         <v>-0.13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:251" x14ac:dyDescent="0.2">
+      <c r="A119" s="10">
+        <v>45809</v>
+      </c>
+      <c r="B119" s="8">
+        <v>143.19999999999999</v>
+      </c>
+      <c r="C119" s="8">
+        <v>137</v>
+      </c>
+      <c r="D119" s="8">
+        <v>265</v>
+      </c>
+      <c r="E119" s="8">
+        <v>97.5</v>
+      </c>
+      <c r="F119" s="8">
+        <v>143.30000000000001</v>
+      </c>
+      <c r="G119" s="8">
+        <v>121.2</v>
+      </c>
+      <c r="H119" s="8">
+        <v>165.2</v>
+      </c>
+      <c r="I119" s="8">
+        <v>129.6</v>
+      </c>
+      <c r="J119" s="8">
+        <v>79.7</v>
+      </c>
+      <c r="K119" s="8">
+        <v>125.7</v>
+      </c>
+      <c r="L119" s="8">
+        <v>171.4</v>
+      </c>
+      <c r="M119" s="8">
+        <v>157.69999999999999</v>
+      </c>
+      <c r="N119" s="8">
+        <v>139.9</v>
+      </c>
+      <c r="O119" s="8">
+        <v>138.1</v>
+      </c>
+      <c r="P119" s="8">
+        <v>207.9</v>
+      </c>
+      <c r="Q119" s="8">
+        <v>100.8</v>
+      </c>
+      <c r="R119" s="8">
+        <v>144.69999999999999</v>
+      </c>
+      <c r="S119" s="8">
+        <v>123.8</v>
+      </c>
+      <c r="T119" s="8">
+        <v>172.4</v>
+      </c>
+      <c r="U119" s="8">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="V119" s="8">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="W119" s="8">
+        <v>123.1</v>
+      </c>
+      <c r="X119" s="8">
+        <v>171.4</v>
+      </c>
+      <c r="Y119" s="8">
+        <v>149.30000000000001</v>
+      </c>
+      <c r="Z119" s="8">
+        <v>141.5</v>
+      </c>
+      <c r="AA119" s="8">
+        <v>136.80000000000001</v>
+      </c>
+      <c r="AB119" s="8">
+        <v>209.6</v>
+      </c>
+      <c r="AC119" s="8">
+        <v>97.6</v>
+      </c>
+      <c r="AD119" s="8">
+        <v>150.19999999999999</v>
+      </c>
+      <c r="AE119" s="8">
+        <v>120.9</v>
+      </c>
+      <c r="AF119" s="8">
+        <v>170</v>
+      </c>
+      <c r="AG119" s="8">
+        <v>130.5</v>
+      </c>
+      <c r="AH119" s="8">
+        <v>82.1</v>
+      </c>
+      <c r="AI119" s="8">
+        <v>130</v>
+      </c>
+      <c r="AJ119" s="8">
+        <v>174.3</v>
+      </c>
+      <c r="AK119" s="8">
+        <v>175</v>
+      </c>
+      <c r="AL119" s="8">
+        <v>144.9</v>
+      </c>
+      <c r="AM119" s="8">
+        <v>137.19999999999999</v>
+      </c>
+      <c r="AN119" s="8">
+        <v>295</v>
+      </c>
+      <c r="AO119" s="8">
+        <v>97.4</v>
+      </c>
+      <c r="AP119" s="8">
+        <v>140.80000000000001</v>
+      </c>
+      <c r="AQ119" s="8">
+        <v>121.4</v>
+      </c>
+      <c r="AR119" s="8">
+        <v>156.4</v>
+      </c>
+      <c r="AS119" s="8">
+        <v>129.1</v>
+      </c>
+      <c r="AT119" s="8">
+        <v>78.3</v>
+      </c>
+      <c r="AU119" s="8">
+        <v>121.3</v>
+      </c>
+      <c r="AV119" s="8">
+        <v>171.2</v>
+      </c>
+      <c r="AW119" s="8">
+        <v>152.80000000000001</v>
+      </c>
+      <c r="AX119" s="8">
+        <v>140</v>
+      </c>
+      <c r="AY119" s="8">
+        <v>137.30000000000001</v>
+      </c>
+      <c r="AZ119" s="8">
+        <v>186.9</v>
+      </c>
+      <c r="BA119" s="8">
+        <v>99.8</v>
+      </c>
+      <c r="BB119" s="8">
+        <v>151.4</v>
+      </c>
+      <c r="BC119" s="8">
+        <v>121.7</v>
+      </c>
+      <c r="BD119" s="8">
+        <v>173</v>
+      </c>
+      <c r="BE119" s="8">
+        <v>127.9</v>
+      </c>
+      <c r="BF119" s="8">
+        <v>82</v>
+      </c>
+      <c r="BG119" s="8">
+        <v>131.5</v>
+      </c>
+      <c r="BH119" s="8">
+        <v>176.6</v>
+      </c>
+      <c r="BI119" s="8">
+        <v>174.3</v>
+      </c>
+      <c r="BJ119" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="BK119" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="BL119" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="BM119" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="BN119" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BO119" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="BP119" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BQ119" s="8">
+        <v>-3.6</v>
+      </c>
+      <c r="BR119" s="8">
+        <v>1</v>
+      </c>
+      <c r="BS119" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="BT119" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="BU119" s="8">
+        <v>4</v>
+      </c>
+      <c r="BV119" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="BW119" s="8">
+        <v>3</v>
+      </c>
+      <c r="BX119" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="BY119" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="BZ119" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="CA119" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="CB119" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="CC119" s="8">
+        <v>-2.9</v>
+      </c>
+      <c r="CD119" s="8">
+        <v>1</v>
+      </c>
+      <c r="CE119" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="CF119" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="CG119" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="CH119" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="CI119" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="CJ119" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="CK119" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="CL119" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="CM119" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="CN119" s="8">
+        <v>4</v>
+      </c>
+      <c r="CO119" s="8">
+        <v>-3.3</v>
+      </c>
+      <c r="CP119" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="CQ119" s="8">
+        <v>2</v>
+      </c>
+      <c r="CR119" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="CS119" s="8">
+        <v>3.9</v>
+      </c>
+      <c r="CT119" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="CU119" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="CV119" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="CW119" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="CX119" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="CY119" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="CZ119" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="DA119" s="8">
+        <v>-3.9</v>
+      </c>
+      <c r="DB119" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="DC119" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="DD119" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="DE119" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="DF119" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="DG119" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="DH119" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="DI119" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="DJ119" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="DK119" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="DL119" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="DM119" s="8">
+        <v>-2.4</v>
+      </c>
+      <c r="DN119" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="DO119" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="DP119" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="DQ119" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="DR119" s="8">
+        <v>1</v>
+      </c>
+      <c r="DS119" s="8">
+        <v>1</v>
+      </c>
+      <c r="DT119" s="8">
+        <v>1</v>
+      </c>
+      <c r="DU119" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="DV119" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="DW119" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="DX119" s="8">
+        <v>-1</v>
+      </c>
+      <c r="DY119" s="8">
+        <v>-0.9</v>
+      </c>
+      <c r="DZ119" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="EA119" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="EB119" s="8">
+        <v>0</v>
+      </c>
+      <c r="EC119" s="8">
+        <v>-0.8</v>
+      </c>
+      <c r="ED119" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="EE119" s="8">
+        <v>1</v>
+      </c>
+      <c r="EF119" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="EG119" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="EH119" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="EI119" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="EJ119" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="EK119" s="8">
+        <v>-0.8</v>
+      </c>
+      <c r="EL119" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="EM119" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="EN119" s="8">
+        <v>-0.1</v>
+      </c>
+      <c r="EO119" s="8">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="EP119" s="8">
+        <v>1</v>
+      </c>
+      <c r="EQ119" s="8">
+        <v>1</v>
+      </c>
+      <c r="ER119" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="ES119" s="8">
+        <v>3</v>
+      </c>
+      <c r="ET119" s="8">
+        <v>4</v>
+      </c>
+      <c r="EU119" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="EV119" s="8">
+        <v>-0.7</v>
+      </c>
+      <c r="EW119" s="8">
+        <v>-0.8</v>
+      </c>
+      <c r="EX119" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="EY119" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="EZ119" s="8">
+        <v>0</v>
+      </c>
+      <c r="FA119" s="8">
+        <v>-0.5</v>
+      </c>
+      <c r="FB119" s="8">
+        <v>1</v>
+      </c>
+      <c r="FC119" s="8">
+        <v>1</v>
+      </c>
+      <c r="FD119" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="FE119" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="FF119" s="8">
+        <v>3</v>
+      </c>
+      <c r="FG119" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="FH119" s="8">
+        <v>-1.3</v>
+      </c>
+      <c r="FI119" s="8">
+        <v>-1</v>
+      </c>
+      <c r="FJ119" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="FK119" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="FL119" s="8">
+        <v>-0.1</v>
+      </c>
+      <c r="FM119" s="8">
+        <v>-0.8</v>
+      </c>
+      <c r="FN119" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="FO119" s="8">
+        <v>1</v>
+      </c>
+      <c r="FP119" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="FQ119" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="FR119" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="FS119" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="FT119" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="FU119" s="8">
+        <v>-0.7</v>
+      </c>
+      <c r="FV119" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="FW119" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="FX119" s="8">
+        <v>0</v>
+      </c>
+      <c r="FY119" s="8">
+        <v>-0.6</v>
+      </c>
+      <c r="FZ119" s="9">
+        <v>143.19999999999999</v>
+      </c>
+      <c r="GA119" s="9">
+        <v>27.92</v>
+      </c>
+      <c r="GB119" s="9">
+        <v>9.59</v>
+      </c>
+      <c r="GC119" s="9">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="GD119" s="9">
+        <v>32.42</v>
+      </c>
+      <c r="GE119" s="9">
+        <v>10.57</v>
+      </c>
+      <c r="GF119" s="9">
+        <v>11.61</v>
+      </c>
+      <c r="GG119" s="9">
+        <v>13.67</v>
+      </c>
+      <c r="GH119" s="9">
+        <v>4.04</v>
+      </c>
+      <c r="GI119" s="9">
+        <v>13.1</v>
+      </c>
+      <c r="GJ119" s="9">
+        <v>2.85</v>
+      </c>
+      <c r="GK119" s="9">
+        <v>12.94</v>
+      </c>
+      <c r="GL119" s="9">
+        <v>139.9</v>
+      </c>
+      <c r="GM119" s="9">
+        <v>23.57</v>
+      </c>
+      <c r="GN119" s="9">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="GO119" s="9">
+        <v>4.41</v>
+      </c>
+      <c r="GP119" s="9">
+        <v>18.489999999999998</v>
+      </c>
+      <c r="GQ119" s="9">
+        <v>10.47</v>
+      </c>
+      <c r="GR119" s="9">
+        <v>8.82</v>
+      </c>
+      <c r="GS119" s="9">
+        <v>14.21</v>
+      </c>
+      <c r="GT119" s="9">
+        <v>2.73</v>
+      </c>
+      <c r="GU119" s="9">
+        <v>16.13</v>
+      </c>
+      <c r="GV119" s="9">
+        <v>6.21</v>
+      </c>
+      <c r="GW119" s="9">
+        <v>25.81</v>
+      </c>
+      <c r="GX119" s="9">
+        <v>141.5</v>
+      </c>
+      <c r="GY119" s="9">
+        <v>28.7</v>
+      </c>
+      <c r="GZ119" s="9">
+        <v>7.23</v>
+      </c>
+      <c r="HA119" s="9">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="HB119" s="9">
+        <v>27.2</v>
+      </c>
+      <c r="HC119" s="9">
+        <v>11.65</v>
+      </c>
+      <c r="HD119" s="9">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="HE119" s="9">
+        <v>13.98</v>
+      </c>
+      <c r="HF119" s="9">
+        <v>3.31</v>
+      </c>
+      <c r="HG119" s="9">
+        <v>15.36</v>
+      </c>
+      <c r="HH119" s="9">
+        <v>0.23</v>
+      </c>
+      <c r="HI119" s="9">
+        <v>11.64</v>
+      </c>
+      <c r="HJ119" s="9">
+        <v>144.9</v>
+      </c>
+      <c r="HK119" s="9">
+        <v>27.34</v>
+      </c>
+      <c r="HL119" s="9">
+        <v>11.68</v>
+      </c>
+      <c r="HM119" s="9">
+        <v>4.82</v>
+      </c>
+      <c r="HN119" s="9">
+        <v>37.26</v>
+      </c>
+      <c r="HO119" s="9">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="HP119" s="9">
+        <v>6.58</v>
+      </c>
+      <c r="HQ119" s="9">
+        <v>13.62</v>
+      </c>
+      <c r="HR119" s="9">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="HS119" s="9">
+        <v>11.32</v>
+      </c>
+      <c r="HT119" s="9">
+        <v>5.15</v>
+      </c>
+      <c r="HU119" s="9">
+        <v>13.37</v>
+      </c>
+      <c r="HV119" s="9">
+        <v>140</v>
+      </c>
+      <c r="HW119" s="9">
+        <v>23.48</v>
+      </c>
+      <c r="HX119" s="9">
+        <v>9.18</v>
+      </c>
+      <c r="HY119" s="9">
+        <v>3.64</v>
+      </c>
+      <c r="HZ119" s="9">
+        <v>15.55</v>
+      </c>
+      <c r="IA119" s="9">
+        <v>12.42</v>
+      </c>
+      <c r="IB119" s="9">
+        <v>17.68</v>
+      </c>
+      <c r="IC119" s="9">
+        <v>16.14</v>
+      </c>
+      <c r="ID119" s="9">
+        <v>3.28</v>
+      </c>
+      <c r="IE119" s="9">
+        <v>27.1</v>
+      </c>
+      <c r="IF119" s="9">
+        <v>1.89</v>
+      </c>
+      <c r="IG119" s="9">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="IH119" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="II119" s="9">
+        <v>0.27</v>
+      </c>
+      <c r="IJ119" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="IK119" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="IL119" s="9">
+        <v>1.08</v>
+      </c>
+      <c r="IM119" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="IN119" s="9">
+        <v>-0.11</v>
+      </c>
+      <c r="IO119" s="9">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="IP119" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="IQ119" s="9">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -62810,7 +63565,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY118"/>
+  <dimension ref="A1:AY119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -63911,154 +64666,154 @@
         <v>256</v>
       </c>
       <c r="B8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="C8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="D8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="E8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="F8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="G8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="H8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="I8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="J8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="K8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="L8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="M8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="N8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="O8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="P8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="Q8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="R8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="S8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="T8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="U8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="V8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="W8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="X8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="Y8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="Z8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AA8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AB8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AC8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AD8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AE8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AF8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AG8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AH8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AI8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AJ8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AK8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AL8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AM8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AN8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AO8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AP8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AQ8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AR8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AS8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AT8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AU8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AV8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AW8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AX8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="AY8" s="6">
-        <v>45717</v>
+        <v>45809</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.2">
@@ -64066,154 +64821,154 @@
         <v>257</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.2">
@@ -65059,6 +65814,161 @@
       </c>
       <c r="AY118" s="9">
         <v>0.03</v>
+      </c>
+    </row>
+    <row r="119" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A119" s="10">
+        <v>45809</v>
+      </c>
+      <c r="B119" s="9">
+        <v>0</v>
+      </c>
+      <c r="C119" s="9">
+        <v>-0.09</v>
+      </c>
+      <c r="D119" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E119" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="F119" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="G119" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="H119" s="9">
+        <v>0.31</v>
+      </c>
+      <c r="I119" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="J119" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="K119" s="9">
+        <v>-0.11</v>
+      </c>
+      <c r="L119" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="M119" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="N119" s="9">
+        <v>-0.01</v>
+      </c>
+      <c r="O119" s="9">
+        <v>-0.27</v>
+      </c>
+      <c r="P119" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="Q119" s="9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R119" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="S119" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="T119" s="9">
+        <v>1.06</v>
+      </c>
+      <c r="U119" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="V119" s="9">
+        <v>-0.12</v>
+      </c>
+      <c r="W119" s="9">
+        <v>-0.12</v>
+      </c>
+      <c r="X119" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="Y119" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="Z119" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA119" s="9">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AB119" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="AC119" s="9">
+        <v>0.27</v>
+      </c>
+      <c r="AD119" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AE119" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="AF119" s="9">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AG119" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="AH119" s="9">
+        <v>-0.09</v>
+      </c>
+      <c r="AI119" s="9">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="AJ119" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK119" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="AL119" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM119" s="9">
+        <v>-0.12</v>
+      </c>
+      <c r="AN119" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="AO119" s="9">
+        <v>0.23</v>
+      </c>
+      <c r="AP119" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="AQ119" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="AR119" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="AS119" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="AT119" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="AU119" s="9">
+        <v>-0.11</v>
+      </c>
+      <c r="AV119" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AW119" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="AX119" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY119" s="9">
+        <v>-0.05</v>
       </c>
     </row>
   </sheetData>
